--- a/Pendulum/F3_Fadenpendel.xlsx
+++ b/Pendulum/F3_Fadenpendel.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/Library/Mobile Documents/com~apple~CloudDocs/Documents/Anhs Uni/3.Semester/Physik/Praktikum/Fadenpendel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Pendulum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CEDAF7C-D0FD-2C40-A7D7-28FE0C6DE3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61EDE24-1ACC-9342-9844-AD41DD96C4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17120" xr2:uid="{FFE53BA9-639E-8945-A277-855555FFBC7D}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17120" activeTab="1" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Durchführung" sheetId="3" r:id="rId1"/>
+    <sheet name="Raw Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,26 +36,143 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Quelle</t>
+  </si>
+  <si>
+    <t>https://phyphox.org/de/experiment/fadenpendel/</t>
+  </si>
+  <si>
+    <t>T in s am Nullpunkt</t>
+  </si>
+  <si>
+    <t>T in s am Umkehrpunkt</t>
+  </si>
+  <si>
+    <t>Anfangsamplitude φ_0 in Grad</t>
+  </si>
+  <si>
+    <t>Versuchsteil 1: statistische Messunsicherheit der Periodendauer</t>
+  </si>
+  <si>
+    <t>Versuchsteil 3: Variation der Fadenlänge</t>
+  </si>
+  <si>
+    <t>∆l_i</t>
+  </si>
+  <si>
+    <t>∆l_i (EG-Genauigkeitsklasse) = b*l + a</t>
+  </si>
+  <si>
+    <t>EG-Genauigkeitsklasse</t>
+  </si>
+  <si>
+    <t>a in mm</t>
+  </si>
+  <si>
+    <t>b in mm/m</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>l_i</t>
+  </si>
+  <si>
+    <t>l_0,schätz</t>
+  </si>
+  <si>
+    <t>∆l_0,schätz</t>
+  </si>
+  <si>
+    <t>T_i,10</t>
+  </si>
+  <si>
+    <t>∆T_i,sys</t>
+  </si>
+  <si>
+    <t>l_1</t>
+  </si>
+  <si>
+    <t>l_2</t>
+  </si>
+  <si>
+    <t>l_3</t>
+  </si>
+  <si>
+    <t>l_4</t>
+  </si>
+  <si>
+    <t>l_5</t>
+  </si>
+  <si>
+    <t>l_6</t>
+  </si>
+  <si>
+    <t>l_7</t>
+  </si>
+  <si>
+    <t>l_8</t>
+  </si>
+  <si>
+    <t>l_9</t>
+  </si>
+  <si>
+    <t>l_10</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Calibri-Light"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri-Light"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri-Light"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri-Light"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -62,12 +180,198 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -83,6 +387,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E5EDED-5FF8-4036-8E8E-DE185F18B40B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8299450" y="3473450"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,13 +745,326 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64ABE346-43B0-E940-A5E7-C97685516AEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6294217A-A0D8-0240-91A1-F26A21244DDE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DE3AB9-B21A-724B-BBAC-756AF4DE508E}">
+  <dimension ref="A1:O29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="O2" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16" thickBot="1"/>
+    <row r="4" spans="1:15" ht="16" thickBot="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="E5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="12">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="12">
+        <v>5</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="12">
+        <v>6</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="12">
+        <v>7</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="12">
+        <v>9</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:15" ht="16" thickBot="1">
+      <c r="A14" s="15">
+        <v>10</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+    </row>
+    <row r="17" spans="1:12" s="6" customFormat="1">
+      <c r="A17" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16" thickBot="1"/>
+    <row r="19" spans="1:12" ht="16" thickBot="1">
+      <c r="A19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16" thickBot="1">
+      <c r="A20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:12" ht="16" thickBot="1">
+      <c r="A21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="13"/>
+      <c r="J21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="13"/>
+      <c r="J22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L22" s="14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="13"/>
+      <c r="J23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="L23" s="14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16" thickBot="1">
+      <c r="A24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="13"/>
+      <c r="J24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="L24" s="17">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:12" ht="16" thickBot="1">
+      <c r="A29" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Pendulum/F3_Fadenpendel.xlsx
+++ b/Pendulum/F3_Fadenpendel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Pendulum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61EDE24-1ACC-9342-9844-AD41DD96C4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A512422F-6C77-D747-AB76-FC28740B8DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17120" activeTab="1" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
+    <workbookView xWindow="15000" yWindow="820" windowWidth="15160" windowHeight="17120" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Durchführung" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Quelle</t>
   </si>
@@ -127,6 +127,24 @@
   </si>
   <si>
     <t>l_10</t>
+  </si>
+  <si>
+    <t>Modellbetrachtung des mathematischen Fadenpendels unter Vernachlässigung der Masse des Fadens</t>
+  </si>
+  <si>
+    <t>l = Fadenlänge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">φ = Auslenkwinkel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s = Bahnkurvenkoordinate </t>
+  </si>
+  <si>
+    <t>s = l * φ (Bodenmaß)</t>
+  </si>
+  <si>
+    <t>und der Luftreibung auf den Körper an jeden Punkt seiner Bahn die Gewichtskraft zudem gilt sin φ ≈ φ</t>
   </si>
 </sst>
 </file>
@@ -309,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,7 +344,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -352,9 +369,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -390,6 +404,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305968C5-58B4-F9A4-0D8B-47E815B26951}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="368300" y="101600"/>
+          <a:ext cx="5041900" cy="4267200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -746,13 +809,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6294217A-A0D8-0240-91A1-F26A21244DDE}">
-  <dimension ref="A1"/>
+  <dimension ref="I2:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="9:12">
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="9:12">
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="9:12">
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="9:12">
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="9:12">
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -760,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DE3AB9-B21A-724B-BBAC-756AF4DE508E}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -799,17 +897,17 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16" thickBot="1"/>
     <row r="4" spans="1:15" ht="16" thickBot="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -820,82 +918,122 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2.1</v>
+      </c>
       <c r="E5" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C6" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="C10" s="13">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C11" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C12" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="16" thickBot="1">
-      <c r="A14" s="15">
+      <c r="A14" s="14">
         <v>10</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="17" spans="1:12" s="6" customFormat="1">
       <c r="A17" s="7" t="s">
@@ -904,22 +1042,22 @@
     </row>
     <row r="18" spans="1:12" ht="16" thickBot="1"/>
     <row r="19" spans="1:12" ht="16" thickBot="1">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J19" t="s">
@@ -927,140 +1065,146 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="16" thickBot="1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="13"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:12" ht="16" thickBot="1">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="13"/>
-      <c r="J21" s="9" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="12"/>
+      <c r="J21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="K21" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="L21" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="13"/>
-      <c r="J22" s="12" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="12"/>
+      <c r="J22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="12">
         <v>0.1</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="13">
         <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="13"/>
-      <c r="J23" s="12" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="12"/>
+      <c r="J23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="12">
         <v>0.3</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L23" s="13">
         <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="16" thickBot="1">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="13"/>
-      <c r="J24" s="15" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="12"/>
+      <c r="J24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="15">
         <v>0.6</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="16">
         <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="13"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="13"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="13"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="12"/>
+      <c r="H27" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="13"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="12"/>
+      <c r="H28" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="16" thickBot="1">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="16"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Pendulum/F3_Fadenpendel.xlsx
+++ b/Pendulum/F3_Fadenpendel.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Pendulum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A512422F-6C77-D747-AB76-FC28740B8DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1D94D3-77A4-C147-ABEA-078F91D05C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15000" yWindow="820" windowWidth="15160" windowHeight="17120" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
+    <workbookView xWindow="13440" yWindow="1760" windowWidth="16160" windowHeight="17120" activeTab="1" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Durchführung" sheetId="3" r:id="rId1"/>
     <sheet name="Raw Data" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
-  <si>
-    <t>Quelle</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>https://phyphox.org/de/experiment/fadenpendel/</t>
   </si>
@@ -51,21 +48,12 @@
     <t>T in s am Umkehrpunkt</t>
   </si>
   <si>
-    <t>Anfangsamplitude φ_0 in Grad</t>
-  </si>
-  <si>
     <t>Versuchsteil 1: statistische Messunsicherheit der Periodendauer</t>
   </si>
   <si>
     <t>Versuchsteil 3: Variation der Fadenlänge</t>
   </si>
   <si>
-    <t>∆l_i</t>
-  </si>
-  <si>
-    <t>∆l_i (EG-Genauigkeitsklasse) = b*l + a</t>
-  </si>
-  <si>
     <t>EG-Genauigkeitsklasse</t>
   </si>
   <si>
@@ -84,74 +72,408 @@
     <t>III</t>
   </si>
   <si>
-    <t>l_i</t>
-  </si>
-  <si>
-    <t>l_0,schätz</t>
-  </si>
-  <si>
-    <t>∆l_0,schätz</t>
-  </si>
-  <si>
-    <t>T_i,10</t>
-  </si>
-  <si>
-    <t>∆T_i,sys</t>
-  </si>
-  <si>
-    <t>l_1</t>
-  </si>
-  <si>
-    <t>l_2</t>
-  </si>
-  <si>
-    <t>l_3</t>
-  </si>
-  <si>
-    <t>l_4</t>
-  </si>
-  <si>
-    <t>l_5</t>
-  </si>
-  <si>
-    <t>l_6</t>
-  </si>
-  <si>
-    <t>l_7</t>
-  </si>
-  <si>
-    <t>l_8</t>
-  </si>
-  <si>
-    <t>l_9</t>
-  </si>
-  <si>
-    <t>l_10</t>
-  </si>
-  <si>
-    <t>Modellbetrachtung des mathematischen Fadenpendels unter Vernachlässigung der Masse des Fadens</t>
-  </si>
-  <si>
     <t>l = Fadenlänge</t>
   </si>
   <si>
-    <t xml:space="preserve">φ = Auslenkwinkel </t>
-  </si>
-  <si>
     <t xml:space="preserve">s = Bahnkurvenkoordinate </t>
   </si>
   <si>
-    <t>s = l * φ (Bodenmaß)</t>
-  </si>
-  <si>
-    <t>und der Luftreibung auf den Körper an jeden Punkt seiner Bahn die Gewichtskraft zudem gilt sin φ ≈ φ</t>
+    <t>In diesen Modell gelten folgende Annahmen:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vernachlässigung des Fadens und der ausgedehnte Körper wird als </t>
+  </si>
+  <si>
+    <t>Punktmasse betrachtet</t>
+  </si>
+  <si>
+    <t>Luftreibung wird vernachlässig</t>
+  </si>
+  <si>
+    <t>Für den Bogenmaß gilt:</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Modellbetrachtung des Fadenpendels als mathematische Fadenpendels</t>
+  </si>
+  <si>
+    <t>Bei kleinen Auslenkungen erhält man eine harmonische Schwingung, welches folgende Gleichung beschreiben kann:</t>
+  </si>
+  <si>
+    <t>s = l * 𝜑 (Bodenmaß)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">𝜑 = Auslenkwinkel </t>
+  </si>
+  <si>
+    <t>klein-Winkelannährung -&gt; sin 𝜑 ≈ 𝜑</t>
+  </si>
+  <si>
+    <t>welches folgende Gleichung beschreiben kann:</t>
+  </si>
+  <si>
+    <t>Versuchsteil 1</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Auslenkung des Pendels mit:</t>
+  </si>
+  <si>
+    <t>konstanten Fadenlänge</t>
+  </si>
+  <si>
+    <t>konstanten Winkel 𝜑</t>
+  </si>
+  <si>
+    <t>Nulldurchgang -&gt; 𝜑 = 0</t>
+  </si>
+  <si>
+    <r>
+      <t>Umkehrpunkt -&gt; 𝜑 = 𝜑</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>zehnmal die Zeit einer Periode messen -&gt; jeweils am Punkt:</t>
+  </si>
+  <si>
+    <t>Welche Messung für die Periodendauer T ist geeignet -&gt; am Nulldurchgang oder Umkehrpunkt?</t>
+  </si>
+  <si>
+    <t>wie sehr beeinflussen die systematische Fehler das Ergebnis? -&gt; Abschätzen</t>
+  </si>
+  <si>
+    <t>Versuchsteil 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Differntialgleichung kann folgenderweise gelöst werden : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mit </t>
+  </si>
+  <si>
+    <t>Versuchsteil 3</t>
+  </si>
+  <si>
+    <t>Faden</t>
+  </si>
+  <si>
+    <t>Kugel</t>
+  </si>
+  <si>
+    <r>
+      <t>Markierer für 𝜑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> = 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Winkelmesser</t>
+  </si>
+  <si>
+    <t>Stoppuhr</t>
+  </si>
+  <si>
+    <t>Stativ</t>
+  </si>
+  <si>
+    <t>Kleber?</t>
+  </si>
+  <si>
+    <r>
+      <t>Anfangsamplitude  𝜑</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve">  in Grad</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>,sys</t>
+    </r>
+  </si>
+  <si>
+    <t>Für kleine Auslenkungen 𝜑 (in Bogenmaß) kann die kleinwinkelnäherung  sin𝜑 ≈ 𝜑  gemacht werden, sodass folgende Bezihung gilt:</t>
+  </si>
+  <si>
+    <r>
+      <t>gleiche Anfangsamplitude 𝜑</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> für alle Messungen</t>
+    </r>
+  </si>
+  <si>
+    <t>-&gt;</t>
+  </si>
+  <si>
+    <t>Periodenmessmethode wählen, die im Versuchsteil 1 als am besten ausgewertet wurde (Entweder die Zeit beim Nulldurchgang</t>
+  </si>
+  <si>
+    <t>oder am Umkehrpunkt messen)</t>
+  </si>
+  <si>
+    <t>Fadenlänge muss mit einer Messmethode bestimmt werden, dessen systematische Unsicherheit bekannt ist</t>
+  </si>
+  <si>
+    <r>
+      <t>Was ist eigtl mit: Um welche Länge l</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>,schätz wird das Pendel länger, wenn die Lage des Schwerpunktes abgeschätzt wird? Schätzen sie auch ∆l</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>,schätz ab.</t>
+    </r>
+  </si>
+  <si>
+    <t>10 Perioden für 10 verschiedene Fadenlänge  werden gemessen</t>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>0,schätz</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆l</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve">0,schätz </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆l</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in mm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in s</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,8 +497,26 @@
       <name val="Calibri-Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri-Light"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri-Light"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri-Light"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,8 +529,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -235,15 +581,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -323,19 +660,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -344,19 +711,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -365,26 +732,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,6 +871,1308 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1105559" cy="500137"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{585AE8A1-4E39-9E83-1429-F9C0AD5B9701}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6419850" y="3054350"/>
+              <a:ext cx="1105559" cy="500137"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜋</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜔</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=2</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜋</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑙</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑔</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                      </m:e>
+                    </m:rad>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{585AE8A1-4E39-9E83-1429-F9C0AD5B9701}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6419850" y="3054350"/>
+              <a:ext cx="1105559" cy="500137"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑇=  2𝜋/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜔</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=2𝜋 √(𝑙/𝑔  )</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1954959" cy="344453"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA34AFFB-1653-6B35-31BA-D5830B4A27A9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="730250" y="9404350"/>
+              <a:ext cx="1954959" cy="344453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∆</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:d>
+                              <m:dPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>∆</m:t>
+                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑇</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑠𝑡𝑎𝑡</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>.</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:e>
+                            </m:d>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+(∆</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑇</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑠𝑦𝑠𝑡</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>.</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>)^2</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:rad>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA34AFFB-1653-6B35-31BA-D5830B4A27A9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="730250" y="9404350"/>
+              <a:ext cx="1954959" cy="344453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∆𝑇_𝑖= √((∆𝑇_(𝑠𝑡𝑎𝑡.) )^2+(∆𝑇_(𝑠𝑦𝑠𝑡.))^2)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E64A329-713C-79E3-D1C7-46EC2D42558D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="527050" y="10674350"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1184491" cy="339708"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F0BACA-7ED8-529E-4F23-6B6D650E7760}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="469900" y="10661650"/>
+              <a:ext cx="1184491" cy="339708"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑙</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∙</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑑</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜑</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑔</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∙</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=0</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-DE" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F0BACA-7ED8-529E-4F23-6B6D650E7760}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="469900" y="10661650"/>
+              <a:ext cx="1184491" cy="339708"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>  (𝑑^2 𝜑)/(𝑑𝑡^2 )+𝑔</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜑=0</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-DE" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1533881" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C525D68-DD08-5A23-AB9B-624E4B6D7C72}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="520700" y="11449050"/>
+              <a:ext cx="1533881" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜑</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∙</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>sin</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>⁡(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜔</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> ∙</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+ </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜓</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C525D68-DD08-5A23-AB9B-624E4B6D7C72}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="520700" y="11449050"/>
+              <a:ext cx="1533881" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>= 𝜑_0  ∙sin⁡(𝜔 ∙𝑡+ 𝜓)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="546688" cy="344453"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F4E7AF-4C50-337B-4FAB-0F1A7CF6B6DF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3124200" y="11372850"/>
+              <a:ext cx="546688" cy="344453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜔</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑔</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑙</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:rad>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F4E7AF-4C50-337B-4FAB-0F1A7CF6B6DF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3124200" y="11372850"/>
+              <a:ext cx="546688" cy="344453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜔</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>= √(𝑔/𝑙)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -456,9 +2180,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -507,6 +2231,210 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="902298" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE996935-6BBF-2B90-1DB8-EC8682B27B89}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5175250" y="10661650"/>
+              <a:ext cx="902298" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∆</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐼</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑏</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> ∙</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑙</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE996935-6BBF-2B90-1DB8-EC8682B27B89}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5175250" y="10661650"/>
+              <a:ext cx="902298" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∆𝐼_𝑖=𝑏 ∙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑙+𝑎</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -809,43 +2737,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6294217A-A0D8-0240-91A1-F26A21244DDE}">
-  <dimension ref="I2:L7"/>
+  <dimension ref="A2:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="9:12">
+    <row r="2" spans="9:13">
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="9:13">
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="9:13">
+      <c r="I4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="9:13">
+      <c r="I5" s="20"/>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="9:13">
+      <c r="I6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="9:13">
+      <c r="I7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="9:13">
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="9:13">
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="9:13">
+      <c r="M12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="9:13">
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="9:13">
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="5" customFormat="1">
+      <c r="A25" s="21"/>
+      <c r="B25" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="5" customFormat="1">
+      <c r="A37" s="21"/>
+      <c r="B37" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="C44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="9:12">
-      <c r="I3" t="s">
+    <row r="45" spans="1:3" ht="17">
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="5" customFormat="1">
+      <c r="A53" s="21"/>
+      <c r="B53" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="9:12">
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="9:12">
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="9:12">
-      <c r="I7" t="s">
-        <v>31</v>
+    <row r="55" spans="1:5">
+      <c r="A55" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="E61" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" s="5" customFormat="1">
+      <c r="A67" s="21"/>
+      <c r="B67" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="17">
+      <c r="A69" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="B71" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="17">
+      <c r="A75" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="B77" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -856,357 +3012,649 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DE3AB9-B21A-724B-BBAC-756AF4DE508E}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A13" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" customWidth="1"/>
     <col min="10" max="10" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" ht="16" thickBot="1"/>
+    <row r="3" spans="1:15" ht="16" thickBot="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="O2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="16" thickBot="1"/>
-    <row r="4" spans="1:15" ht="16" thickBot="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+      <c r="B8" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="10">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C10" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" t="s">
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="10">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="10">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="11">
+      <c r="C12" s="12">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16" thickBot="1">
+      <c r="A13" s="13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="14">
         <v>1</v>
       </c>
-      <c r="B5" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C5" s="13">
-        <v>2.1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="11">
-        <v>2</v>
-      </c>
-      <c r="B6" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C6" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="11">
-        <v>3</v>
-      </c>
-      <c r="B7" s="12">
-        <v>1</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="C13" s="15">
         <v>1.9</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="11">
-        <v>4</v>
-      </c>
-      <c r="B8" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="11">
-        <v>5</v>
-      </c>
-      <c r="B9" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="11">
-        <v>6</v>
-      </c>
-      <c r="B10" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C10" s="13">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="11">
-        <v>7</v>
-      </c>
-      <c r="B11" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C11" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="11">
-        <v>8</v>
-      </c>
-      <c r="B12" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="C12" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="11">
-        <v>9</v>
-      </c>
-      <c r="B13" s="12">
-        <v>1</v>
-      </c>
-      <c r="C13" s="13">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="16" thickBot="1">
-      <c r="A14" s="14">
-        <v>10</v>
-      </c>
-      <c r="B14" s="15">
-        <v>1</v>
-      </c>
-      <c r="C14" s="16">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1"/>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" ht="17">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="17" spans="1:12" s="6" customFormat="1">
-      <c r="A17" s="7" t="s">
+    <row r="16" spans="1:15">
+      <c r="A16" s="1">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="18" spans="1:11" s="5" customFormat="1">
+      <c r="A18" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="16" thickBot="1"/>
+    <row r="21" spans="1:11" ht="18" thickBot="1">
+      <c r="A21" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="17" customHeight="1">
+      <c r="A22" s="37">
+        <v>2</v>
+      </c>
+      <c r="B22" s="37">
+        <f>A22*D54+C54</f>
+        <v>0.7</v>
+      </c>
+      <c r="C22" s="37">
+        <v>0.01</v>
+      </c>
+      <c r="D22" s="37">
+        <v>1E-3</v>
+      </c>
+      <c r="E22" s="31">
+        <v>100.2</v>
+      </c>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="32">
+        <v>100.1</v>
+      </c>
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="32">
+        <v>100.1</v>
+      </c>
+      <c r="F24" s="29"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="32">
+        <v>100</v>
+      </c>
+      <c r="F25" s="29"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="32">
+        <v>90.9</v>
+      </c>
+      <c r="F26" s="29"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="32">
+        <v>90.9</v>
+      </c>
+      <c r="F27" s="29"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="32">
+        <v>90.8</v>
+      </c>
+      <c r="F28" s="29"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="32">
+        <v>90.9</v>
+      </c>
+      <c r="F29" s="29"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="32">
+        <v>100.1</v>
+      </c>
+      <c r="F30" s="29"/>
+    </row>
+    <row r="31" spans="1:11" ht="16" thickBot="1">
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="35">
+        <v>100.2</v>
+      </c>
+      <c r="F31" s="30"/>
+    </row>
+    <row r="32" spans="1:11" ht="24" customHeight="1" thickBot="1">
+      <c r="A32" s="26">
+        <v>1.9</v>
+      </c>
+      <c r="B32" s="26">
+        <f>A32*$D$54+$C$54</f>
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="C32" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="D32" s="26">
+        <v>1E-3</v>
+      </c>
+      <c r="E32" s="24">
+        <v>90.8</v>
+      </c>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="1:6" ht="24" customHeight="1" thickBot="1">
+      <c r="A33" s="33">
+        <v>1.8</v>
+      </c>
+      <c r="B33" s="33">
+        <f t="shared" ref="B33:B39" si="0">A33*$D$54+$C$54</f>
+        <v>0.66</v>
+      </c>
+      <c r="C33" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="D33" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="E33" s="34">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="F33" s="36"/>
+    </row>
+    <row r="34" spans="1:6" ht="24" customHeight="1" thickBot="1">
+      <c r="A34" s="27">
+        <v>1.7</v>
+      </c>
+      <c r="B34" s="27">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+      <c r="C34" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="D34" s="27">
+        <v>1E-3</v>
+      </c>
+      <c r="E34" s="25">
+        <v>70.5</v>
+      </c>
+      <c r="F34" s="29"/>
+    </row>
+    <row r="35" spans="1:6" ht="24" customHeight="1" thickBot="1">
+      <c r="A35" s="33">
+        <v>1.6</v>
+      </c>
+      <c r="B35" s="33">
+        <f t="shared" si="0"/>
+        <v>0.62000000000000011</v>
+      </c>
+      <c r="C35" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="D35" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="E35" s="34">
+        <v>60.4</v>
+      </c>
+      <c r="F35" s="36"/>
+    </row>
+    <row r="36" spans="1:6" ht="24" customHeight="1" thickBot="1">
+      <c r="A36" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="B36" s="27">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="C36" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="D36" s="27">
+        <v>1E-3</v>
+      </c>
+      <c r="E36" s="25">
+        <v>50.6</v>
+      </c>
+      <c r="F36" s="29"/>
+    </row>
+    <row r="37" spans="1:6" ht="24" customHeight="1" thickBot="1">
+      <c r="A37" s="33">
+        <v>1.4</v>
+      </c>
+      <c r="B37" s="33">
+        <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C37" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="D37" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="E37" s="34">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="F37" s="36"/>
+    </row>
+    <row r="38" spans="1:6" ht="24" customHeight="1" thickBot="1">
+      <c r="A38" s="27">
+        <v>1.3</v>
+      </c>
+      <c r="B38" s="27">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C38" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="D38" s="27">
+        <v>1E-3</v>
+      </c>
+      <c r="E38" s="25">
+        <v>30.2</v>
+      </c>
+      <c r="F38" s="29"/>
+    </row>
+    <row r="39" spans="1:6" ht="24" customHeight="1" thickBot="1">
+      <c r="A39" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="B39" s="33">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+      <c r="C39" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="D39" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="E39" s="24">
+        <v>20.3</v>
+      </c>
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40" spans="1:6" ht="17" customHeight="1">
+      <c r="A40" s="37">
+        <v>1</v>
+      </c>
+      <c r="B40" s="37">
+        <f>A40*D54+C54</f>
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="37">
+        <v>0.01</v>
+      </c>
+      <c r="D40" s="37">
+        <v>1E-3</v>
+      </c>
+      <c r="E40" s="31">
+        <v>10</v>
+      </c>
+      <c r="F40" s="28"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="32">
+        <v>10.5</v>
+      </c>
+      <c r="F41" s="29"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="32">
+        <v>10.4</v>
+      </c>
+      <c r="F42" s="29"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="32">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F43" s="29"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="32">
+        <v>10.1</v>
+      </c>
+      <c r="F44" s="29"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="32">
+        <v>10.5</v>
+      </c>
+      <c r="F45" s="29"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="32">
+        <v>10.4</v>
+      </c>
+      <c r="F46" s="29"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="32">
+        <v>10.3</v>
+      </c>
+      <c r="F47" s="29"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="32">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F48" s="29"/>
+    </row>
+    <row r="49" spans="1:6" ht="16" thickBot="1">
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="35">
+        <v>10.4</v>
+      </c>
+      <c r="F49" s="30"/>
+    </row>
+    <row r="51" spans="1:6" ht="16" thickBot="1"/>
+    <row r="52" spans="1:6" ht="16" thickBot="1">
+      <c r="B52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="16" thickBot="1"/>
-    <row r="19" spans="1:12" ht="16" thickBot="1">
-      <c r="A19" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="D52" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" t="s">
+    </row>
+    <row r="53" spans="1:6">
+      <c r="B53" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="16" thickBot="1">
-      <c r="A20" s="11" t="s">
+      <c r="C53" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D53" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="B54" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="D54" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16" thickBot="1">
+      <c r="B55" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="D55" s="15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17">
+      <c r="A58" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
         <v>20</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:12" ht="16" thickBot="1">
-      <c r="A21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="12"/>
-      <c r="J21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="12"/>
-      <c r="J22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="L22" s="13">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="12"/>
-      <c r="J23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="16" thickBot="1">
-      <c r="A24" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="12"/>
-      <c r="J24" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="L24" s="16">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="12"/>
-      <c r="H27" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="12"/>
-      <c r="H28" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="16" thickBot="1">
-      <c r="A29" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="D22:D31"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="D40:D49"/>
+    <mergeCell ref="C40:C49"/>
+    <mergeCell ref="B40:B49"/>
+    <mergeCell ref="A40:A49"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Pendulum/F3_Fadenpendel.xlsx
+++ b/Pendulum/F3_Fadenpendel.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Pendulum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1D94D3-77A4-C147-ABEA-078F91D05C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AF2326-7D4B-B144-B74D-1D43F673666D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="1760" windowWidth="16160" windowHeight="17120" activeTab="1" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
+    <workbookView xWindow="2060" yWindow="1760" windowWidth="27540" windowHeight="17120" activeTab="2" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Durchführung" sheetId="3" r:id="rId1"/>
-    <sheet name="Raw Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Versuchsteil 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Versuchsteil 3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
-  <si>
-    <t>https://phyphox.org/de/experiment/fadenpendel/</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>T in s am Nullpunkt</t>
   </si>
@@ -222,8 +220,140 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>∆T</t>
+    <t>Für kleine Auslenkungen 𝜑 (in Bogenmaß) kann die kleinwinkelnäherung  sin𝜑 ≈ 𝜑  gemacht werden, sodass folgende Bezihung gilt:</t>
+  </si>
+  <si>
+    <r>
+      <t>gleiche Anfangsamplitude 𝜑</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> für alle Messungen</t>
+    </r>
+  </si>
+  <si>
+    <t>-&gt;</t>
+  </si>
+  <si>
+    <t>Periodenmessmethode wählen, die im Versuchsteil 1 als am besten ausgewertet wurde (Entweder die Zeit beim Nulldurchgang</t>
+  </si>
+  <si>
+    <t>oder am Umkehrpunkt messen)</t>
+  </si>
+  <si>
+    <t>Fadenlänge muss mit einer Messmethode bestimmt werden, dessen systematische Unsicherheit bekannt ist</t>
+  </si>
+  <si>
+    <r>
+      <t>Was ist eigtl mit: Um welche Länge l</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>,schätz wird das Pendel länger, wenn die Lage des Schwerpunktes abgeschätzt wird? Schätzen sie auch ∆l</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>,schätz ab.</t>
+    </r>
+  </si>
+  <si>
+    <t>10 Perioden für 10 verschiedene Fadenlänge  werden gemessen</t>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>0,schätz</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆l</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve">0,schätz </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
     </r>
     <r>
       <rPr>
@@ -242,144 +372,12 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t>,sys</t>
-    </r>
-  </si>
-  <si>
-    <t>Für kleine Auslenkungen 𝜑 (in Bogenmaß) kann die kleinwinkelnäherung  sin𝜑 ≈ 𝜑  gemacht werden, sodass folgende Bezihung gilt:</t>
-  </si>
-  <si>
-    <r>
-      <t>gleiche Anfangsamplitude 𝜑</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> für alle Messungen</t>
-    </r>
-  </si>
-  <si>
-    <t>-&gt;</t>
-  </si>
-  <si>
-    <t>Periodenmessmethode wählen, die im Versuchsteil 1 als am besten ausgewertet wurde (Entweder die Zeit beim Nulldurchgang</t>
-  </si>
-  <si>
-    <t>oder am Umkehrpunkt messen)</t>
-  </si>
-  <si>
-    <t>Fadenlänge muss mit einer Messmethode bestimmt werden, dessen systematische Unsicherheit bekannt ist</t>
-  </si>
-  <si>
-    <r>
-      <t>Was ist eigtl mit: Um welche Länge l</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>,schätz wird das Pendel länger, wenn die Lage des Schwerpunktes abgeschätzt wird? Schätzen sie auch ∆l</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>,schätz ab.</t>
-    </r>
-  </si>
-  <si>
-    <t>10 Perioden für 10 verschiedene Fadenlänge  werden gemessen</t>
-  </si>
-  <si>
-    <r>
-      <t>l</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>0,schätz</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
       <t xml:space="preserve"> in m</t>
     </r>
   </si>
   <si>
     <r>
       <t>∆l</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve">0,schätz </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>in m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>l</t>
     </r>
     <r>
       <rPr>
@@ -398,12 +396,12 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t xml:space="preserve"> in m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆l</t>
+      <t xml:space="preserve"> in mm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -422,6 +420,204 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>sys</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>i,sys</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>10,sys</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>10,10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>i,ges</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆l</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>i,ges</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
       <t xml:space="preserve"> in mm</t>
     </r>
   </si>
@@ -446,7 +642,12 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t>,</t>
+      <t>(mean)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆T</t>
     </r>
     <r>
       <rPr>
@@ -456,7 +657,30 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t>10</t>
+      <t xml:space="preserve">i,stat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>(mean)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>i,ges</t>
     </r>
     <r>
       <rPr>
@@ -465,14 +689,23 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t xml:space="preserve"> in s</t>
-    </r>
+      <t xml:space="preserve"> (mean)</t>
+    </r>
+  </si>
+  <si>
+    <t>Nullpunkt</t>
+  </si>
+  <si>
+    <t>Umkehrpunkt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -536,7 +769,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -693,11 +926,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -763,9 +1044,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,16 +1053,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -793,20 +1062,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2182,7 +2490,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -2235,20 +2543,80 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03E569D0-1F05-19A1-B89F-C7244543F36D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8140700" y="12376150"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="902298" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE996935-6BBF-2B90-1DB8-EC8682B27B89}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{826C8263-4EC5-3E4D-9FC7-E7DE1DCF340A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2256,7 +2624,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5175250" y="10661650"/>
+              <a:off x="9645650" y="10788650"/>
               <a:ext cx="902298" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2371,13 +2739,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE996935-6BBF-2B90-1DB8-EC8682B27B89}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{826C8263-4EC5-3E4D-9FC7-E7DE1DCF340A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2385,7 +2753,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5175250" y="10661650"/>
+              <a:off x="9645650" y="10788650"/>
               <a:ext cx="902298" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2435,6 +2803,61 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4EBDE28-F710-E544-B7BF-74993B53F034}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8140700" y="12376150"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -2751,242 +3174,242 @@
   <sheetData>
     <row r="2" spans="9:13">
       <c r="I2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="9:13">
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="9:13">
       <c r="I4" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="9:13">
       <c r="I5" s="20"/>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="9:13">
       <c r="I6" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="9:13">
       <c r="I7" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="9:13">
       <c r="I10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
         <v>21</v>
-      </c>
-      <c r="M10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="9:13">
       <c r="M11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="9:13">
       <c r="M12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="9:13">
       <c r="I14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="9:13">
       <c r="I15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="5" customFormat="1">
       <c r="A25" s="21"/>
       <c r="B25" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="B33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="5" customFormat="1">
       <c r="A37" s="21"/>
       <c r="B37" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="C41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="C44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17">
       <c r="C45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="5" customFormat="1">
       <c r="A53" s="21"/>
       <c r="B53" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="E61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:12" s="5" customFormat="1">
       <c r="A67" s="21"/>
       <c r="B67" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="17">
       <c r="A69" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="B71" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="17">
       <c r="A75" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C75" s="23"/>
       <c r="D75" s="23"/>
@@ -3001,7 +3424,7 @@
     </row>
     <row r="77" spans="1:12">
       <c r="B77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3012,10 +3435,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DE3AB9-B21A-724B-BBAC-756AF4DE508E}">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3026,12 +3449,13 @@
     <col min="4" max="4" width="15.1640625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" customWidth="1"/>
     <col min="10" max="10" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3043,20 +3467,17 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:15" ht="16" thickBot="1"/>
-    <row r="3" spans="1:15" ht="16" thickBot="1">
+    <row r="2" spans="1:10" ht="16" thickBot="1"/>
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -3067,7 +3488,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:10">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -3078,7 +3499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:10">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -3089,7 +3510,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:10">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -3100,7 +3521,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:10">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -3111,7 +3532,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:10">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -3122,7 +3543,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:10">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -3133,7 +3554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:10">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -3144,7 +3565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:10">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -3155,7 +3576,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16" thickBot="1">
+    <row r="13" spans="1:10" ht="16" thickBot="1">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -3166,497 +3587,1048 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:10">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="17">
+    <row r="15" spans="1:10" ht="17">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>20</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="18" spans="1:11" s="5" customFormat="1">
-      <c r="A18" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" ht="16" thickBot="1"/>
-    <row r="21" spans="1:11" ht="18" thickBot="1">
-      <c r="A21" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" ht="17" customHeight="1">
-      <c r="A22" s="37">
-        <v>2</v>
-      </c>
-      <c r="B22" s="37">
-        <f>A22*D54+C54</f>
-        <v>0.7</v>
-      </c>
-      <c r="C22" s="37">
-        <v>0.01</v>
-      </c>
-      <c r="D22" s="37">
-        <v>1E-3</v>
-      </c>
-      <c r="E22" s="31">
-        <v>100.2</v>
-      </c>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" spans="1:11">
+    <row r="18" spans="1:5" s="36" customFormat="1">
+      <c r="A18" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="36" customFormat="1">
+      <c r="A19" s="35"/>
+    </row>
+    <row r="20" spans="1:5" s="36" customFormat="1">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+    </row>
+    <row r="21" spans="1:5" s="36" customFormat="1">
+      <c r="A21" s="38"/>
+      <c r="C21" s="38"/>
+    </row>
+    <row r="22" spans="1:5" s="36" customFormat="1">
+      <c r="A22" s="38"/>
+      <c r="C22" s="38"/>
+    </row>
+    <row r="23" spans="1:5" s="36" customFormat="1">
       <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
       <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="32">
-        <v>100.1</v>
-      </c>
-      <c r="F23" s="29"/>
-    </row>
-    <row r="24" spans="1:11">
+    </row>
+    <row r="24" spans="1:5" s="36" customFormat="1">
       <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
       <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="32">
-        <v>100.1</v>
-      </c>
-      <c r="F24" s="29"/>
-    </row>
-    <row r="25" spans="1:11">
+    </row>
+    <row r="25" spans="1:5" s="36" customFormat="1">
       <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
       <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="32">
-        <v>100</v>
-      </c>
-      <c r="F25" s="29"/>
-    </row>
-    <row r="26" spans="1:11">
+    </row>
+    <row r="26" spans="1:5" s="36" customFormat="1">
       <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
       <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="32">
-        <v>90.9</v>
-      </c>
-      <c r="F26" s="29"/>
-    </row>
-    <row r="27" spans="1:11">
+    </row>
+    <row r="27" spans="1:5" s="36" customFormat="1">
       <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
       <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="32">
-        <v>90.9</v>
-      </c>
-      <c r="F27" s="29"/>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:5" s="36" customFormat="1">
       <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="32">
-        <v>90.8</v>
-      </c>
-      <c r="F28" s="29"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="D28" s="37"/>
+    </row>
+    <row r="29" spans="1:5" s="36" customFormat="1">
       <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
       <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="32">
-        <v>90.9</v>
-      </c>
-      <c r="F29" s="29"/>
-    </row>
-    <row r="30" spans="1:11">
+    </row>
+    <row r="30" spans="1:5" s="36" customFormat="1">
       <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
       <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="32">
-        <v>100.1</v>
-      </c>
-      <c r="F30" s="29"/>
-    </row>
-    <row r="31" spans="1:11" ht="16" thickBot="1">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="35">
-        <v>100.2</v>
-      </c>
-      <c r="F31" s="30"/>
-    </row>
-    <row r="32" spans="1:11" ht="24" customHeight="1" thickBot="1">
-      <c r="A32" s="26">
-        <v>1.9</v>
-      </c>
-      <c r="B32" s="26">
-        <f>A32*$D$54+$C$54</f>
-        <v>0.67999999999999994</v>
-      </c>
-      <c r="C32" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="D32" s="26">
-        <v>1E-3</v>
-      </c>
-      <c r="E32" s="24">
-        <v>90.8</v>
-      </c>
-      <c r="F32" s="28"/>
-    </row>
-    <row r="33" spans="1:6" ht="24" customHeight="1" thickBot="1">
-      <c r="A33" s="33">
-        <v>1.8</v>
-      </c>
-      <c r="B33" s="33">
-        <f t="shared" ref="B33:B39" si="0">A33*$D$54+$C$54</f>
-        <v>0.66</v>
-      </c>
-      <c r="C33" s="33">
-        <v>0.01</v>
-      </c>
-      <c r="D33" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="E33" s="34">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="F33" s="36"/>
-    </row>
-    <row r="34" spans="1:6" ht="24" customHeight="1" thickBot="1">
-      <c r="A34" s="27">
-        <v>1.7</v>
-      </c>
-      <c r="B34" s="27">
-        <f t="shared" si="0"/>
-        <v>0.64</v>
-      </c>
-      <c r="C34" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="D34" s="27">
-        <v>1E-3</v>
-      </c>
-      <c r="E34" s="25">
-        <v>70.5</v>
-      </c>
-      <c r="F34" s="29"/>
-    </row>
-    <row r="35" spans="1:6" ht="24" customHeight="1" thickBot="1">
-      <c r="A35" s="33">
-        <v>1.6</v>
-      </c>
-      <c r="B35" s="33">
-        <f t="shared" si="0"/>
-        <v>0.62000000000000011</v>
-      </c>
-      <c r="C35" s="33">
-        <v>0.01</v>
-      </c>
-      <c r="D35" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="E35" s="34">
-        <v>60.4</v>
-      </c>
-      <c r="F35" s="36"/>
-    </row>
-    <row r="36" spans="1:6" ht="24" customHeight="1" thickBot="1">
-      <c r="A36" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="B36" s="27">
-        <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="C36" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="D36" s="27">
-        <v>1E-3</v>
-      </c>
-      <c r="E36" s="25">
-        <v>50.6</v>
-      </c>
-      <c r="F36" s="29"/>
-    </row>
-    <row r="37" spans="1:6" ht="24" customHeight="1" thickBot="1">
-      <c r="A37" s="33">
-        <v>1.4</v>
-      </c>
-      <c r="B37" s="33">
-        <f t="shared" si="0"/>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C37" s="33">
-        <v>0.01</v>
-      </c>
-      <c r="D37" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="E37" s="34">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="F37" s="36"/>
-    </row>
-    <row r="38" spans="1:6" ht="24" customHeight="1" thickBot="1">
-      <c r="A38" s="27">
-        <v>1.3</v>
-      </c>
-      <c r="B38" s="27">
-        <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C38" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="D38" s="27">
-        <v>1E-3</v>
-      </c>
-      <c r="E38" s="25">
-        <v>30.2</v>
-      </c>
-      <c r="F38" s="29"/>
-    </row>
-    <row r="39" spans="1:6" ht="24" customHeight="1" thickBot="1">
-      <c r="A39" s="33">
-        <v>1.2</v>
-      </c>
-      <c r="B39" s="33">
-        <f t="shared" si="0"/>
-        <v>0.54</v>
-      </c>
-      <c r="C39" s="33">
-        <v>0.01</v>
-      </c>
-      <c r="D39" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="E39" s="24">
-        <v>20.3</v>
-      </c>
-      <c r="F39" s="36"/>
-    </row>
-    <row r="40" spans="1:6" ht="17" customHeight="1">
-      <c r="A40" s="37">
-        <v>1</v>
-      </c>
-      <c r="B40" s="37">
-        <f>A40*D54+C54</f>
-        <v>0.5</v>
-      </c>
-      <c r="C40" s="37">
-        <v>0.01</v>
-      </c>
-      <c r="D40" s="37">
-        <v>1E-3</v>
-      </c>
-      <c r="E40" s="31">
-        <v>10</v>
-      </c>
-      <c r="F40" s="28"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="32">
-        <v>10.5</v>
-      </c>
-      <c r="F41" s="29"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="32">
-        <v>10.4</v>
-      </c>
-      <c r="F42" s="29"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="32">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="F43" s="29"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="32">
-        <v>10.1</v>
-      </c>
-      <c r="F44" s="29"/>
-    </row>
-    <row r="45" spans="1:6">
+    </row>
+    <row r="31" spans="1:5" s="36" customFormat="1">
+      <c r="A31" s="35"/>
+    </row>
+    <row r="32" spans="1:5" s="36" customFormat="1">
+      <c r="A32" s="35"/>
+    </row>
+    <row r="33" spans="1:11" s="36" customFormat="1"/>
+    <row r="34" spans="1:11" s="36" customFormat="1">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+    </row>
+    <row r="35" spans="1:11" s="36" customFormat="1" ht="17" customHeight="1">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="40"/>
+    </row>
+    <row r="36" spans="1:11" s="36" customFormat="1">
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="40"/>
+    </row>
+    <row r="37" spans="1:11" s="36" customFormat="1">
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="40"/>
+    </row>
+    <row r="38" spans="1:11" s="36" customFormat="1">
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="40"/>
+    </row>
+    <row r="39" spans="1:11" s="36" customFormat="1">
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="40"/>
+    </row>
+    <row r="40" spans="1:11" s="36" customFormat="1">
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="40"/>
+    </row>
+    <row r="41" spans="1:11" s="36" customFormat="1">
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="40"/>
+    </row>
+    <row r="42" spans="1:11" s="36" customFormat="1">
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="40"/>
+    </row>
+    <row r="43" spans="1:11" s="36" customFormat="1">
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="40"/>
+    </row>
+    <row r="44" spans="1:11" s="36" customFormat="1">
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="40"/>
+    </row>
+    <row r="45" spans="1:11" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
-      <c r="E45" s="32">
-        <v>10.5</v>
-      </c>
-      <c r="F45" s="29"/>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="E45" s="38"/>
+      <c r="F45" s="40"/>
+    </row>
+    <row r="46" spans="1:11" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
-      <c r="E46" s="32">
-        <v>10.4</v>
-      </c>
-      <c r="F46" s="29"/>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="E46" s="38"/>
+      <c r="F46" s="40"/>
+    </row>
+    <row r="47" spans="1:11" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
       <c r="C47" s="38"/>
       <c r="D47" s="38"/>
-      <c r="E47" s="32">
-        <v>10.3</v>
-      </c>
-      <c r="F47" s="29"/>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="E47" s="38"/>
+      <c r="F47" s="40"/>
+    </row>
+    <row r="48" spans="1:11" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
       <c r="C48" s="38"/>
       <c r="D48" s="38"/>
-      <c r="E48" s="32">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="F48" s="29"/>
-    </row>
-    <row r="49" spans="1:6" ht="16" thickBot="1">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="35">
-        <v>10.4</v>
-      </c>
-      <c r="F49" s="30"/>
-    </row>
-    <row r="51" spans="1:6" ht="16" thickBot="1"/>
-    <row r="52" spans="1:6" ht="16" thickBot="1">
-      <c r="B52" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="B53" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="D53" s="12">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="B54" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="D54" s="12">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="16" thickBot="1">
-      <c r="B55" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="D55" s="15">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="17">
-      <c r="A58" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1">
-        <v>20</v>
-      </c>
-    </row>
+      <c r="E48" s="38"/>
+      <c r="F48" s="40"/>
+    </row>
+    <row r="49" spans="1:11" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="40"/>
+    </row>
+    <row r="50" spans="1:11" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="40"/>
+    </row>
+    <row r="51" spans="1:11" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="40"/>
+    </row>
+    <row r="52" spans="1:11" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="40"/>
+    </row>
+    <row r="53" spans="1:11" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="40"/>
+    </row>
+    <row r="54" spans="1:11" s="36" customFormat="1">
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="40"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+    </row>
+    <row r="55" spans="1:11" s="36" customFormat="1">
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="40"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+    </row>
+    <row r="56" spans="1:11" s="36" customFormat="1">
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="40"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+    </row>
+    <row r="57" spans="1:11" s="36" customFormat="1">
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="40"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+    </row>
+    <row r="58" spans="1:11" s="36" customFormat="1">
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="40"/>
+    </row>
+    <row r="59" spans="1:11" s="36" customFormat="1">
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="40"/>
+    </row>
+    <row r="60" spans="1:11" s="36" customFormat="1">
+      <c r="A60" s="40"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="40"/>
+      <c r="H60" s="35"/>
+    </row>
+    <row r="61" spans="1:11" s="36" customFormat="1">
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="40"/>
+      <c r="H61" s="39"/>
+    </row>
+    <row r="62" spans="1:11" s="36" customFormat="1">
+      <c r="A62" s="40"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="40"/>
+    </row>
+    <row r="63" spans="1:11" s="36" customFormat="1"/>
+    <row r="64" spans="1:11" s="36" customFormat="1"/>
+    <row r="65" spans="1:5" s="36" customFormat="1">
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+    </row>
+    <row r="66" spans="1:5" s="36" customFormat="1"/>
+    <row r="67" spans="1:5" s="36" customFormat="1"/>
+    <row r="68" spans="1:5" s="36" customFormat="1"/>
+    <row r="69" spans="1:5" s="36" customFormat="1"/>
+    <row r="70" spans="1:5" s="36" customFormat="1"/>
+    <row r="71" spans="1:5" s="36" customFormat="1"/>
+    <row r="72" spans="1:5" s="36" customFormat="1"/>
+    <row r="73" spans="1:5" s="36" customFormat="1"/>
+    <row r="74" spans="1:5" s="36" customFormat="1"/>
+    <row r="75" spans="1:5" s="36" customFormat="1"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="D22:D31"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="B22:B31"/>
-    <mergeCell ref="D40:D49"/>
-    <mergeCell ref="C40:C49"/>
-    <mergeCell ref="B40:B49"/>
-    <mergeCell ref="A40:A49"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BFBAD4-91D6-1248-A7D7-448FD96D1BCC}">
+  <dimension ref="A1:K39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" s="5" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="18" thickBot="1">
+      <c r="A3" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="52">
+        <v>100.2</v>
+      </c>
+      <c r="B4" s="51">
+        <v>0.23</v>
+      </c>
+      <c r="C4" s="52">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="52">
+        <v>100.1</v>
+      </c>
+      <c r="B5" s="51">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C5" s="52">
+        <v>10.5</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="52">
+        <v>100.1</v>
+      </c>
+      <c r="B6" s="51">
+        <v>0.19</v>
+      </c>
+      <c r="C6" s="52">
+        <v>10.4</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="52">
+        <v>100</v>
+      </c>
+      <c r="B7" s="51">
+        <v>0.24</v>
+      </c>
+      <c r="C7" s="52">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="52">
+        <v>90.9</v>
+      </c>
+      <c r="B8" s="51">
+        <v>0.21</v>
+      </c>
+      <c r="C8" s="52">
+        <v>10.1</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="52">
+        <v>90.9</v>
+      </c>
+      <c r="B9" s="51">
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="52">
+        <v>10.5</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="52">
+        <v>90.8</v>
+      </c>
+      <c r="B10" s="51">
+        <v>0.19</v>
+      </c>
+      <c r="C10" s="52">
+        <v>10.4</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="52">
+        <v>90.9</v>
+      </c>
+      <c r="B11" s="32">
+        <v>0.19</v>
+      </c>
+      <c r="C11" s="52">
+        <v>10.3</v>
+      </c>
+      <c r="D11" s="53">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="52">
+        <v>100.1</v>
+      </c>
+      <c r="B12" s="51">
+        <v>0.21</v>
+      </c>
+      <c r="C12" s="52">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16" thickBot="1">
+      <c r="A13" s="54">
+        <v>100.2</v>
+      </c>
+      <c r="B13" s="55">
+        <v>0.22</v>
+      </c>
+      <c r="C13" s="54">
+        <v>10.4</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="16" thickBot="1"/>
+    <row r="16" spans="1:11" ht="31" customHeight="1" thickBot="1">
+      <c r="A16" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="23" customHeight="1" thickBot="1">
+      <c r="A17" s="27">
+        <v>2</v>
+      </c>
+      <c r="B17" s="27">
+        <f>A17*K29+J29</f>
+        <v>0.7</v>
+      </c>
+      <c r="C17" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="D17" s="27">
+        <v>1E-3</v>
+      </c>
+      <c r="E17" s="28">
+        <f>AVERAGE(A4:A13)</f>
+        <v>96.419999999999987</v>
+      </c>
+      <c r="F17" s="25">
+        <f>AVERAGE(B4:B13)</f>
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="23" customHeight="1" thickBot="1">
+      <c r="A18" s="25">
+        <v>1.9</v>
+      </c>
+      <c r="B18" s="25">
+        <f>A18*$K$46+$J$46</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0.01</v>
+      </c>
+      <c r="D18" s="25">
+        <v>1E-3</v>
+      </c>
+      <c r="E18" s="24">
+        <v>90.8</v>
+      </c>
+      <c r="F18" s="25">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="23" customHeight="1" thickBot="1">
+      <c r="A19" s="29">
+        <v>1.8</v>
+      </c>
+      <c r="B19" s="29">
+        <f>A19*$K$46+$J$46</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="D19" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="E19" s="30">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="F19" s="29">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="23" customHeight="1" thickBot="1">
+      <c r="A20" s="26">
+        <v>1.7</v>
+      </c>
+      <c r="B20" s="26">
+        <f>A20*$K$46+$J$46</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="D20" s="26">
+        <v>1E-3</v>
+      </c>
+      <c r="E20" s="41">
+        <v>70.5</v>
+      </c>
+      <c r="F20" s="26">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="23" customHeight="1" thickBot="1">
+      <c r="A21" s="29">
+        <v>1.6</v>
+      </c>
+      <c r="B21" s="29">
+        <f>A21*$K$46+$J$46</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="D21" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="E21" s="30">
+        <v>60.4</v>
+      </c>
+      <c r="F21" s="29">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="23" customHeight="1" thickBot="1">
+      <c r="A22" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="B22" s="26">
+        <f>A22*$K$46+$J$46</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="D22" s="26">
+        <v>1E-3</v>
+      </c>
+      <c r="E22" s="41">
+        <v>50.6</v>
+      </c>
+      <c r="F22" s="26">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="23" customHeight="1" thickBot="1">
+      <c r="A23" s="29">
+        <v>1.4</v>
+      </c>
+      <c r="B23" s="29">
+        <f>A23*$K$46+$J$46</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="D23" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="E23" s="30">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="F23" s="29">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="23" customHeight="1" thickBot="1">
+      <c r="A24" s="26">
+        <v>1.3</v>
+      </c>
+      <c r="B24" s="26">
+        <f>A24*$K$46+$J$46</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="D24" s="26">
+        <v>1E-3</v>
+      </c>
+      <c r="E24" s="41">
+        <v>30.2</v>
+      </c>
+      <c r="F24" s="26">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="23" customHeight="1" thickBot="1">
+      <c r="A25" s="29">
+        <v>1.2</v>
+      </c>
+      <c r="B25" s="29">
+        <f>A25*$K$46+$J$46</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="D25" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="E25" s="24">
+        <v>20.3</v>
+      </c>
+      <c r="F25" s="29">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="23" customHeight="1" thickBot="1">
+      <c r="A26" s="31">
+        <v>1</v>
+      </c>
+      <c r="B26" s="31">
+        <f>A26*K29+J29</f>
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="D26" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="E26" s="42">
+        <f>AVERAGE(C4:C13)</f>
+        <v>10.3</v>
+      </c>
+      <c r="F26" s="29">
+        <f>AVERAGE(D4:D13)</f>
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16" thickBot="1">
+      <c r="I27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="16" thickBot="1">
+      <c r="I28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="26" customHeight="1" thickBot="1">
+      <c r="A29" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="22" customHeight="1" thickBot="1">
+      <c r="A30" s="43">
+        <f>A17+C17</f>
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="B30" s="49">
+        <f>SQRT((B17)^2 + D17^2)</f>
+        <v>0.70000071428534982</v>
+      </c>
+      <c r="C30" s="44">
+        <v>96.419999999999987</v>
+      </c>
+      <c r="D30" s="33">
+        <f>E30-0.1</f>
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="E30" s="45">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="22" customHeight="1">
+      <c r="A31" s="43">
+        <f>A18+C18</f>
+        <v>1.91</v>
+      </c>
+      <c r="B31" s="33">
+        <f>SQRT((B18)^2 + D18^2)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C31" s="44">
+        <v>90.8</v>
+      </c>
+      <c r="D31" s="33">
+        <f t="shared" ref="D31:D39" si="0">E31-0.1</f>
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E31" s="45">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="22" customHeight="1">
+      <c r="A32" s="43">
+        <f t="shared" ref="A32:A38" si="1">A19+C19</f>
+        <v>1.81</v>
+      </c>
+      <c r="B32" s="33">
+        <f t="shared" ref="B32:B38" si="2">SQRT((B19)^2 + D19^2)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C32" s="44">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="D32" s="33">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+      <c r="E32" s="45">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="22" customHeight="1">
+      <c r="A33" s="43">
+        <f t="shared" si="1"/>
+        <v>1.71</v>
+      </c>
+      <c r="B33" s="33">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C33" s="44">
+        <v>70.5</v>
+      </c>
+      <c r="D33" s="33">
+        <f t="shared" si="0"/>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="E33" s="45">
+        <v>0.24</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="22" customHeight="1">
+      <c r="A34" s="43">
+        <f t="shared" si="1"/>
+        <v>1.61</v>
+      </c>
+      <c r="B34" s="33">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C34" s="44">
+        <v>60.4</v>
+      </c>
+      <c r="D34" s="33">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="E34" s="45">
+        <v>0.19</v>
+      </c>
+      <c r="H34" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="22" customHeight="1">
+      <c r="A35" s="43">
+        <f t="shared" si="1"/>
+        <v>1.51</v>
+      </c>
+      <c r="B35" s="33">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C35" s="44">
+        <v>50.6</v>
+      </c>
+      <c r="D35" s="33">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="E35" s="45">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="22" customHeight="1">
+      <c r="A36" s="43">
+        <f>A23+C23</f>
+        <v>1.41</v>
+      </c>
+      <c r="B36" s="33">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C36" s="44">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="D36" s="33">
+        <f t="shared" si="0"/>
+        <v>7.9999999999999988E-2</v>
+      </c>
+      <c r="E36" s="45">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="22" customHeight="1">
+      <c r="A37" s="43">
+        <f t="shared" si="1"/>
+        <v>1.31</v>
+      </c>
+      <c r="B37" s="33">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C37" s="44">
+        <v>30.2</v>
+      </c>
+      <c r="D37" s="33">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="E37" s="45">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="22" customHeight="1">
+      <c r="A38" s="43">
+        <f t="shared" si="1"/>
+        <v>1.21</v>
+      </c>
+      <c r="B38" s="33">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C38" s="44">
+        <v>20.3</v>
+      </c>
+      <c r="D38" s="33">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="E38" s="45">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="22" customHeight="1" thickBot="1">
+      <c r="A39" s="46">
+        <f>A26+C26</f>
+        <v>1.01</v>
+      </c>
+      <c r="B39" s="50">
+        <f>SQRT((B26)^2 + D26^2)</f>
+        <v>0.50000099999899994</v>
+      </c>
+      <c r="C39" s="47">
+        <v>10.3</v>
+      </c>
+      <c r="D39" s="34">
+        <f t="shared" si="0"/>
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="E39" s="48">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Pendulum/F3_Fadenpendel.xlsx
+++ b/Pendulum/F3_Fadenpendel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Pendulum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AF2326-7D4B-B144-B74D-1D43F673666D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B44FE42-09EA-9F45-91CF-A83E35B986E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="1760" windowWidth="27540" windowHeight="17120" activeTab="2" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
+    <workbookView xWindow="2060" yWindow="1760" windowWidth="27540" windowHeight="17120" activeTab="1" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Durchführung" sheetId="3" r:id="rId1"/>
@@ -704,7 +704,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -978,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1065,42 +1065,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2609,8 +2594,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="902298" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -2739,7 +2724,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -3435,10 +3420,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DE3AB9-B21A-724B-BBAC-756AF4DE508E}">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3469,121 +3454,90 @@
     </row>
     <row r="2" spans="1:10" ht="16" thickBot="1"/>
     <row r="3" spans="1:10" ht="16" thickBot="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B5" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B6" s="12">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="11">
         <v>1.2</v>
       </c>
-      <c r="C4" s="12">
+      <c r="B8" s="12">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="B9" s="12">
         <v>2.1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="10">
+    <row r="10" spans="1:10">
+      <c r="A10" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B10" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C5" s="12">
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="B11" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="10">
-        <v>3</v>
-      </c>
-      <c r="B6" s="11">
+    <row r="12" spans="1:10">
+      <c r="A12" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="12">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="10">
-        <v>4</v>
-      </c>
-      <c r="B7" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="10">
-        <v>5</v>
-      </c>
-      <c r="B8" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="10">
-        <v>6</v>
-      </c>
-      <c r="B9" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="C9" s="12">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C10" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="10">
-        <v>8</v>
-      </c>
-      <c r="B11" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="C11" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="10">
-        <v>9</v>
-      </c>
-      <c r="B12" s="11">
+      <c r="B12" s="12">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16" thickBot="1">
+      <c r="A13" s="14">
         <v>1</v>
       </c>
-      <c r="C12" s="12">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="16" thickBot="1">
-      <c r="A13" s="13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="14">
-        <v>1</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="B13" s="15">
         <v>1.9</v>
       </c>
     </row>
@@ -3606,342 +3560,329 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="18" spans="1:5" s="36" customFormat="1">
-      <c r="A18" s="35" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="36" customFormat="1">
-      <c r="A19" s="35"/>
-    </row>
-    <row r="20" spans="1:5" s="36" customFormat="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-    </row>
-    <row r="21" spans="1:5" s="36" customFormat="1">
-      <c r="A21" s="38"/>
-      <c r="C21" s="38"/>
-    </row>
-    <row r="22" spans="1:5" s="36" customFormat="1">
-      <c r="A22" s="38"/>
-      <c r="C22" s="38"/>
-    </row>
-    <row r="23" spans="1:5" s="36" customFormat="1">
-      <c r="A23" s="38"/>
-      <c r="C23" s="38"/>
-    </row>
-    <row r="24" spans="1:5" s="36" customFormat="1">
-      <c r="A24" s="38"/>
-      <c r="C24" s="38"/>
-    </row>
-    <row r="25" spans="1:5" s="36" customFormat="1">
-      <c r="A25" s="38"/>
-      <c r="C25" s="38"/>
-    </row>
-    <row r="26" spans="1:5" s="36" customFormat="1">
-      <c r="A26" s="38"/>
-      <c r="C26" s="38"/>
-    </row>
-    <row r="27" spans="1:5" s="36" customFormat="1">
-      <c r="A27" s="38"/>
-      <c r="C27" s="38"/>
-    </row>
-    <row r="28" spans="1:5" s="36" customFormat="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="37"/>
-    </row>
-    <row r="29" spans="1:5" s="36" customFormat="1">
-      <c r="A29" s="38"/>
-      <c r="C29" s="38"/>
-    </row>
-    <row r="30" spans="1:5" s="36" customFormat="1">
-      <c r="A30" s="38"/>
-      <c r="C30" s="38"/>
-    </row>
-    <row r="31" spans="1:5" s="36" customFormat="1">
-      <c r="A31" s="35"/>
-    </row>
-    <row r="32" spans="1:5" s="36" customFormat="1">
-      <c r="A32" s="35"/>
-    </row>
-    <row r="33" spans="1:11" s="36" customFormat="1"/>
-    <row r="34" spans="1:11" s="36" customFormat="1">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-    </row>
-    <row r="35" spans="1:11" s="36" customFormat="1" ht="17" customHeight="1">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="40"/>
-    </row>
-    <row r="36" spans="1:11" s="36" customFormat="1">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="40"/>
-    </row>
-    <row r="37" spans="1:11" s="36" customFormat="1">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="40"/>
-    </row>
-    <row r="38" spans="1:11" s="36" customFormat="1">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="40"/>
-    </row>
-    <row r="39" spans="1:11" s="36" customFormat="1">
-      <c r="A39" s="40"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="40"/>
-    </row>
-    <row r="40" spans="1:11" s="36" customFormat="1">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="40"/>
-    </row>
-    <row r="41" spans="1:11" s="36" customFormat="1">
-      <c r="A41" s="40"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="40"/>
-    </row>
-    <row r="42" spans="1:11" s="36" customFormat="1">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="40"/>
-    </row>
-    <row r="43" spans="1:11" s="36" customFormat="1">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="40"/>
-    </row>
-    <row r="44" spans="1:11" s="36" customFormat="1">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="40"/>
-    </row>
-    <row r="45" spans="1:11" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="40"/>
-    </row>
-    <row r="46" spans="1:11" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="40"/>
-    </row>
-    <row r="47" spans="1:11" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="40"/>
-    </row>
-    <row r="48" spans="1:11" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="40"/>
-    </row>
-    <row r="49" spans="1:11" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="40"/>
-    </row>
-    <row r="50" spans="1:11" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="40"/>
-    </row>
-    <row r="51" spans="1:11" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="40"/>
-    </row>
-    <row r="52" spans="1:11" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="38"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="40"/>
-    </row>
-    <row r="53" spans="1:11" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A53" s="40"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="40"/>
-    </row>
-    <row r="54" spans="1:11" s="36" customFormat="1">
-      <c r="A54" s="40"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="40"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-    </row>
-    <row r="55" spans="1:11" s="36" customFormat="1">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="40"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-    </row>
-    <row r="56" spans="1:11" s="36" customFormat="1">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="40"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-    </row>
-    <row r="57" spans="1:11" s="36" customFormat="1">
-      <c r="A57" s="40"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="40"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-    </row>
-    <row r="58" spans="1:11" s="36" customFormat="1">
-      <c r="A58" s="40"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="40"/>
-    </row>
-    <row r="59" spans="1:11" s="36" customFormat="1">
-      <c r="A59" s="40"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="40"/>
-    </row>
-    <row r="60" spans="1:11" s="36" customFormat="1">
-      <c r="A60" s="40"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="40"/>
-      <c r="H60" s="35"/>
-    </row>
-    <row r="61" spans="1:11" s="36" customFormat="1">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="40"/>
-      <c r="H61" s="39"/>
-    </row>
-    <row r="62" spans="1:11" s="36" customFormat="1">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="40"/>
-    </row>
-    <row r="63" spans="1:11" s="36" customFormat="1"/>
-    <row r="64" spans="1:11" s="36" customFormat="1"/>
-    <row r="65" spans="1:5" s="36" customFormat="1">
-      <c r="A65" s="37"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-    </row>
-    <row r="66" spans="1:5" s="36" customFormat="1"/>
-    <row r="67" spans="1:5" s="36" customFormat="1"/>
-    <row r="68" spans="1:5" s="36" customFormat="1"/>
-    <row r="69" spans="1:5" s="36" customFormat="1"/>
-    <row r="70" spans="1:5" s="36" customFormat="1"/>
-    <row r="71" spans="1:5" s="36" customFormat="1"/>
-    <row r="72" spans="1:5" s="36" customFormat="1"/>
-    <row r="73" spans="1:5" s="36" customFormat="1"/>
-    <row r="74" spans="1:5" s="36" customFormat="1"/>
-    <row r="75" spans="1:5" s="36" customFormat="1"/>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="35"/>
+      <c r="C21" s="35"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="35"/>
+      <c r="C22" s="35"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="35"/>
+      <c r="C23" s="35"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="35"/>
+      <c r="C24" s="35"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="35"/>
+      <c r="C25" s="35"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="35"/>
+      <c r="C26" s="35"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="35"/>
+      <c r="C27" s="35"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="35"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="32"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="35"/>
+      <c r="C29" s="35"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="35"/>
+      <c r="C30" s="35"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" ht="17" customHeight="1">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="36"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="36"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="36"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="36"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="36"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="36"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="36"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="36"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="36"/>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="36"/>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1">
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="36"/>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="36"/>
+    </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="36"/>
+    </row>
+    <row r="50" spans="1:11" ht="15" customHeight="1">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="36"/>
+    </row>
+    <row r="51" spans="1:11" ht="15" customHeight="1">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="36"/>
+    </row>
+    <row r="52" spans="1:11" ht="15" customHeight="1">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="36"/>
+    </row>
+    <row r="53" spans="1:11" ht="15" customHeight="1">
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="36"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="36"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="36"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="36"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="36"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="36"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="36"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="36"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="36"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="36"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3953,7 +3894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BFBAD4-91D6-1248-A7D7-448FD96D1BCC}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -3968,13 +3909,13 @@
       <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="18" thickBot="1">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>59</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="49" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -3982,13 +3923,13 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="52">
+      <c r="A4" s="45">
         <v>100.2</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="1">
         <v>0.23</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="45">
         <v>10</v>
       </c>
       <c r="D4" s="12">
@@ -3996,13 +3937,13 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="52">
+      <c r="A5" s="45">
         <v>100.1</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="45">
         <v>10.5</v>
       </c>
       <c r="D5" s="12">
@@ -4010,13 +3951,13 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="52">
+      <c r="A6" s="45">
         <v>100.1</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="1">
         <v>0.19</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="45">
         <v>10.4</v>
       </c>
       <c r="D6" s="12">
@@ -4024,13 +3965,13 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="52">
+      <c r="A7" s="45">
         <v>100</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="1">
         <v>0.24</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="45">
         <v>10.199999999999999</v>
       </c>
       <c r="D7" s="12">
@@ -4038,13 +3979,13 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="52">
+      <c r="A8" s="45">
         <v>90.9</v>
       </c>
-      <c r="B8" s="51">
+      <c r="B8" s="1">
         <v>0.21</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="45">
         <v>10.1</v>
       </c>
       <c r="D8" s="12">
@@ -4052,13 +3993,13 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="52">
+      <c r="A9" s="45">
         <v>90.9</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="1">
         <v>0.2</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="45">
         <v>10.5</v>
       </c>
       <c r="D9" s="12">
@@ -4066,13 +4007,13 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="52">
+      <c r="A10" s="45">
         <v>90.8</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="1">
         <v>0.19</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="45">
         <v>10.4</v>
       </c>
       <c r="D10" s="12">
@@ -4080,27 +4021,27 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="52">
+      <c r="A11" s="45">
         <v>90.9</v>
       </c>
       <c r="B11" s="32">
         <v>0.19</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="45">
         <v>10.3</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="46">
         <v>0.19</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="52">
+      <c r="A12" s="45">
         <v>100.1</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="1">
         <v>0.21</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="45">
         <v>10.199999999999999</v>
       </c>
       <c r="D12" s="12">
@@ -4108,13 +4049,13 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16" thickBot="1">
-      <c r="A13" s="54">
+      <c r="A13" s="47">
         <v>100.2</v>
       </c>
-      <c r="B13" s="55">
+      <c r="B13" s="48">
         <v>0.22</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="47">
         <v>10.4</v>
       </c>
       <c r="D13" s="15">
@@ -4178,7 +4119,7 @@
         <v>1.9</v>
       </c>
       <c r="B18" s="25">
-        <f>A18*$K$46+$J$46</f>
+        <f t="shared" ref="B18:B25" si="0">A18*$K$46+$J$46</f>
         <v>0</v>
       </c>
       <c r="C18" s="25">
@@ -4199,7 +4140,7 @@
         <v>1.8</v>
       </c>
       <c r="B19" s="29">
-        <f>A19*$K$46+$J$46</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C19" s="29">
@@ -4220,7 +4161,7 @@
         <v>1.7</v>
       </c>
       <c r="B20" s="26">
-        <f>A20*$K$46+$J$46</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C20" s="26">
@@ -4229,7 +4170,7 @@
       <c r="D20" s="26">
         <v>1E-3</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="35">
         <v>70.5</v>
       </c>
       <c r="F20" s="26">
@@ -4241,7 +4182,7 @@
         <v>1.6</v>
       </c>
       <c r="B21" s="29">
-        <f>A21*$K$46+$J$46</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C21" s="29">
@@ -4262,7 +4203,7 @@
         <v>1.5</v>
       </c>
       <c r="B22" s="26">
-        <f>A22*$K$46+$J$46</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C22" s="26">
@@ -4271,7 +4212,7 @@
       <c r="D22" s="26">
         <v>1E-3</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="35">
         <v>50.6</v>
       </c>
       <c r="F22" s="26">
@@ -4283,7 +4224,7 @@
         <v>1.4</v>
       </c>
       <c r="B23" s="29">
-        <f>A23*$K$46+$J$46</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C23" s="29">
@@ -4304,7 +4245,7 @@
         <v>1.3</v>
       </c>
       <c r="B24" s="26">
-        <f>A24*$K$46+$J$46</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C24" s="26">
@@ -4313,7 +4254,7 @@
       <c r="D24" s="26">
         <v>1E-3</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="35">
         <v>30.2</v>
       </c>
       <c r="F24" s="26">
@@ -4325,7 +4266,7 @@
         <v>1.2</v>
       </c>
       <c r="B25" s="29">
-        <f>A25*$K$46+$J$46</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C25" s="29">
@@ -4355,7 +4296,7 @@
       <c r="D26" s="31">
         <v>1E-3</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="37">
         <f>AVERAGE(C4:C13)</f>
         <v>10.3</v>
       </c>
@@ -4413,22 +4354,22 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="22" customHeight="1" thickBot="1">
-      <c r="A30" s="43">
+      <c r="A30" s="38">
         <f>A17+C17</f>
         <v>2.0099999999999998</v>
       </c>
-      <c r="B30" s="49">
+      <c r="B30" s="43">
         <f>SQRT((B17)^2 + D17^2)</f>
         <v>0.70000071428534982</v>
       </c>
-      <c r="C30" s="44">
+      <c r="C30">
         <v>96.419999999999987</v>
       </c>
       <c r="D30" s="33">
         <f>E30-0.1</f>
         <v>0.10200000000000001</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30" s="39">
         <v>0.20200000000000001</v>
       </c>
       <c r="I30" s="13" t="s">
@@ -4442,7 +4383,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="22" customHeight="1">
-      <c r="A31" s="43">
+      <c r="A31" s="38">
         <f>A18+C18</f>
         <v>1.91</v>
       </c>
@@ -4450,54 +4391,54 @@
         <f>SQRT((B18)^2 + D18^2)</f>
         <v>1E-3</v>
       </c>
-      <c r="C31" s="44">
+      <c r="C31">
         <v>90.8</v>
       </c>
       <c r="D31" s="33">
-        <f t="shared" ref="D31:D39" si="0">E31-0.1</f>
+        <f t="shared" ref="D31:D39" si="1">E31-0.1</f>
         <v>0.10100000000000001</v>
       </c>
-      <c r="E31" s="45">
+      <c r="E31" s="39">
         <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="22" customHeight="1">
-      <c r="A32" s="43">
-        <f t="shared" ref="A32:A38" si="1">A19+C19</f>
+      <c r="A32" s="38">
+        <f t="shared" ref="A32:A38" si="2">A19+C19</f>
         <v>1.81</v>
       </c>
       <c r="B32" s="33">
-        <f t="shared" ref="B32:B38" si="2">SQRT((B19)^2 + D19^2)</f>
+        <f t="shared" ref="B32:B38" si="3">SQRT((B19)^2 + D19^2)</f>
         <v>1E-3</v>
       </c>
-      <c r="C32" s="44">
+      <c r="C32">
         <v>80.599999999999994</v>
       </c>
       <c r="D32" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13</v>
       </c>
-      <c r="E32" s="45">
+      <c r="E32" s="39">
         <v>0.23</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="22" customHeight="1">
-      <c r="A33" s="43">
+      <c r="A33" s="38">
+        <f t="shared" si="2"/>
+        <v>1.71</v>
+      </c>
+      <c r="B33" s="33">
+        <f t="shared" si="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C33">
+        <v>70.5</v>
+      </c>
+      <c r="D33" s="33">
         <f t="shared" si="1"/>
-        <v>1.71</v>
-      </c>
-      <c r="B33" s="33">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
-      </c>
-      <c r="C33" s="44">
-        <v>70.5</v>
-      </c>
-      <c r="D33" s="33">
-        <f t="shared" si="0"/>
         <v>0.13999999999999999</v>
       </c>
-      <c r="E33" s="45">
+      <c r="E33" s="39">
         <v>0.24</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -4505,22 +4446,22 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="22" customHeight="1">
-      <c r="A34" s="43">
+      <c r="A34" s="38">
+        <f t="shared" si="2"/>
+        <v>1.61</v>
+      </c>
+      <c r="B34" s="33">
+        <f t="shared" si="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C34">
+        <v>60.4</v>
+      </c>
+      <c r="D34" s="33">
         <f t="shared" si="1"/>
-        <v>1.61</v>
-      </c>
-      <c r="B34" s="33">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
-      </c>
-      <c r="C34" s="44">
-        <v>60.4</v>
-      </c>
-      <c r="D34" s="33">
-        <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
-      <c r="E34" s="45">
+      <c r="E34" s="39">
         <v>0.19</v>
       </c>
       <c r="H34" s="1">
@@ -4528,102 +4469,102 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="22" customHeight="1">
-      <c r="A35" s="43">
+      <c r="A35" s="38">
+        <f t="shared" si="2"/>
+        <v>1.51</v>
+      </c>
+      <c r="B35" s="33">
+        <f t="shared" si="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C35">
+        <v>50.6</v>
+      </c>
+      <c r="D35" s="33">
         <f t="shared" si="1"/>
-        <v>1.51</v>
-      </c>
-      <c r="B35" s="33">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
-      </c>
-      <c r="C35" s="44">
-        <v>50.6</v>
-      </c>
-      <c r="D35" s="33">
-        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="E35" s="45">
+      <c r="E35" s="39">
         <v>0.13</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="22" customHeight="1">
-      <c r="A36" s="43">
+      <c r="A36" s="38">
         <f>A23+C23</f>
         <v>1.41</v>
       </c>
       <c r="B36" s="33">
+        <f t="shared" si="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C36">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="D36" s="33">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999988E-2</v>
+      </c>
+      <c r="E36" s="39">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="22" customHeight="1">
+      <c r="A37" s="38">
         <f t="shared" si="2"/>
+        <v>1.31</v>
+      </c>
+      <c r="B37" s="33">
+        <f t="shared" si="3"/>
         <v>1E-3</v>
       </c>
-      <c r="C36" s="44">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="D36" s="33">
-        <f t="shared" si="0"/>
-        <v>7.9999999999999988E-2</v>
-      </c>
-      <c r="E36" s="45">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="22" customHeight="1">
-      <c r="A37" s="43">
+      <c r="C37">
+        <v>30.2</v>
+      </c>
+      <c r="D37" s="33">
         <f t="shared" si="1"/>
-        <v>1.31</v>
-      </c>
-      <c r="B37" s="33">
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="E37" s="39">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="22" customHeight="1">
+      <c r="A38" s="38">
         <f t="shared" si="2"/>
+        <v>1.21</v>
+      </c>
+      <c r="B38" s="33">
+        <f t="shared" si="3"/>
         <v>1E-3</v>
       </c>
-      <c r="C37" s="44">
-        <v>30.2</v>
-      </c>
-      <c r="D37" s="33">
-        <f t="shared" si="0"/>
-        <v>4.9999999999999989E-2</v>
-      </c>
-      <c r="E37" s="45">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="22" customHeight="1">
-      <c r="A38" s="43">
+      <c r="C38">
+        <v>20.3</v>
+      </c>
+      <c r="D38" s="33">
         <f t="shared" si="1"/>
-        <v>1.21</v>
-      </c>
-      <c r="B38" s="33">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
-      </c>
-      <c r="C38" s="44">
-        <v>20.3</v>
-      </c>
-      <c r="D38" s="33">
-        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="E38" s="45">
+      <c r="E38" s="39">
         <v>0.13</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="22" customHeight="1" thickBot="1">
-      <c r="A39" s="46">
+      <c r="A39" s="40">
         <f>A26+C26</f>
         <v>1.01</v>
       </c>
-      <c r="B39" s="50">
+      <c r="B39" s="44">
         <f>SQRT((B26)^2 + D26^2)</f>
         <v>0.50000099999899994</v>
       </c>
-      <c r="C39" s="47">
+      <c r="C39" s="41">
         <v>10.3</v>
       </c>
       <c r="D39" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10200000000000001</v>
       </c>
-      <c r="E39" s="48">
+      <c r="E39" s="42">
         <v>0.20200000000000001</v>
       </c>
     </row>

--- a/Pendulum/F3_Fadenpendel.xlsx
+++ b/Pendulum/F3_Fadenpendel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Pendulum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B44FE42-09EA-9F45-91CF-A83E35B986E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED02393-D9C0-DD46-B0DA-E24508C18C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="1760" windowWidth="27540" windowHeight="17120" activeTab="1" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
+    <workbookView xWindow="2060" yWindow="1760" windowWidth="27540" windowHeight="17120" activeTab="2" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Durchführung" sheetId="3" r:id="rId1"/>
@@ -3422,7 +3422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DE3AB9-B21A-724B-BBAC-756AF4DE508E}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -3894,8 +3894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BFBAD4-91D6-1248-A7D7-448FD96D1BCC}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Pendulum/F3_Fadenpendel.xlsx
+++ b/Pendulum/F3_Fadenpendel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Pendulum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED02393-D9C0-DD46-B0DA-E24508C18C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54CE0A9-FEFF-874F-A4D3-C390E128101B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="1760" windowWidth="27540" windowHeight="17120" activeTab="2" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
+    <workbookView xWindow="1800" yWindow="1580" windowWidth="27540" windowHeight="17120" activeTab="2" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Durchführung" sheetId="3" r:id="rId1"/>
@@ -3894,11 +3894,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BFBAD4-91D6-1248-A7D7-448FD96D1BCC}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" s="5" customFormat="1">
       <c r="A1" s="6" t="s">

--- a/Pendulum/F3_Fadenpendel.xlsx
+++ b/Pendulum/F3_Fadenpendel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Pendulum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54CE0A9-FEFF-874F-A4D3-C390E128101B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A06EC6-A234-0040-94DA-903459A2BE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1580" windowWidth="27540" windowHeight="17120" activeTab="2" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
+    <workbookView xWindow="19380" yWindow="3640" windowWidth="28080" windowHeight="17120" activeTab="2" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Durchführung" sheetId="3" r:id="rId1"/>
@@ -3894,8 +3894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BFBAD4-91D6-1248-A7D7-448FD96D1BCC}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4359,8 +4359,7 @@
     </row>
     <row r="30" spans="1:11" ht="22" customHeight="1" thickBot="1">
       <c r="A30" s="38">
-        <f>A17+C17</f>
-        <v>2.0099999999999998</v>
+        <v>2.25</v>
       </c>
       <c r="B30" s="43">
         <f>SQRT((B17)^2 + D17^2)</f>
@@ -4388,8 +4387,7 @@
     </row>
     <row r="31" spans="1:11" ht="22" customHeight="1">
       <c r="A31" s="38">
-        <f>A18+C18</f>
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="B31" s="33">
         <f>SQRT((B18)^2 + D18^2)</f>
@@ -4408,11 +4406,10 @@
     </row>
     <row r="32" spans="1:11" ht="22" customHeight="1">
       <c r="A32" s="38">
-        <f t="shared" ref="A32:A38" si="2">A19+C19</f>
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="B32" s="33">
-        <f t="shared" ref="B32:B38" si="3">SQRT((B19)^2 + D19^2)</f>
+        <f t="shared" ref="B32:B38" si="2">SQRT((B19)^2 + D19^2)</f>
         <v>1E-3</v>
       </c>
       <c r="C32">
@@ -4428,11 +4425,10 @@
     </row>
     <row r="33" spans="1:8" ht="22" customHeight="1">
       <c r="A33" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="B33" s="33">
         <f t="shared" si="2"/>
-        <v>1.71</v>
-      </c>
-      <c r="B33" s="33">
-        <f t="shared" si="3"/>
         <v>1E-3</v>
       </c>
       <c r="C33">
@@ -4451,11 +4447,10 @@
     </row>
     <row r="34" spans="1:8" ht="22" customHeight="1">
       <c r="A34" s="38">
+        <v>1.25</v>
+      </c>
+      <c r="B34" s="33">
         <f t="shared" si="2"/>
-        <v>1.61</v>
-      </c>
-      <c r="B34" s="33">
-        <f t="shared" si="3"/>
         <v>1E-3</v>
       </c>
       <c r="C34">
@@ -4474,11 +4469,10 @@
     </row>
     <row r="35" spans="1:8" ht="22" customHeight="1">
       <c r="A35" s="38">
+        <v>1</v>
+      </c>
+      <c r="B35" s="33">
         <f t="shared" si="2"/>
-        <v>1.51</v>
-      </c>
-      <c r="B35" s="33">
-        <f t="shared" si="3"/>
         <v>1E-3</v>
       </c>
       <c r="C35">
@@ -4494,11 +4488,10 @@
     </row>
     <row r="36" spans="1:8" ht="22" customHeight="1">
       <c r="A36" s="38">
-        <f>A23+C23</f>
-        <v>1.41</v>
+        <v>0.75</v>
       </c>
       <c r="B36" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
       <c r="C36">
@@ -4514,11 +4507,10 @@
     </row>
     <row r="37" spans="1:8" ht="22" customHeight="1">
       <c r="A37" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="B37" s="33">
         <f t="shared" si="2"/>
-        <v>1.31</v>
-      </c>
-      <c r="B37" s="33">
-        <f t="shared" si="3"/>
         <v>1E-3</v>
       </c>
       <c r="C37">
@@ -4534,11 +4526,10 @@
     </row>
     <row r="38" spans="1:8" ht="22" customHeight="1">
       <c r="A38" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="B38" s="33">
         <f t="shared" si="2"/>
-        <v>1.21</v>
-      </c>
-      <c r="B38" s="33">
-        <f t="shared" si="3"/>
         <v>1E-3</v>
       </c>
       <c r="C38">
@@ -4554,15 +4545,14 @@
     </row>
     <row r="39" spans="1:8" ht="22" customHeight="1" thickBot="1">
       <c r="A39" s="40">
-        <f>A26+C26</f>
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="B39" s="44">
         <f>SQRT((B26)^2 + D26^2)</f>
         <v>0.50000099999899994</v>
       </c>
       <c r="C39" s="41">
-        <v>10.3</v>
+        <v>0</v>
       </c>
       <c r="D39" s="34">
         <f t="shared" si="1"/>

--- a/Pendulum/F3_Fadenpendel.xlsx
+++ b/Pendulum/F3_Fadenpendel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Pendulum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A06EC6-A234-0040-94DA-903459A2BE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC8136A-D3AE-B34F-AECA-C3AB4DBD82B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19380" yWindow="3640" windowWidth="28080" windowHeight="17120" activeTab="2" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
+    <workbookView xWindow="1700" yWindow="760" windowWidth="16560" windowHeight="18880" activeTab="2" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Durchführung" sheetId="3" r:id="rId1"/>
@@ -3894,8 +3894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BFBAD4-91D6-1248-A7D7-448FD96D1BCC}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4359,14 +4359,14 @@
     </row>
     <row r="30" spans="1:11" ht="22" customHeight="1" thickBot="1">
       <c r="A30" s="38">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="B30" s="43">
         <f>SQRT((B17)^2 + D17^2)</f>
         <v>0.70000071428534982</v>
       </c>
       <c r="C30">
-        <v>96.419999999999987</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="D30" s="33">
         <f>E30-0.1</f>
@@ -4387,14 +4387,14 @@
     </row>
     <row r="31" spans="1:11" ht="22" customHeight="1">
       <c r="A31" s="38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" s="33">
         <f>SQRT((B18)^2 + D18^2)</f>
         <v>1E-3</v>
       </c>
       <c r="C31">
-        <v>90.8</v>
+        <v>19.91</v>
       </c>
       <c r="D31" s="33">
         <f t="shared" ref="D31:D39" si="1">E31-0.1</f>
@@ -4406,14 +4406,14 @@
     </row>
     <row r="32" spans="1:11" ht="22" customHeight="1">
       <c r="A32" s="38">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="B32" s="33">
         <f t="shared" ref="B32:B38" si="2">SQRT((B19)^2 + D19^2)</f>
         <v>1E-3</v>
       </c>
       <c r="C32">
-        <v>80.599999999999994</v>
+        <v>19.5</v>
       </c>
       <c r="D32" s="33">
         <f t="shared" si="1"/>
@@ -4425,14 +4425,14 @@
     </row>
     <row r="33" spans="1:8" ht="22" customHeight="1">
       <c r="A33" s="38">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="B33" s="33">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
       <c r="C33">
-        <v>70.5</v>
+        <v>19.14</v>
       </c>
       <c r="D33" s="33">
         <f t="shared" si="1"/>
@@ -4447,14 +4447,14 @@
     </row>
     <row r="34" spans="1:8" ht="22" customHeight="1">
       <c r="A34" s="38">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="B34" s="33">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
       <c r="C34">
-        <v>60.4</v>
+        <v>18.72</v>
       </c>
       <c r="D34" s="33">
         <f t="shared" si="1"/>
@@ -4469,14 +4469,14 @@
     </row>
     <row r="35" spans="1:8" ht="22" customHeight="1">
       <c r="A35" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" s="33">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
       <c r="C35">
-        <v>50.6</v>
+        <v>18.3</v>
       </c>
       <c r="D35" s="33">
         <f t="shared" si="1"/>
@@ -4488,14 +4488,14 @@
     </row>
     <row r="36" spans="1:8" ht="22" customHeight="1">
       <c r="A36" s="38">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="B36" s="33">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
       <c r="C36">
-        <v>40.299999999999997</v>
+        <v>17.77</v>
       </c>
       <c r="D36" s="33">
         <f t="shared" si="1"/>
@@ -4507,14 +4507,14 @@
     </row>
     <row r="37" spans="1:8" ht="22" customHeight="1">
       <c r="A37" s="38">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="B37" s="33">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
       <c r="C37">
-        <v>30.2</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="D37" s="33">
         <f t="shared" si="1"/>
@@ -4526,14 +4526,14 @@
     </row>
     <row r="38" spans="1:8" ht="22" customHeight="1">
       <c r="A38" s="38">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="B38" s="33">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
       <c r="C38">
-        <v>20.3</v>
+        <v>16.79</v>
       </c>
       <c r="D38" s="33">
         <f t="shared" si="1"/>
@@ -4545,14 +4545,14 @@
     </row>
     <row r="39" spans="1:8" ht="22" customHeight="1" thickBot="1">
       <c r="A39" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" s="44">
         <f>SQRT((B26)^2 + D26^2)</f>
         <v>0.50000099999899994</v>
       </c>
       <c r="C39" s="41">
-        <v>0</v>
+        <v>16.46</v>
       </c>
       <c r="D39" s="34">
         <f t="shared" si="1"/>

--- a/Pendulum/F3_Fadenpendel.xlsx
+++ b/Pendulum/F3_Fadenpendel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Pendulum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC8136A-D3AE-B34F-AECA-C3AB4DBD82B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBC5A3A-324C-144F-B658-64A9D949BB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="760" windowWidth="16560" windowHeight="18880" activeTab="2" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
   </bookViews>
@@ -3895,7 +3895,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4366,7 +4366,7 @@
         <v>0.70000071428534982</v>
       </c>
       <c r="C30">
-        <v>20.329999999999998</v>
+        <v>2.0329999999999999</v>
       </c>
       <c r="D30" s="33">
         <f>E30-0.1</f>
@@ -4394,7 +4394,7 @@
         <v>1E-3</v>
       </c>
       <c r="C31">
-        <v>19.91</v>
+        <v>1.9910000000000001</v>
       </c>
       <c r="D31" s="33">
         <f t="shared" ref="D31:D39" si="1">E31-0.1</f>
@@ -4413,7 +4413,7 @@
         <v>1E-3</v>
       </c>
       <c r="C32">
-        <v>19.5</v>
+        <v>1.95</v>
       </c>
       <c r="D32" s="33">
         <f t="shared" si="1"/>
@@ -4432,7 +4432,7 @@
         <v>1E-3</v>
       </c>
       <c r="C33">
-        <v>19.14</v>
+        <v>1.9139999999999999</v>
       </c>
       <c r="D33" s="33">
         <f t="shared" si="1"/>
@@ -4454,7 +4454,7 @@
         <v>1E-3</v>
       </c>
       <c r="C34">
-        <v>18.72</v>
+        <v>1.8720000000000001</v>
       </c>
       <c r="D34" s="33">
         <f t="shared" si="1"/>
@@ -4476,7 +4476,7 @@
         <v>1E-3</v>
       </c>
       <c r="C35">
-        <v>18.3</v>
+        <v>1.83</v>
       </c>
       <c r="D35" s="33">
         <f t="shared" si="1"/>
@@ -4495,7 +4495,7 @@
         <v>1E-3</v>
       </c>
       <c r="C36">
-        <v>17.77</v>
+        <v>1.7769999999999999</v>
       </c>
       <c r="D36" s="33">
         <f t="shared" si="1"/>
@@ -4514,7 +4514,7 @@
         <v>1E-3</v>
       </c>
       <c r="C37">
-        <v>17.350000000000001</v>
+        <v>1.7350000000000001</v>
       </c>
       <c r="D37" s="33">
         <f t="shared" si="1"/>
@@ -4533,7 +4533,7 @@
         <v>1E-3</v>
       </c>
       <c r="C38">
-        <v>16.79</v>
+        <v>1.679</v>
       </c>
       <c r="D38" s="33">
         <f t="shared" si="1"/>
@@ -4552,7 +4552,7 @@
         <v>0.50000099999899994</v>
       </c>
       <c r="C39" s="41">
-        <v>16.46</v>
+        <v>1.6459999999999999</v>
       </c>
       <c r="D39" s="34">
         <f t="shared" si="1"/>

--- a/Pendulum/F3_Fadenpendel.xlsx
+++ b/Pendulum/F3_Fadenpendel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Pendulum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBC5A3A-324C-144F-B658-64A9D949BB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747F82AE-E636-6740-83DB-4A04B263B448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="760" windowWidth="16560" windowHeight="18880" activeTab="2" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
+    <workbookView xWindow="1200" yWindow="760" windowWidth="28300" windowHeight="18880" activeTab="2" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Durchführung" sheetId="3" r:id="rId1"/>
@@ -171,19 +171,6 @@
     <t>Kugel</t>
   </si>
   <si>
-    <r>
-      <t>Markierer für 𝜑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> = 0</t>
-    </r>
-  </si>
-  <si>
     <t>Winkelmesser</t>
   </si>
   <si>
@@ -223,43 +210,418 @@
     <t>Für kleine Auslenkungen 𝜑 (in Bogenmaß) kann die kleinwinkelnäherung  sin𝜑 ≈ 𝜑  gemacht werden, sodass folgende Bezihung gilt:</t>
   </si>
   <si>
-    <r>
-      <t>gleiche Anfangsamplitude 𝜑</t>
+    <t>-&gt;</t>
+  </si>
+  <si>
+    <t>Periodenmessmethode wählen, die im Versuchsteil 1 als am besten ausgewertet wurde (Entweder die Zeit beim Nulldurchgang</t>
+  </si>
+  <si>
+    <t>oder am Umkehrpunkt messen)</t>
+  </si>
+  <si>
+    <t>Fadenlänge muss mit einer Messmethode bestimmt werden, dessen systematische Unsicherheit bekannt ist</t>
+  </si>
+  <si>
+    <t>10 Perioden für 10 verschiedene Fadenlänge  werden gemessen</t>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t>0</t>
+      <t>0,schätz</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆l</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve">0,schätz </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆l</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in mm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>sys</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>i,sys</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>10,sys</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>10,10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>i,ges</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆l</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>i,ges</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in mm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>(mean)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve">i,stat </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
-        <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> für alle Messungen</t>
-    </r>
-  </si>
-  <si>
-    <t>-&gt;</t>
-  </si>
-  <si>
-    <t>Periodenmessmethode wählen, die im Versuchsteil 1 als am besten ausgewertet wurde (Entweder die Zeit beim Nulldurchgang</t>
-  </si>
-  <si>
-    <t>oder am Umkehrpunkt messen)</t>
-  </si>
-  <si>
-    <t>Fadenlänge muss mit einer Messmethode bestimmt werden, dessen systematische Unsicherheit bekannt ist</t>
-  </si>
-  <si>
-    <r>
-      <t>Was ist eigtl mit: Um welche Länge l</t>
+      <t>(mean)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>i,ges</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> (mean)</t>
+    </r>
+  </si>
+  <si>
+    <t>Nullpunkt</t>
+  </si>
+  <si>
+    <t>Umkehrpunkt</t>
+  </si>
+  <si>
+    <r>
+      <t>Um welche Länge l</t>
     </r>
     <r>
       <rPr>
@@ -278,7 +640,7 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t>,schätz wird das Pendel länger, wenn die Lage des Schwerpunktes abgeschätzt wird? Schätzen sie auch ∆l</t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -288,376 +650,63 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t>0</t>
+      <t>schätz</t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t>,schätz ab.</t>
-    </r>
-  </si>
-  <si>
-    <t>10 Perioden für 10 verschiedene Fadenlänge  werden gemessen</t>
-  </si>
-  <si>
-    <r>
-      <t>l</t>
+      <t xml:space="preserve"> wird das Pendel länger, wenn die Lage des Schwerpunktes abgeschätzt wird? Schätzen sie auch ∆l</t>
     </r>
     <r>
       <rPr>
-        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t>0,schätz</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t xml:space="preserve"> in m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆l</t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
-        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t xml:space="preserve">0,schätz </t>
+      <t>schätz</t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t>in m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>l</t>
+      <t xml:space="preserve"> ab.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gleiche Anfangsamplitude 𝜑</t>
     </r>
     <r>
       <rPr>
-        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> in m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆l</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> in mm</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> in s</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> in s</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆T</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>sys</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆T</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>i,sys</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆T</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>10,sys</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>10,10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> in s</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>l</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>i,ges</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> in m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆l</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>i,ges</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> in mm</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>(mean)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆T</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve">i,stat </t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -665,38 +714,11 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t>(mean)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆T</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>i,ges</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> (mean)</t>
-    </r>
-  </si>
-  <si>
-    <t>Nullpunkt</t>
-  </si>
-  <si>
-    <t>Umkehrpunkt</t>
+      <t xml:space="preserve"> für alle Messungen</t>
+    </r>
+  </si>
+  <si>
+    <t>Markierer für 𝜑 = 0</t>
   </si>
 </sst>
 </file>
@@ -749,7 +771,7 @@
       <name val="Calibri-Light"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -759,12 +781,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1040,7 +1056,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1049,9 +1064,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1101,6 +1113,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3147,8 +3162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6294217A-A0D8-0240-91A1-F26A21244DDE}">
   <dimension ref="A2:M77"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3204,7 +3219,7 @@
       <c r="K10" t="s">
         <v>20</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="50" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3245,28 +3260,28 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="B29" t="s">
-        <v>40</v>
+      <c r="B29" s="50" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="B30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="5" customFormat="1">
@@ -3338,7 +3353,7 @@
         <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3364,21 +3379,21 @@
       <c r="A69" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B69" t="s">
-        <v>47</v>
+      <c r="B69" s="50" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="B71" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3386,30 +3401,42 @@
         <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>51</v>
-      </c>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="C74" s="48"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="48"/>
+      <c r="K74" s="48"/>
+      <c r="L74" s="48"/>
     </row>
     <row r="75" spans="1:12" ht="17">
       <c r="A75" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B75" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="23"/>
+      <c r="B75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="49"/>
+      <c r="K75" s="49"/>
+      <c r="L75" s="49"/>
     </row>
     <row r="77" spans="1:12">
       <c r="B77" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3423,7 +3450,7 @@
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3548,7 +3575,7 @@
     </row>
     <row r="15" spans="1:10" ht="17">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3562,62 +3589,62 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="33"/>
+      <c r="C21" s="33"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="33"/>
+      <c r="C22" s="33"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="33"/>
+      <c r="C23" s="33"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="33"/>
+      <c r="C24" s="33"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="33"/>
+      <c r="C25" s="33"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="33"/>
+      <c r="C26" s="33"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="33"/>
+      <c r="C27" s="33"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="35"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="32"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="33"/>
+      <c r="C29" s="33"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="35"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="33"/>
+      <c r="C30" s="33"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2"/>
@@ -3626,12 +3653,12 @@
       <c r="A32" s="2"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -3639,249 +3666,249 @@
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="17" customHeight="1">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="36"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="36"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="36"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="36"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="36"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="36"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="34"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="36"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="36"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="36"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="34"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="36"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="34"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="36"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="34"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="36"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="34"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="36"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="34"/>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="36"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="34"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="36"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="34"/>
     </row>
     <row r="49" spans="1:11" ht="15" customHeight="1">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="36"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="34"/>
     </row>
     <row r="50" spans="1:11" ht="15" customHeight="1">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="36"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="34"/>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="36"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="34"/>
     </row>
     <row r="52" spans="1:11" ht="15" customHeight="1">
-      <c r="A52" s="35"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="36"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="34"/>
     </row>
     <row r="53" spans="1:11" ht="15" customHeight="1">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="36"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="34"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="36"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="36"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="34"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="36"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="36"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="34"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="36"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="36"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="34"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="36"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="36"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="34"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="36"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="36"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="34"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="36"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="36"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="34"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="36"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="36"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="34"/>
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="36"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="36"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="34"/>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="36"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="36"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="34"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="32"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3894,8 +3921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BFBAD4-91D6-1248-A7D7-448FD96D1BCC}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3913,27 +3940,27 @@
       <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="18" thickBot="1">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="45">
+      <c r="A4" s="43">
         <v>100.2</v>
       </c>
       <c r="B4" s="1">
         <v>0.23</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="43">
         <v>10</v>
       </c>
       <c r="D4" s="12">
@@ -3941,13 +3968,13 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="45">
+      <c r="A5" s="43">
         <v>100.1</v>
       </c>
       <c r="B5" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="43">
         <v>10.5</v>
       </c>
       <c r="D5" s="12">
@@ -3955,13 +3982,13 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="45">
+      <c r="A6" s="43">
         <v>100.1</v>
       </c>
       <c r="B6" s="1">
         <v>0.19</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="43">
         <v>10.4</v>
       </c>
       <c r="D6" s="12">
@@ -3969,13 +3996,13 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="45">
+      <c r="A7" s="43">
         <v>100</v>
       </c>
       <c r="B7" s="1">
         <v>0.24</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="43">
         <v>10.199999999999999</v>
       </c>
       <c r="D7" s="12">
@@ -3983,13 +4010,13 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="45">
+      <c r="A8" s="43">
         <v>90.9</v>
       </c>
       <c r="B8" s="1">
         <v>0.21</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="43">
         <v>10.1</v>
       </c>
       <c r="D8" s="12">
@@ -3997,13 +4024,13 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="45">
+      <c r="A9" s="43">
         <v>90.9</v>
       </c>
       <c r="B9" s="1">
         <v>0.2</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="43">
         <v>10.5</v>
       </c>
       <c r="D9" s="12">
@@ -4011,13 +4038,13 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="45">
+      <c r="A10" s="43">
         <v>90.8</v>
       </c>
       <c r="B10" s="1">
         <v>0.19</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="43">
         <v>10.4</v>
       </c>
       <c r="D10" s="12">
@@ -4025,27 +4052,27 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="45">
+      <c r="A11" s="43">
         <v>90.9</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="30">
         <v>0.19</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="43">
         <v>10.3</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="44">
         <v>0.19</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="45">
+      <c r="A12" s="43">
         <v>100.1</v>
       </c>
       <c r="B12" s="1">
         <v>0.21</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="43">
         <v>10.199999999999999</v>
       </c>
       <c r="D12" s="12">
@@ -4053,13 +4080,13 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16" thickBot="1">
-      <c r="A13" s="47">
+      <c r="A13" s="45">
         <v>100.2</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="46">
         <v>0.22</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="45">
         <v>10.4</v>
       </c>
       <c r="D13" s="15">
@@ -4072,22 +4099,22 @@
     <row r="15" spans="1:11" ht="16" thickBot="1"/>
     <row r="16" spans="1:11" ht="31" customHeight="1" thickBot="1">
       <c r="A16" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="F16" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -4095,216 +4122,216 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="23" customHeight="1" thickBot="1">
-      <c r="A17" s="27">
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="23" customHeight="1" thickBot="1">
+      <c r="A17" s="24">
         <v>2</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="24">
         <f>A17*K29+J29</f>
         <v>0.7</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="24">
         <v>0.01</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="24">
         <v>1E-3</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="26">
         <f>AVERAGE(A4:A13)</f>
         <v>96.419999999999987</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="24">
         <f>AVERAGE(B4:B13)</f>
         <v>0.20200000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="23" customHeight="1" thickBot="1">
-      <c r="A18" s="25">
+      <c r="A18" s="24">
         <v>1.9</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="24">
         <f t="shared" ref="B18:B25" si="0">A18*$K$46+$J$46</f>
         <v>0</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="24">
         <v>0.01</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="24">
         <v>1E-3</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <v>90.8</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="24">
         <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="23" customHeight="1" thickBot="1">
-      <c r="A19" s="29">
+      <c r="A19" s="27">
         <v>1.8</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="27">
         <v>0.01</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="27">
         <v>1E-3</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="28">
         <v>80.599999999999994</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="27">
         <v>0.23</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="23" customHeight="1" thickBot="1">
-      <c r="A20" s="26">
+      <c r="A20" s="25">
         <v>1.7</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="25">
         <v>0.01</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="25">
         <v>1E-3</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="33">
         <v>70.5</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="25">
         <v>0.24</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="23" customHeight="1" thickBot="1">
-      <c r="A21" s="29">
+      <c r="A21" s="27">
         <v>1.6</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="27">
         <v>0.01</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="27">
         <v>1E-3</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="28">
         <v>60.4</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="27">
         <v>0.19</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="23" customHeight="1" thickBot="1">
-      <c r="A22" s="26">
+      <c r="A22" s="25">
         <v>1.5</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="25">
         <v>0.01</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="25">
         <v>1E-3</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="33">
         <v>50.6</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="25">
         <v>0.13</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="23" customHeight="1" thickBot="1">
-      <c r="A23" s="29">
+      <c r="A23" s="27">
         <v>1.4</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="27">
         <v>0.01</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="27">
         <v>1E-3</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="28">
         <v>40.299999999999997</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="27">
         <v>0.18</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="23" customHeight="1" thickBot="1">
-      <c r="A24" s="26">
+      <c r="A24" s="25">
         <v>1.3</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="25">
         <v>0.01</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="25">
         <v>1E-3</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="33">
         <v>30.2</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="25">
         <v>0.15</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="23" customHeight="1" thickBot="1">
-      <c r="A25" s="29">
+      <c r="A25" s="27">
         <v>1.2</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="27">
         <v>0.01</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="27">
         <v>1E-3</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="23">
         <v>20.3</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="27">
         <v>0.13</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="23" customHeight="1" thickBot="1">
-      <c r="A26" s="31">
+      <c r="A26" s="29">
         <v>1</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="29">
         <f>A26*K29+J29</f>
         <v>0.5</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="29">
         <v>0.01</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="29">
         <v>1E-3</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="35">
         <f>AVERAGE(C4:C13)</f>
         <v>10.3</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="27">
         <f>AVERAGE(D4:D13)</f>
         <v>0.20200000000000001</v>
       </c>
@@ -4333,19 +4360,19 @@
     </row>
     <row r="29" spans="1:11" ht="26" customHeight="1" thickBot="1">
       <c r="A29" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>8</v>
@@ -4358,21 +4385,21 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="22" customHeight="1" thickBot="1">
-      <c r="A30" s="38">
+      <c r="A30" s="36">
         <v>3.25</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="41">
         <f>SQRT((B17)^2 + D17^2)</f>
         <v>0.70000071428534982</v>
       </c>
       <c r="C30">
         <v>2.0329999999999999</v>
       </c>
-      <c r="D30" s="33">
+      <c r="D30" s="31">
         <f>E30-0.1</f>
         <v>0.10200000000000001</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="37">
         <v>0.20200000000000001</v>
       </c>
       <c r="I30" s="13" t="s">
@@ -4386,81 +4413,81 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="22" customHeight="1">
-      <c r="A31" s="38">
+      <c r="A31" s="36">
         <v>3</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="31">
         <f>SQRT((B18)^2 + D18^2)</f>
         <v>1E-3</v>
       </c>
       <c r="C31">
         <v>1.9910000000000001</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D31" s="31">
         <f t="shared" ref="D31:D39" si="1">E31-0.1</f>
         <v>0.10100000000000001</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="37">
         <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="22" customHeight="1">
-      <c r="A32" s="38">
+      <c r="A32" s="36">
         <v>2.75</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="31">
         <f t="shared" ref="B32:B38" si="2">SQRT((B19)^2 + D19^2)</f>
         <v>1E-3</v>
       </c>
       <c r="C32">
         <v>1.95</v>
       </c>
-      <c r="D32" s="33">
+      <c r="D32" s="31">
         <f t="shared" si="1"/>
         <v>0.13</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="37">
         <v>0.23</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="22" customHeight="1">
-      <c r="A33" s="38">
+      <c r="A33" s="36">
         <v>2.5</v>
       </c>
-      <c r="B33" s="33">
+      <c r="B33" s="31">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
       <c r="C33">
         <v>1.9139999999999999</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="31">
         <f t="shared" si="1"/>
         <v>0.13999999999999999</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="37">
         <v>0.24</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="22" customHeight="1">
-      <c r="A34" s="38">
+      <c r="A34" s="36">
         <v>2.25</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="31">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
       <c r="C34">
         <v>1.8720000000000001</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D34" s="31">
         <f t="shared" si="1"/>
         <v>0.09</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="37">
         <v>0.19</v>
       </c>
       <c r="H34" s="1">
@@ -4468,97 +4495,97 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="22" customHeight="1">
-      <c r="A35" s="38">
+      <c r="A35" s="36">
         <v>2</v>
       </c>
-      <c r="B35" s="33">
+      <c r="B35" s="31">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
       <c r="C35">
         <v>1.83</v>
       </c>
-      <c r="D35" s="33">
+      <c r="D35" s="31">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E35" s="37">
         <v>0.13</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="22" customHeight="1">
-      <c r="A36" s="38">
+      <c r="A36" s="36">
         <v>1.75</v>
       </c>
-      <c r="B36" s="33">
+      <c r="B36" s="31">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
       <c r="C36">
         <v>1.7769999999999999</v>
       </c>
-      <c r="D36" s="33">
+      <c r="D36" s="31">
         <f t="shared" si="1"/>
         <v>7.9999999999999988E-2</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E36" s="37">
         <v>0.18</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="22" customHeight="1">
-      <c r="A37" s="38">
+      <c r="A37" s="36">
         <v>1.5</v>
       </c>
-      <c r="B37" s="33">
+      <c r="B37" s="31">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
       <c r="C37">
         <v>1.7350000000000001</v>
       </c>
-      <c r="D37" s="33">
+      <c r="D37" s="31">
         <f t="shared" si="1"/>
         <v>4.9999999999999989E-2</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E37" s="37">
         <v>0.15</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="22" customHeight="1">
-      <c r="A38" s="38">
+      <c r="A38" s="36">
         <v>1.25</v>
       </c>
-      <c r="B38" s="33">
+      <c r="B38" s="31">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
       <c r="C38">
         <v>1.679</v>
       </c>
-      <c r="D38" s="33">
+      <c r="D38" s="31">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="E38" s="39">
+      <c r="E38" s="37">
         <v>0.13</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="22" customHeight="1" thickBot="1">
-      <c r="A39" s="40">
+      <c r="A39" s="38">
         <v>1</v>
       </c>
-      <c r="B39" s="44">
+      <c r="B39" s="42">
         <f>SQRT((B26)^2 + D26^2)</f>
         <v>0.50000099999899994</v>
       </c>
-      <c r="C39" s="41">
+      <c r="C39" s="39">
         <v>1.6459999999999999</v>
       </c>
-      <c r="D39" s="34">
+      <c r="D39" s="32">
         <f t="shared" si="1"/>
         <v>0.10200000000000001</v>
       </c>
-      <c r="E39" s="42">
+      <c r="E39" s="40">
         <v>0.20200000000000001</v>
       </c>
     </row>

--- a/Pendulum/F3_Fadenpendel.xlsx
+++ b/Pendulum/F3_Fadenpendel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Pendulum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C038DF2F-AEA9-7B4C-B0CE-7211975C0B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144FF18C-A1F9-C84E-982A-0BDBA45F1B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="760" windowWidth="28300" windowHeight="18880" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
+    <workbookView xWindow="1200" yWindow="760" windowWidth="28300" windowHeight="18880" activeTab="1" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Durchführung" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
   <si>
     <t>l = Fadenlänge</t>
   </si>
@@ -544,24 +544,6 @@
     </r>
   </si>
   <si>
-    <t>li in m</t>
-  </si>
-  <si>
-    <t>∆li in mm</t>
-  </si>
-  <si>
-    <t>l0,schätz in m</t>
-  </si>
-  <si>
-    <t>∆l0,schätz in m</t>
-  </si>
-  <si>
-    <t>Ti,10 in s</t>
-  </si>
-  <si>
-    <t>∆Ti,sys</t>
-  </si>
-  <si>
     <t>Zusammengefasste Messdaten:</t>
   </si>
   <si>
@@ -587,6 +569,150 @@
   </si>
   <si>
     <t>zbsp ein Seil von 2 m wird genommen, mit den Objekt als Gewicht verlängert sich der Seil um 2 cm plus einen geschätzte Abweichung von 1 cm.</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Genauigkeitsklasse:</t>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,schätz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆l</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in mm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆l</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,schätz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>i,10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>i,sys</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -594,9 +720,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,6 +764,13 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri-Light"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri-Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -677,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -699,24 +832,68 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="29">
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -735,12 +912,54 @@
         <name val="Calibri-Light"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -774,12 +993,21 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri-Light"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -798,24 +1026,6 @@
         <name val="Calibri-Light"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2201,8 +2411,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AF7BB84-E4B4-AE4E-877F-000F781757C1}" name="Table1" displayName="Table1" ref="B39:G49" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="B39:G49" xr:uid="{8AF7BB84-E4B4-AE4E-877F-000F781757C1}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AF7BB84-E4B4-AE4E-877F-000F781757C1}" name="Table1" displayName="Table1" ref="B38:G48" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="B38:G48" xr:uid="{8AF7BB84-E4B4-AE4E-877F-000F781757C1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2211,52 +2421,52 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C40472B1-7B8C-0E47-AEDC-A96353CC7EB6}" name="li in m" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{D46C0C9D-88FC-BB4C-8B39-75A8E314A2EF}" name="∆li in mm" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{F1F4708E-76CE-F045-B5C1-920A7D822E6B}" name="l0,schätz in m" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{6CA49B71-59FE-F749-A9F2-A92B7E8ADE00}" name="∆l0,schätz in m" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{D323358E-AC7C-6E46-88E2-1B1BA82100EA}" name="Ti,10 in s" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{AFBBA230-ABF5-954F-BC23-DBFB08666DAB}" name="∆Ti,sys" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{C40472B1-7B8C-0E47-AEDC-A96353CC7EB6}" name="li in m" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{D46C0C9D-88FC-BB4C-8B39-75A8E314A2EF}" name="∆li in mm" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{F1F4708E-76CE-F045-B5C1-920A7D822E6B}" name="l0,schätz in m" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{6CA49B71-59FE-F749-A9F2-A92B7E8ADE00}" name="∆l0,schätz in m" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{D323358E-AC7C-6E46-88E2-1B1BA82100EA}" name="Ti,10 in s" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{AFBBA230-ABF5-954F-BC23-DBFB08666DAB}" name="∆Ti,sys" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12F408C4-6383-794F-B75F-8A3C855BC7B9}" name="Table2" displayName="Table2" ref="B21:E31" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="B21:E31" xr:uid="{12F408C4-6383-794F-B75F-8A3C855BC7B9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12F408C4-6383-794F-B75F-8A3C855BC7B9}" name="Table2" displayName="Table2" ref="B20:E30" totalsRowShown="0" headerRowDxfId="22" dataDxfId="0">
+  <autoFilter ref="B20:E30" xr:uid="{12F408C4-6383-794F-B75F-8A3C855BC7B9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{40B1BD48-E0AC-F048-9F53-DACA8E50DAD4}" name="Tkürzeste,10 in s" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{5CFEB164-2EB1-FC43-9536-66D34A2FF6F9}" name="∆T1,sys" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{D0758299-B2B5-E54D-A597-1303CB8C4370}" name="Tlängste,10 in s" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{74EA936F-430B-9F4C-A48B-5B2C5D35C2BC}" name="∆T10,sys" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{40B1BD48-E0AC-F048-9F53-DACA8E50DAD4}" name="Tkürzeste,10 in s" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{5CFEB164-2EB1-FC43-9536-66D34A2FF6F9}" name="∆T1,sys" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{D0758299-B2B5-E54D-A597-1303CB8C4370}" name="Tlängste,10 in s" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{74EA936F-430B-9F4C-A48B-5B2C5D35C2BC}" name="∆T10,sys" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{74E82EF0-C58F-BB4B-8EBC-87C952B8B3B9}" name="Table3" displayName="Table3" ref="B3:C13" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{74E82EF0-C58F-BB4B-8EBC-87C952B8B3B9}" name="Table3" displayName="Table3" ref="B3:C13" totalsRowShown="0" headerRowDxfId="21" dataDxfId="5">
   <autoFilter ref="B3:C13" xr:uid="{74E82EF0-C58F-BB4B-8EBC-87C952B8B3B9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8346DB69-F8D0-374E-98BD-0B1E887C0365}" name="T(Nullpunkt) in s" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{04C0E93E-E90D-E94D-80A9-BA066B3C0889}" name="T(Umkehrpunkt) in s" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{8346DB69-F8D0-374E-98BD-0B1E887C0365}" name="T(Nullpunkt) in s" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{04C0E93E-E90D-E94D-80A9-BA066B3C0889}" name="T(Umkehrpunkt) in s" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{270A50D9-6F60-2545-AF66-7BABDD5BAB15}" name="Table4" displayName="Table4" ref="B54:F64" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="B54:F64" xr:uid="{270A50D9-6F60-2545-AF66-7BABDD5BAB15}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{270A50D9-6F60-2545-AF66-7BABDD5BAB15}" name="Table4" displayName="Table4" ref="B53:F63" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="B53:F63" xr:uid="{270A50D9-6F60-2545-AF66-7BABDD5BAB15}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2264,17 +2474,31 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EC12AF92-6AA2-A148-9B1E-938F14924331}" name="li,ges in m" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{6A5DF10D-FF45-B14C-A13B-2628E98996BF}" name="∆li,ges in mm" dataDxfId="5">
-      <calculatedColumnFormula>SQRT((C40)^2 + E40^2)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{EC12AF92-6AA2-A148-9B1E-938F14924331}" name="li,ges in m" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{6A5DF10D-FF45-B14C-A13B-2628E98996BF}" name="∆li,ges in mm" dataDxfId="15">
+      <calculatedColumnFormula>SQRT((C39)^2 + E39^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00C009F8-09A7-464E-9600-EB4D23B3D601}" name="Ti(mean)" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{4BD902E6-B3B0-C34F-B789-A8C756438E56}" name="∆Ti,stat (mean)" dataDxfId="3">
-      <calculatedColumnFormula>F55-0.1</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{00C009F8-09A7-464E-9600-EB4D23B3D601}" name="Ti(mean)" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{4BD902E6-B3B0-C34F-B789-A8C756438E56}" name="∆Ti,stat (mean)" dataDxfId="18">
+      <calculatedColumnFormula>F54-0.1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FD1160FF-3B90-F849-B405-E50D4CB9F2F4}" name="∆Ti,ges (mean)" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{FD1160FF-3B90-F849-B405-E50D4CB9F2F4}" name="∆Ti,ges (mean)" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ED8BB0E8-9CA0-AB4C-8485-913DC6849F9B}" name="Table5" displayName="Table5" ref="K52:L53" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9">
+  <autoFilter ref="K52:L53" xr:uid="{ED8BB0E8-9CA0-AB4C-8485-913DC6849F9B}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E53F5F5C-3534-0B48-931B-7E4E85D8B3E8}" name="a" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{CA60A8C6-6B33-7141-9408-E626FCFBE907}" name="b" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium24" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2577,7 +2801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6294217A-A0D8-0240-91A1-F26A21244DDE}">
   <dimension ref="A2:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="108" workbookViewId="0">
+    <sheetView zoomScale="108" workbookViewId="0">
       <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
@@ -2839,7 +3063,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="B76" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -2855,10 +3079,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FB1E29-01ED-F443-A5A0-FF909B503056}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2872,96 +3096,96 @@
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="14" customFormat="1" ht="16">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" s="12" customFormat="1" ht="16">
+      <c r="A1" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:3" s="8" customFormat="1" ht="24" customHeight="1">
+      <c r="B3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B4" s="11">
+      <c r="B4" s="15">
         <v>1.2</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="15">
         <v>2.1</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B5" s="11">
+      <c r="B5" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B6" s="11">
+      <c r="B6" s="15">
         <v>1</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="15">
         <v>1.9</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B7" s="11">
+      <c r="B7" s="15">
         <v>0.9</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="15">
         <v>1.9</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B8" s="11">
+      <c r="B8" s="15">
         <v>1.2</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="15">
         <v>1.9</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B9" s="11">
+      <c r="B9" s="15">
         <v>1.2</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="15">
         <v>2.1</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B10" s="11">
+      <c r="B10" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B11" s="11">
+      <c r="B11" s="15">
         <v>0.9</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B12" s="11">
+      <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="15">
         <v>1.8</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B13" s="11">
+      <c r="B13" s="15">
         <v>1</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="15">
         <v>1.9</v>
       </c>
     </row>
@@ -2970,207 +3194,230 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="15" customFormat="1" ht="16">
-      <c r="A19" s="15" t="s">
+    <row r="18" spans="1:5" s="13" customFormat="1" ht="16">
+      <c r="A18" s="13" t="s">
         <v>54</v>
       </c>
     </row>
+    <row r="20" spans="1:5" ht="22" customHeight="1">
+      <c r="B20" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="21" spans="1:5" ht="22" customHeight="1">
-      <c r="B21" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>41</v>
+      <c r="B21" s="16">
+        <v>100.2</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0.23</v>
+      </c>
+      <c r="D21" s="16">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0.23</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="22" customHeight="1">
-      <c r="B22" s="11">
+      <c r="B22" s="16">
+        <v>100.1</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D22" s="16">
+        <v>10.5</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="22" customHeight="1">
+      <c r="B23" s="16">
+        <v>100.1</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="D23" s="16">
+        <v>10.4</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="22" customHeight="1">
+      <c r="B24" s="16">
+        <v>100</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0.24</v>
+      </c>
+      <c r="D24" s="16">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="22" customHeight="1">
+      <c r="B25" s="16">
+        <v>90.9</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="D25" s="16">
+        <v>10.1</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="22" customHeight="1">
+      <c r="B26" s="16">
+        <v>90.9</v>
+      </c>
+      <c r="C26" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D26" s="16">
+        <v>10.5</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="22" customHeight="1">
+      <c r="B27" s="16">
+        <v>90.8</v>
+      </c>
+      <c r="C27" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="D27" s="16">
+        <v>10.4</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="22" customHeight="1">
+      <c r="B28" s="16">
+        <v>90.9</v>
+      </c>
+      <c r="C28" s="21">
+        <v>0.19</v>
+      </c>
+      <c r="D28" s="16">
+        <v>10.3</v>
+      </c>
+      <c r="E28" s="21">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="22" customHeight="1">
+      <c r="B29" s="16">
+        <v>100.1</v>
+      </c>
+      <c r="C29" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="D29" s="16">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="22" customHeight="1">
+      <c r="B30" s="16">
         <v>100.2</v>
       </c>
-      <c r="C22" s="11">
-        <v>0.23</v>
-      </c>
-      <c r="D22" s="11">
-        <v>10</v>
-      </c>
-      <c r="E22" s="11">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="22" customHeight="1">
-      <c r="B23" s="11">
-        <v>100.1</v>
-      </c>
-      <c r="C23" s="11">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D23" s="11">
-        <v>10.5</v>
-      </c>
-      <c r="E23" s="11">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="22" customHeight="1">
-      <c r="B24" s="11">
-        <v>100.1</v>
-      </c>
-      <c r="C24" s="11">
-        <v>0.19</v>
-      </c>
-      <c r="D24" s="11">
+      <c r="C30" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="D30" s="16">
         <v>10.4</v>
       </c>
-      <c r="E24" s="11">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="22" customHeight="1">
-      <c r="B25" s="11">
-        <v>100</v>
-      </c>
-      <c r="C25" s="11">
-        <v>0.24</v>
-      </c>
-      <c r="D25" s="11">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="E25" s="11">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="22" customHeight="1">
-      <c r="B26" s="11">
-        <v>90.9</v>
-      </c>
-      <c r="C26" s="11">
-        <v>0.21</v>
-      </c>
-      <c r="D26" s="11">
-        <v>10.1</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="22" customHeight="1">
-      <c r="B27" s="11">
-        <v>90.9</v>
-      </c>
-      <c r="C27" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="D27" s="11">
-        <v>10.5</v>
-      </c>
-      <c r="E27" s="11">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="22" customHeight="1">
-      <c r="B28" s="11">
-        <v>90.8</v>
-      </c>
-      <c r="C28" s="11">
-        <v>0.19</v>
-      </c>
-      <c r="D28" s="11">
-        <v>10.4</v>
-      </c>
-      <c r="E28" s="11">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="22" customHeight="1">
-      <c r="B29" s="11">
-        <v>90.9</v>
-      </c>
-      <c r="C29" s="12">
-        <v>0.19</v>
-      </c>
-      <c r="D29" s="11">
-        <v>10.3</v>
-      </c>
-      <c r="E29" s="12">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="22" customHeight="1">
-      <c r="B30" s="11">
-        <v>100.1</v>
-      </c>
-      <c r="C30" s="11">
-        <v>0.21</v>
-      </c>
-      <c r="D30" s="11">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="22" customHeight="1">
-      <c r="B31" s="11">
-        <v>100.2</v>
-      </c>
-      <c r="C31" s="11">
+      <c r="E30" s="16">
         <v>0.22</v>
       </c>
-      <c r="D31" s="11">
-        <v>10.4</v>
-      </c>
-      <c r="E31" s="11">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="17">
-      <c r="B33" t="s">
+    </row>
+    <row r="32" spans="1:5" ht="17">
+      <c r="B32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="B35" s="10" t="s">
+    <row r="34" spans="1:7">
+      <c r="B34" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="14" customFormat="1" ht="16">
+      <c r="A36" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="1" customFormat="1" ht="26" customHeight="1">
+      <c r="B38" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" s="16" customFormat="1" ht="16">
-      <c r="A37" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" ht="26" customHeight="1">
-      <c r="B39" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" ht="26" customHeight="1">
-      <c r="B40" s="8">
+      <c r="D38" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="B39" s="15">
         <v>2</v>
       </c>
+      <c r="C39" s="8">
+        <f>B39*$L$53+$K$53</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="F39" s="8">
+        <f>AVERAGE(B26:B35)</f>
+        <v>94.580000000000013</v>
+      </c>
+      <c r="G39" s="8">
+        <f>AVERAGE(C26:C35)</f>
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="B40" s="15">
+        <v>1.9</v>
+      </c>
       <c r="C40" s="8">
-        <f>B40*L54+K54</f>
-        <v>0</v>
+        <f t="shared" ref="C40:C48" si="0">B40*$L$53+$K$53</f>
+        <v>0.29000000000000004</v>
       </c>
       <c r="D40" s="8">
         <v>0.01</v>
@@ -3179,21 +3426,19 @@
         <v>1E-3</v>
       </c>
       <c r="F40" s="8">
-        <f>AVERAGE(B27:B36)</f>
-        <v>94.580000000000013</v>
+        <v>90.8</v>
       </c>
       <c r="G40" s="8">
-        <f>AVERAGE(C27:C36)</f>
-        <v>0.20200000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" ht="26" customHeight="1">
-      <c r="B41" s="8">
-        <v>1.9</v>
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="B41" s="15">
+        <v>1.8</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" ref="C41:C48" si="0">B41*$K$45+$J$45</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D41" s="8">
         <v>0.01</v>
@@ -3202,19 +3447,19 @@
         <v>1E-3</v>
       </c>
       <c r="F41" s="8">
-        <v>90.8</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="G41" s="8">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="1" customFormat="1" ht="26" customHeight="1">
-      <c r="B42" s="8">
-        <v>1.8</v>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="B42" s="15">
+        <v>1.7</v>
       </c>
       <c r="C42" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="D42" s="8">
         <v>0.01</v>
@@ -3223,19 +3468,19 @@
         <v>1E-3</v>
       </c>
       <c r="F42" s="8">
-        <v>80.599999999999994</v>
+        <v>70.5</v>
       </c>
       <c r="G42" s="8">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="1" customFormat="1" ht="26" customHeight="1">
-      <c r="B43" s="8">
-        <v>1.7</v>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="B43" s="15">
+        <v>1.6</v>
       </c>
       <c r="C43" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="D43" s="8">
         <v>0.01</v>
@@ -3244,19 +3489,19 @@
         <v>1E-3</v>
       </c>
       <c r="F43" s="8">
-        <v>70.5</v>
+        <v>60.4</v>
       </c>
       <c r="G43" s="8">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="1" customFormat="1" ht="26" customHeight="1">
-      <c r="B44" s="8">
-        <v>1.6</v>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="B44" s="15">
+        <v>1.5</v>
       </c>
       <c r="C44" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D44" s="8">
         <v>0.01</v>
@@ -3265,19 +3510,19 @@
         <v>1E-3</v>
       </c>
       <c r="F44" s="8">
-        <v>60.4</v>
+        <v>50.6</v>
       </c>
       <c r="G44" s="8">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="1" customFormat="1" ht="26" customHeight="1">
-      <c r="B45" s="8">
-        <v>1.5</v>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="B45" s="15">
+        <v>1.4</v>
       </c>
       <c r="C45" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="D45" s="8">
         <v>0.01</v>
@@ -3286,19 +3531,19 @@
         <v>1E-3</v>
       </c>
       <c r="F45" s="8">
-        <v>50.6</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="G45" s="8">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="1" customFormat="1" ht="26" customHeight="1">
-      <c r="B46" s="8">
-        <v>1.4</v>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="B46" s="15">
+        <v>1.3</v>
       </c>
       <c r="C46" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="D46" s="8">
         <v>0.01</v>
@@ -3307,19 +3552,19 @@
         <v>1E-3</v>
       </c>
       <c r="F46" s="8">
-        <v>40.299999999999997</v>
+        <v>30.2</v>
       </c>
       <c r="G46" s="8">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="1" customFormat="1" ht="26" customHeight="1">
-      <c r="B47" s="8">
-        <v>1.3</v>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="B47" s="15">
+        <v>1.2</v>
       </c>
       <c r="C47" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="D47" s="8">
         <v>0.01</v>
@@ -3328,19 +3573,19 @@
         <v>1E-3</v>
       </c>
       <c r="F47" s="8">
-        <v>30.2</v>
+        <v>20.3</v>
       </c>
       <c r="G47" s="8">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="1" customFormat="1" ht="26" customHeight="1">
-      <c r="B48" s="8">
-        <v>1.2</v>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="B48" s="15">
+        <v>1</v>
       </c>
       <c r="C48" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D48" s="8">
         <v>0.01</v>
@@ -3349,254 +3594,257 @@
         <v>1E-3</v>
       </c>
       <c r="F48" s="8">
-        <v>20.3</v>
+        <f>AVERAGE(D26:D35)</f>
+        <v>10.36</v>
       </c>
       <c r="G48" s="8">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" s="1" customFormat="1" ht="26" customHeight="1">
-      <c r="B49" s="8">
+        <f>AVERAGE(E26:E35)</f>
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J51" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K51" s="3"/>
+      <c r="L51" s="20">
         <v>1</v>
       </c>
-      <c r="C49" s="8">
-        <f>B49*L54+K54</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E49" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F49" s="8">
-        <f>AVERAGE(D27:D36)</f>
-        <v>10.36</v>
-      </c>
-      <c r="G49" s="8">
-        <f>AVERAGE(E27:E36)</f>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="J52" s="3"/>
+      <c r="K52" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="L52" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" s="8" customFormat="1" ht="24" customHeight="1">
+      <c r="B53" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="L53" s="17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
+      <c r="B54" s="15">
+        <v>3.25</v>
+      </c>
+      <c r="C54" s="15">
+        <f>SQRT((C39)^2 + E39^2)</f>
+        <v>0.30000166666203709</v>
+      </c>
+      <c r="D54" s="8">
+        <v>2.0329999999999999</v>
+      </c>
+      <c r="E54" s="8">
+        <f>F54-0.1</f>
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="F54" s="8">
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:7">
-      <c r="B52" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" s="8" customFormat="1" ht="19" customHeight="1">
-      <c r="B54" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" s="8" customFormat="1" ht="19" customHeight="1">
-      <c r="B55" s="11">
-        <v>3.25</v>
-      </c>
-      <c r="C55" s="13">
+    <row r="55" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
+      <c r="B55" s="15">
+        <v>3</v>
+      </c>
+      <c r="C55" s="15">
         <f>SQRT((C40)^2 + E40^2)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="D55" s="11">
-        <v>2.0329999999999999</v>
-      </c>
-      <c r="E55" s="11">
-        <f>F55-0.1</f>
-        <v>0.10200000000000001</v>
-      </c>
-      <c r="F55" s="11">
-        <v>0.20200000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" s="8" customFormat="1" ht="19" customHeight="1">
-      <c r="B56" s="11">
-        <v>3</v>
-      </c>
-      <c r="C56" s="11">
-        <f>SQRT((C41)^2 + E41^2)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="D56" s="11">
+        <v>0.29000172413280584</v>
+      </c>
+      <c r="D55" s="8">
         <v>1.9910000000000001</v>
       </c>
-      <c r="E56" s="11">
-        <f t="shared" ref="E56:E64" si="1">F56-0.1</f>
+      <c r="E55" s="8">
+        <f t="shared" ref="E55:E63" si="1">F55-0.1</f>
         <v>0.10100000000000001</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F55" s="8">
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:7" s="8" customFormat="1" ht="19" customHeight="1">
-      <c r="B57" s="11">
+    <row r="56" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
+      <c r="B56" s="15">
         <v>2.75</v>
       </c>
-      <c r="C57" s="11">
-        <f t="shared" ref="C57:C63" si="2">SQRT((C42)^2 + E42^2)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="D57" s="11">
+      <c r="C56" s="15">
+        <f t="shared" ref="C56:C62" si="2">SQRT((C41)^2 + E41^2)</f>
+        <v>0.28000178570859152</v>
+      </c>
+      <c r="D56" s="8">
         <v>1.95</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E56" s="8">
         <f t="shared" si="1"/>
         <v>0.13</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F56" s="8">
         <v>0.23</v>
       </c>
     </row>
-    <row r="58" spans="2:7" s="8" customFormat="1" ht="19" customHeight="1">
-      <c r="B58" s="11">
+    <row r="57" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
+      <c r="B57" s="15">
         <v>2.5</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C57" s="15">
         <f t="shared" si="2"/>
-        <v>1E-3</v>
-      </c>
-      <c r="D58" s="11">
+        <v>0.27000185184550124</v>
+      </c>
+      <c r="D57" s="8">
         <v>1.9139999999999999</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E57" s="8">
         <f t="shared" si="1"/>
         <v>0.13999999999999999</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F57" s="8">
         <v>0.24</v>
       </c>
     </row>
-    <row r="59" spans="2:7" s="8" customFormat="1" ht="19" customHeight="1">
-      <c r="B59" s="11">
+    <row r="58" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
+      <c r="B58" s="15">
         <v>2.25</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C58" s="15">
         <f t="shared" si="2"/>
-        <v>1E-3</v>
-      </c>
-      <c r="D59" s="11">
+        <v>0.26000192306981118</v>
+      </c>
+      <c r="D58" s="8">
         <v>1.8720000000000001</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E58" s="8">
         <f t="shared" si="1"/>
         <v>0.09</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F58" s="8">
         <v>0.19</v>
       </c>
     </row>
-    <row r="60" spans="2:7" s="8" customFormat="1" ht="19" customHeight="1">
-      <c r="B60" s="11">
+    <row r="59" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
+      <c r="B59" s="15">
         <v>2</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C59" s="15">
         <f t="shared" si="2"/>
-        <v>1E-3</v>
-      </c>
-      <c r="D60" s="11">
+        <v>0.25000199999200007</v>
+      </c>
+      <c r="D59" s="8">
         <v>1.83</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E59" s="8">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F59" s="8">
         <v>0.13</v>
       </c>
     </row>
-    <row r="61" spans="2:7" s="8" customFormat="1" ht="19" customHeight="1">
-      <c r="B61" s="11">
+    <row r="60" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
+      <c r="B60" s="15">
         <v>1.75</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C60" s="15">
         <f t="shared" si="2"/>
-        <v>1E-3</v>
-      </c>
-      <c r="D61" s="11">
+        <v>0.24000208332429115</v>
+      </c>
+      <c r="D60" s="8">
         <v>1.7769999999999999</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E60" s="8">
         <f t="shared" si="1"/>
         <v>7.9999999999999988E-2</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F60" s="8">
         <v>0.18</v>
       </c>
     </row>
-    <row r="62" spans="2:7" s="8" customFormat="1" ht="19" customHeight="1">
-      <c r="B62" s="11">
+    <row r="61" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
+      <c r="B61" s="15">
         <v>1.5</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C61" s="15">
         <f t="shared" si="2"/>
-        <v>1E-3</v>
-      </c>
-      <c r="D62" s="11">
+        <v>0.23000217390276989</v>
+      </c>
+      <c r="D61" s="8">
         <v>1.7350000000000001</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E61" s="8">
         <f t="shared" si="1"/>
         <v>4.9999999999999989E-2</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F61" s="8">
         <v>0.15</v>
       </c>
     </row>
-    <row r="63" spans="2:7" s="8" customFormat="1" ht="19" customHeight="1">
-      <c r="B63" s="11">
+    <row r="62" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
+      <c r="B62" s="15">
         <v>1.25</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C62" s="15">
         <f t="shared" si="2"/>
-        <v>1E-3</v>
-      </c>
-      <c r="D63" s="11">
+        <v>0.22000227271553355</v>
+      </c>
+      <c r="D62" s="8">
         <v>1.679</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E62" s="8">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F62" s="8">
         <v>0.13</v>
       </c>
     </row>
-    <row r="64" spans="2:7" s="8" customFormat="1" ht="19" customHeight="1">
-      <c r="B64" s="11">
+    <row r="63" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
+      <c r="B63" s="15">
         <v>1</v>
       </c>
-      <c r="C64" s="13">
-        <f>SQRT((C49)^2 + E49^2)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="D64" s="11">
+      <c r="C63" s="15">
+        <f>SQRT((C48)^2 + E48^2)</f>
+        <v>0.20000249998437522</v>
+      </c>
+      <c r="D63" s="8">
         <v>1.6459999999999999</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E63" s="8">
         <f t="shared" si="1"/>
         <v>0.10200000000000001</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F63" s="8">
         <v>0.20200000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Pendulum/F3_Fadenpendel.xlsx
+++ b/Pendulum/F3_Fadenpendel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Pendulum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144FF18C-A1F9-C84E-982A-0BDBA45F1B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCA088E-7BCD-DE4E-A36A-B98110157CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="760" windowWidth="28300" windowHeight="18880" activeTab="1" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
   </bookViews>
@@ -720,7 +720,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -841,7 +841,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -856,7 +856,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -865,23 +865,11 @@
   </cellStyles>
   <dxfs count="29">
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -889,36 +877,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri-Light"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -948,7 +908,33 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri-Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -966,12 +952,33 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri-Light"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -993,21 +1000,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri-Light"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1038,6 +1031,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2421,19 +2421,19 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C40472B1-7B8C-0E47-AEDC-A96353CC7EB6}" name="li in m" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{D46C0C9D-88FC-BB4C-8B39-75A8E314A2EF}" name="∆li in mm" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{F1F4708E-76CE-F045-B5C1-920A7D822E6B}" name="l0,schätz in m" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{6CA49B71-59FE-F749-A9F2-A92B7E8ADE00}" name="∆l0,schätz in m" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{D323358E-AC7C-6E46-88E2-1B1BA82100EA}" name="Ti,10 in s" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{AFBBA230-ABF5-954F-BC23-DBFB08666DAB}" name="∆Ti,sys" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{C40472B1-7B8C-0E47-AEDC-A96353CC7EB6}" name="li in m" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{D46C0C9D-88FC-BB4C-8B39-75A8E314A2EF}" name="∆li in mm" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{F1F4708E-76CE-F045-B5C1-920A7D822E6B}" name="l0,schätz in m" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{6CA49B71-59FE-F749-A9F2-A92B7E8ADE00}" name="∆l0,schätz in m" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{D323358E-AC7C-6E46-88E2-1B1BA82100EA}" name="Ti,10 in s" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{AFBBA230-ABF5-954F-BC23-DBFB08666DAB}" name="∆Ti,sys" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12F408C4-6383-794F-B75F-8A3C855BC7B9}" name="Table2" displayName="Table2" ref="B20:E30" totalsRowShown="0" headerRowDxfId="22" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12F408C4-6383-794F-B75F-8A3C855BC7B9}" name="Table2" displayName="Table2" ref="B20:E30" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="B20:E30" xr:uid="{12F408C4-6383-794F-B75F-8A3C855BC7B9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2441,31 +2441,31 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{40B1BD48-E0AC-F048-9F53-DACA8E50DAD4}" name="Tkürzeste,10 in s" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{5CFEB164-2EB1-FC43-9536-66D34A2FF6F9}" name="∆T1,sys" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{D0758299-B2B5-E54D-A597-1303CB8C4370}" name="Tlängste,10 in s" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{74EA936F-430B-9F4C-A48B-5B2C5D35C2BC}" name="∆T10,sys" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{40B1BD48-E0AC-F048-9F53-DACA8E50DAD4}" name="Tkürzeste,10 in s" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{5CFEB164-2EB1-FC43-9536-66D34A2FF6F9}" name="∆T1,sys" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{D0758299-B2B5-E54D-A597-1303CB8C4370}" name="Tlängste,10 in s" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{74EA936F-430B-9F4C-A48B-5B2C5D35C2BC}" name="∆T10,sys" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{74E82EF0-C58F-BB4B-8EBC-87C952B8B3B9}" name="Table3" displayName="Table3" ref="B3:C13" totalsRowShown="0" headerRowDxfId="21" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{74E82EF0-C58F-BB4B-8EBC-87C952B8B3B9}" name="Table3" displayName="Table3" ref="B3:C13" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="B3:C13" xr:uid="{74E82EF0-C58F-BB4B-8EBC-87C952B8B3B9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8346DB69-F8D0-374E-98BD-0B1E887C0365}" name="T(Nullpunkt) in s" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{04C0E93E-E90D-E94D-80A9-BA066B3C0889}" name="T(Umkehrpunkt) in s" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{8346DB69-F8D0-374E-98BD-0B1E887C0365}" name="T(Nullpunkt) in s" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{04C0E93E-E90D-E94D-80A9-BA066B3C0889}" name="T(Umkehrpunkt) in s" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{270A50D9-6F60-2545-AF66-7BABDD5BAB15}" name="Table4" displayName="Table4" ref="B53:F63" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{270A50D9-6F60-2545-AF66-7BABDD5BAB15}" name="Table4" displayName="Table4" ref="B53:F63" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="B53:F63" xr:uid="{270A50D9-6F60-2545-AF66-7BABDD5BAB15}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2474,29 +2474,29 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EC12AF92-6AA2-A148-9B1E-938F14924331}" name="li,ges in m" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{6A5DF10D-FF45-B14C-A13B-2628E98996BF}" name="∆li,ges in mm" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{EC12AF92-6AA2-A148-9B1E-938F14924331}" name="li,ges in m" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{6A5DF10D-FF45-B14C-A13B-2628E98996BF}" name="∆li,ges in mm" dataDxfId="11">
       <calculatedColumnFormula>SQRT((C39)^2 + E39^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00C009F8-09A7-464E-9600-EB4D23B3D601}" name="Ti(mean)" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{4BD902E6-B3B0-C34F-B789-A8C756438E56}" name="∆Ti,stat (mean)" dataDxfId="18">
+    <tableColumn id="3" xr3:uid="{00C009F8-09A7-464E-9600-EB4D23B3D601}" name="Ti(mean)" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{4BD902E6-B3B0-C34F-B789-A8C756438E56}" name="∆Ti,stat (mean)" dataDxfId="9">
       <calculatedColumnFormula>F54-0.1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FD1160FF-3B90-F849-B405-E50D4CB9F2F4}" name="∆Ti,ges (mean)" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{FD1160FF-3B90-F849-B405-E50D4CB9F2F4}" name="∆Ti,ges (mean)" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ED8BB0E8-9CA0-AB4C-8485-913DC6849F9B}" name="Table5" displayName="Table5" ref="K52:L53" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ED8BB0E8-9CA0-AB4C-8485-913DC6849F9B}" name="Table5" displayName="Table5" ref="K52:L53" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="K52:L53" xr:uid="{ED8BB0E8-9CA0-AB4C-8485-913DC6849F9B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E53F5F5C-3534-0B48-931B-7E4E85D8B3E8}" name="a" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{CA60A8C6-6B33-7141-9408-E626FCFBE907}" name="b" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{E53F5F5C-3534-0B48-931B-7E4E85D8B3E8}" name="a" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{CA60A8C6-6B33-7141-9408-E626FCFBE907}" name="b" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium24" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3081,7 +3081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FB1E29-01ED-F443-A5A0-FF909B503056}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -3217,98 +3217,98 @@
       <c r="B21" s="16">
         <v>100.2</v>
       </c>
-      <c r="C21" s="16">
-        <v>0.23</v>
+      <c r="C21" s="15">
+        <v>0.01</v>
       </c>
       <c r="D21" s="16">
         <v>10</v>
       </c>
-      <c r="E21" s="16">
-        <v>0.23</v>
+      <c r="E21" s="15">
+        <v>0.01</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="22" customHeight="1">
       <c r="B22" s="16">
         <v>100.1</v>
       </c>
-      <c r="C22" s="16">
-        <v>0.14000000000000001</v>
+      <c r="C22" s="15">
+        <v>0.01</v>
       </c>
       <c r="D22" s="16">
         <v>10.5</v>
       </c>
-      <c r="E22" s="16">
-        <v>0.14000000000000001</v>
+      <c r="E22" s="15">
+        <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="22" customHeight="1">
       <c r="B23" s="16">
         <v>100.1</v>
       </c>
-      <c r="C23" s="16">
-        <v>0.19</v>
+      <c r="C23" s="15">
+        <v>0.01</v>
       </c>
       <c r="D23" s="16">
         <v>10.4</v>
       </c>
-      <c r="E23" s="16">
-        <v>0.19</v>
+      <c r="E23" s="15">
+        <v>0.01</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="22" customHeight="1">
       <c r="B24" s="16">
         <v>100</v>
       </c>
-      <c r="C24" s="16">
-        <v>0.24</v>
+      <c r="C24" s="15">
+        <v>0.01</v>
       </c>
       <c r="D24" s="16">
         <v>10.199999999999999</v>
       </c>
-      <c r="E24" s="16">
-        <v>0.24</v>
+      <c r="E24" s="15">
+        <v>0.01</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="22" customHeight="1">
       <c r="B25" s="16">
         <v>90.9</v>
       </c>
-      <c r="C25" s="16">
-        <v>0.21</v>
+      <c r="C25" s="15">
+        <v>0.01</v>
       </c>
       <c r="D25" s="16">
         <v>10.1</v>
       </c>
-      <c r="E25" s="16">
-        <v>0.21</v>
+      <c r="E25" s="15">
+        <v>0.01</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="22" customHeight="1">
       <c r="B26" s="16">
         <v>90.9</v>
       </c>
-      <c r="C26" s="16">
-        <v>0.2</v>
+      <c r="C26" s="15">
+        <v>0.01</v>
       </c>
       <c r="D26" s="16">
         <v>10.5</v>
       </c>
-      <c r="E26" s="16">
-        <v>0.2</v>
+      <c r="E26" s="15">
+        <v>0.01</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="22" customHeight="1">
       <c r="B27" s="16">
         <v>90.8</v>
       </c>
-      <c r="C27" s="16">
-        <v>0.19</v>
+      <c r="C27" s="15">
+        <v>0.01</v>
       </c>
       <c r="D27" s="16">
         <v>10.4</v>
       </c>
-      <c r="E27" s="16">
-        <v>0.19</v>
+      <c r="E27" s="15">
+        <v>0.01</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="22" customHeight="1">
@@ -3316,41 +3316,41 @@
         <v>90.9</v>
       </c>
       <c r="C28" s="21">
-        <v>0.19</v>
+        <v>0.01</v>
       </c>
       <c r="D28" s="16">
         <v>10.3</v>
       </c>
       <c r="E28" s="21">
-        <v>0.19</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="22" customHeight="1">
       <c r="B29" s="16">
         <v>100.1</v>
       </c>
-      <c r="C29" s="16">
-        <v>0.21</v>
+      <c r="C29" s="15">
+        <v>0.01</v>
       </c>
       <c r="D29" s="16">
         <v>10.199999999999999</v>
       </c>
-      <c r="E29" s="16">
-        <v>0.21</v>
+      <c r="E29" s="15">
+        <v>0.01</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="22" customHeight="1">
       <c r="B30" s="16">
         <v>100.2</v>
       </c>
-      <c r="C30" s="16">
-        <v>0.22</v>
+      <c r="C30" s="15">
+        <v>0.01</v>
       </c>
       <c r="D30" s="16">
         <v>10.4</v>
       </c>
-      <c r="E30" s="16">
-        <v>0.22</v>
+      <c r="E30" s="15">
+        <v>0.01</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="G39" s="8">
         <f>AVERAGE(C26:C35)</f>
-        <v>0.20200000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="G48" s="8">
         <f>AVERAGE(E26:E35)</f>
-        <v>0.20200000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="51" spans="2:12">

--- a/Pendulum/F3_Fadenpendel.xlsx
+++ b/Pendulum/F3_Fadenpendel.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Pendulum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCA088E-7BCD-DE4E-A36A-B98110157CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC4BF24-4D8E-8A4C-A49A-419FE7225FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="760" windowWidth="28300" windowHeight="18880" activeTab="1" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Durchführung" sheetId="3" r:id="rId1"/>
     <sheet name="Rohdaten" sheetId="5" r:id="rId2"/>
+    <sheet name="Results" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
   <si>
     <t>l = Fadenlänge</t>
   </si>
@@ -171,7 +172,7 @@
   </si>
   <si>
     <r>
-      <t>∆T</t>
+      <t>l</t>
     </r>
     <r>
       <rPr>
@@ -181,7 +182,7 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t>1</t>
+      <t>i,ges</t>
     </r>
     <r>
       <rPr>
@@ -190,7 +191,12 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t>,</t>
+      <t xml:space="preserve"> in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆l</t>
     </r>
     <r>
       <rPr>
@@ -200,12 +206,21 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t>sys</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆T</t>
+      <t>i,ges</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in mm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -215,12 +230,21 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t>10,sys</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>l</t>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>(mean)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆T</t>
     </r>
     <r>
       <rPr>
@@ -230,21 +254,20 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t>i,ges</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> in m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆l</t>
+      <t xml:space="preserve">i,stat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>(mean)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆T</t>
     </r>
     <r>
       <rPr>
@@ -263,12 +286,12 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t xml:space="preserve"> in mm</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
+      <t xml:space="preserve"> (mean)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Um welche Länge l</t>
     </r>
     <r>
       <rPr>
@@ -278,7 +301,7 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t>i</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -287,12 +310,7 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t>(mean)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆T</t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -302,20 +320,288 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t xml:space="preserve">i,stat </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>(mean)</t>
+      <t>schätz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> wird das Pendel länger, wenn die Lage des Schwerpunktes abgeschätzt wird? Schätzen sie auch ∆l</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>schätz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> ab.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gleiche Anfangsamplitude 𝜑</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> für alle Messungen</t>
+    </r>
+  </si>
+  <si>
+    <t>Markierer für 𝜑 = 0</t>
+  </si>
+  <si>
+    <t>Versuchsteil 1: Nulldurchgang vs Umkehrpunkt</t>
+  </si>
+  <si>
+    <t>T(Nullpunkt) in s</t>
+  </si>
+  <si>
+    <t>T(Umkehrpunkt) in s</t>
+  </si>
+  <si>
+    <r>
+      <t>𝜑</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Anfangsamplitude)</t>
+    </r>
+  </si>
+  <si>
+    <t>Versuchsteil 3.1: 10 Perioden 10 mal messen bei den längsten und kürzeste Pendellänge</t>
+  </si>
+  <si>
+    <t>Versuchsteil 3.2: 10 Perioden  bei 10 unterschiedlichen Pendellänge</t>
+  </si>
+  <si>
+    <t>Zusammengefasste Messdaten:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-&gt; Die Zeit wird am </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>Nullpunkt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> gemessen</t>
+    </r>
+  </si>
+  <si>
+    <t>zbsp ein Seil von 2 m wird genommen, mit den Objekt als Gewicht verlängert sich der Seil um 2 cm plus einen geschätzte Abweichung von 1 cm.</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Genauigkeitsklasse:</t>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,schätz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆l</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in mm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆l</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,schätz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>i,10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in s</t>
     </r>
   </si>
   <si>
     <r>
       <t>∆T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>i,sys</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -324,8 +610,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>i,ges</t>
+        <family val="2"/>
+      </rPr>
+      <t>längste</t>
     </r>
     <r>
       <rPr>
@@ -333,13 +620,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> (mean)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Um welche Länge l</t>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -348,8 +631,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>0</t>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -357,8 +641,14 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>,</t>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -367,114 +657,20 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>schätz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> wird das Pendel länger, wenn die Lage des Schwerpunktes abgeschätzt wird? Schätzen sie auch ∆l</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>schätz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> ab.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gleiche Anfangsamplitude 𝜑</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> für alle Messungen</t>
-    </r>
-  </si>
-  <si>
-    <t>Markierer für 𝜑 = 0</t>
-  </si>
-  <si>
-    <t>Versuchsteil 1: Nulldurchgang vs Umkehrpunkt</t>
-  </si>
-  <si>
-    <t>T(Nullpunkt) in s</t>
-  </si>
-  <si>
-    <t>T(Umkehrpunkt) in s</t>
-  </si>
-  <si>
-    <r>
-      <t>𝜑</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (Anfangsamplitude)</t>
-    </r>
-  </si>
-  <si>
-    <t>Versuchsteil 3.1: 10 Perioden 10 mal messen bei den längsten und kürzeste Pendellänge</t>
-  </si>
-  <si>
-    <t>Versuchsteil 3.2: 10 Perioden  bei 10 unterschiedlichen Pendellänge</t>
+      <t>kürzeste,10 durch 10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in s</t>
+    </r>
   </si>
   <si>
     <r>
@@ -487,8 +683,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>längste,10</t>
+        <family val="2"/>
+      </rPr>
+      <t>kürzeste,10</t>
     </r>
     <r>
       <rPr>
@@ -496,9 +693,31 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> in s</t>
     </r>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>stdev</t>
+  </si>
+  <si>
+    <t>cov</t>
+  </si>
+  <si>
+    <t>sys</t>
+  </si>
+  <si>
+    <t>total error</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Versuchsteil 3: 10 Perioden  bei 10 unterschiedlichen Pendellänge</t>
   </si>
   <si>
     <r>
@@ -511,8 +730,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>kürzeste</t>
+        <family val="2"/>
+      </rPr>
+      <t>längste,1 durch 10</t>
     </r>
     <r>
       <rPr>
@@ -520,198 +740,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> in s</t>
-    </r>
-  </si>
-  <si>
-    <t>Zusammengefasste Messdaten:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-&gt; Die Zeit wird am </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>Nullpunkt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> gemessen</t>
-    </r>
-  </si>
-  <si>
-    <t>zbsp ein Seil von 2 m wird genommen, mit den Objekt als Gewicht verlängert sich der Seil um 2 cm plus einen geschätzte Abweichung von 1 cm.</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Genauigkeitsklasse:</t>
-  </si>
-  <si>
-    <r>
-      <t>l</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>0,schätz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆l</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in mm</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>l</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆l</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>0,schätz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>i,10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in s</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆T</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>i,sys</t>
     </r>
   </si>
 </sst>
@@ -719,10 +750,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,6 +803,21 @@
       <name val="Calibri-Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri-Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri-Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -810,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -856,28 +903,57 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="37">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri-Light"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -932,6 +1008,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -997,6 +1074,22 @@
         <name val="Calibri-Light"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2411,7 +2504,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AF7BB84-E4B4-AE4E-877F-000F781757C1}" name="Table1" displayName="Table1" ref="B38:G48" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AF7BB84-E4B4-AE4E-877F-000F781757C1}" name="Table1" displayName="Table1" ref="B38:G48" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="B38:G48" xr:uid="{8AF7BB84-E4B4-AE4E-877F-000F781757C1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2421,19 +2514,19 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C40472B1-7B8C-0E47-AEDC-A96353CC7EB6}" name="li in m" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{D46C0C9D-88FC-BB4C-8B39-75A8E314A2EF}" name="∆li in mm" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{F1F4708E-76CE-F045-B5C1-920A7D822E6B}" name="l0,schätz in m" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{6CA49B71-59FE-F749-A9F2-A92B7E8ADE00}" name="∆l0,schätz in m" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{D323358E-AC7C-6E46-88E2-1B1BA82100EA}" name="Ti,10 in s" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{AFBBA230-ABF5-954F-BC23-DBFB08666DAB}" name="∆Ti,sys" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{C40472B1-7B8C-0E47-AEDC-A96353CC7EB6}" name="li in m" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{D46C0C9D-88FC-BB4C-8B39-75A8E314A2EF}" name="∆li in mm" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{F1F4708E-76CE-F045-B5C1-920A7D822E6B}" name="l0,schätz in m" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{6CA49B71-59FE-F749-A9F2-A92B7E8ADE00}" name="∆l0,schätz in m" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{D323358E-AC7C-6E46-88E2-1B1BA82100EA}" name="Ti,10 in s" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{AFBBA230-ABF5-954F-BC23-DBFB08666DAB}" name="∆Ti,sys" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12F408C4-6383-794F-B75F-8A3C855BC7B9}" name="Table2" displayName="Table2" ref="B20:E30" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12F408C4-6383-794F-B75F-8A3C855BC7B9}" name="Table2" displayName="Table2" ref="B20:E30" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="B20:E30" xr:uid="{12F408C4-6383-794F-B75F-8A3C855BC7B9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2441,31 +2534,35 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{40B1BD48-E0AC-F048-9F53-DACA8E50DAD4}" name="Tkürzeste,10 in s" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{5CFEB164-2EB1-FC43-9536-66D34A2FF6F9}" name="∆T1,sys" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{D0758299-B2B5-E54D-A597-1303CB8C4370}" name="Tlängste,10 in s" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{74EA936F-430B-9F4C-A48B-5B2C5D35C2BC}" name="∆T10,sys" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{40B1BD48-E0AC-F048-9F53-DACA8E50DAD4}" name="Tlängste,1 in s" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{C90DA0AB-163B-5740-BAF0-55D4E8A3A8E0}" name="Tlängste,1 durch 10 in s" dataDxfId="25">
+      <calculatedColumnFormula>Table2[[#This Row],[Tlängste,1 in s]]/10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{D0758299-B2B5-E54D-A597-1303CB8C4370}" name="Tkürzeste,10 in s" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{96B7299B-201D-5A42-8293-651D990DC860}" name="Tkürzeste,10 durch 10 in s" dataDxfId="23">
+      <calculatedColumnFormula>Table2[[#This Row],[Tkürzeste,10 in s]]/10</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{74E82EF0-C58F-BB4B-8EBC-87C952B8B3B9}" name="Table3" displayName="Table3" ref="B3:C13" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{74E82EF0-C58F-BB4B-8EBC-87C952B8B3B9}" name="Table3" displayName="Table3" ref="B3:C13" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="B3:C13" xr:uid="{74E82EF0-C58F-BB4B-8EBC-87C952B8B3B9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8346DB69-F8D0-374E-98BD-0B1E887C0365}" name="T(Nullpunkt) in s" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{04C0E93E-E90D-E94D-80A9-BA066B3C0889}" name="T(Umkehrpunkt) in s" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{8346DB69-F8D0-374E-98BD-0B1E887C0365}" name="T(Nullpunkt) in s" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{04C0E93E-E90D-E94D-80A9-BA066B3C0889}" name="T(Umkehrpunkt) in s" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{270A50D9-6F60-2545-AF66-7BABDD5BAB15}" name="Table4" displayName="Table4" ref="B53:F63" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{270A50D9-6F60-2545-AF66-7BABDD5BAB15}" name="Table4" displayName="Table4" ref="B53:F63" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="B53:F63" xr:uid="{270A50D9-6F60-2545-AF66-7BABDD5BAB15}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2474,31 +2571,53 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EC12AF92-6AA2-A148-9B1E-938F14924331}" name="li,ges in m" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{6A5DF10D-FF45-B14C-A13B-2628E98996BF}" name="∆li,ges in mm" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{EC12AF92-6AA2-A148-9B1E-938F14924331}" name="li,ges in m" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{6A5DF10D-FF45-B14C-A13B-2628E98996BF}" name="∆li,ges in mm" dataDxfId="15">
       <calculatedColumnFormula>SQRT((C39)^2 + E39^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00C009F8-09A7-464E-9600-EB4D23B3D601}" name="Ti(mean)" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{4BD902E6-B3B0-C34F-B789-A8C756438E56}" name="∆Ti,stat (mean)" dataDxfId="9">
+    <tableColumn id="3" xr3:uid="{00C009F8-09A7-464E-9600-EB4D23B3D601}" name="Ti(mean)" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{4BD902E6-B3B0-C34F-B789-A8C756438E56}" name="∆Ti,stat (mean)" dataDxfId="13">
       <calculatedColumnFormula>F54-0.1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FD1160FF-3B90-F849-B405-E50D4CB9F2F4}" name="∆Ti,ges (mean)" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{FD1160FF-3B90-F849-B405-E50D4CB9F2F4}" name="∆Ti,ges (mean)" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ED8BB0E8-9CA0-AB4C-8485-913DC6849F9B}" name="Table5" displayName="Table5" ref="K52:L53" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ED8BB0E8-9CA0-AB4C-8485-913DC6849F9B}" name="Table5" displayName="Table5" ref="K52:L53" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="K52:L53" xr:uid="{ED8BB0E8-9CA0-AB4C-8485-913DC6849F9B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E53F5F5C-3534-0B48-931B-7E4E85D8B3E8}" name="a" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{CA60A8C6-6B33-7141-9408-E626FCFBE907}" name="b" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{E53F5F5C-3534-0B48-931B-7E4E85D8B3E8}" name="a" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{CA60A8C6-6B33-7141-9408-E626FCFBE907}" name="b" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium24" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4AAF9D21-8339-7248-AA21-DA25D233DC2D}" name="Table6" displayName="Table6" ref="B3:G5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B3:G5" xr:uid="{4AAF9D21-8339-7248-AA21-DA25D233DC2D}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{6261AB11-CFEF-2D47-B567-0EA7AE1B7E2B}" name=" " dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{E231D29B-F6D8-774F-9CC2-B924F00DBABA}" name="mean" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{31F917E6-C6B3-C44A-BFA1-DB5A07FB6758}" name="stdev" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{0952568A-3564-1140-91F5-02ACBC6C84C1}" name="cov" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{FCEB2C04-DB74-7347-A758-5F8318B07AC0}" name="sys" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{9BE7E060-5CB7-4E49-9CB8-F31A15C6E537}" name="total error" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2900,7 +3019,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="B29" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3019,7 +3138,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3048,7 +3167,7 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -3063,7 +3182,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="B76" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3081,8 +3200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FB1E29-01ED-F443-A5A0-FF909B503056}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3092,21 +3211,21 @@
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="12" customFormat="1" ht="16">
       <c r="A1" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B3" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
@@ -3191,201 +3310,221 @@
     </row>
     <row r="15" spans="1:3" ht="17">
       <c r="B15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="13" customFormat="1" ht="16">
       <c r="A18" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="22" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>41</v>
+        <v>68</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="22" customHeight="1">
       <c r="B21" s="16">
         <v>100.2</v>
       </c>
-      <c r="C21" s="15">
-        <v>0.01</v>
+      <c r="C21" s="16">
+        <f>Table2[[#This Row],[Tlängste,1 in s]]/10</f>
+        <v>10.02</v>
       </c>
       <c r="D21" s="16">
         <v>10</v>
       </c>
-      <c r="E21" s="15">
-        <v>0.01</v>
+      <c r="E21" s="16">
+        <f>Table2[[#This Row],[Tkürzeste,10 in s]]/10</f>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="22" customHeight="1">
       <c r="B22" s="16">
         <v>100.1</v>
       </c>
-      <c r="C22" s="15">
-        <v>0.01</v>
+      <c r="C22" s="16">
+        <f>Table2[[#This Row],[Tlängste,1 in s]]/10</f>
+        <v>10.01</v>
       </c>
       <c r="D22" s="16">
         <v>10.5</v>
       </c>
-      <c r="E22" s="15">
-        <v>0.01</v>
+      <c r="E22" s="16">
+        <f>Table2[[#This Row],[Tkürzeste,10 in s]]/10</f>
+        <v>1.05</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="22" customHeight="1">
       <c r="B23" s="16">
         <v>100.1</v>
       </c>
-      <c r="C23" s="15">
-        <v>0.01</v>
+      <c r="C23" s="16">
+        <f>Table2[[#This Row],[Tlängste,1 in s]]/10</f>
+        <v>10.01</v>
       </c>
       <c r="D23" s="16">
         <v>10.4</v>
       </c>
-      <c r="E23" s="15">
-        <v>0.01</v>
+      <c r="E23" s="16">
+        <f>Table2[[#This Row],[Tkürzeste,10 in s]]/10</f>
+        <v>1.04</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="22" customHeight="1">
       <c r="B24" s="16">
         <v>100</v>
       </c>
-      <c r="C24" s="15">
-        <v>0.01</v>
+      <c r="C24" s="16">
+        <f>Table2[[#This Row],[Tlängste,1 in s]]/10</f>
+        <v>10</v>
       </c>
       <c r="D24" s="16">
         <v>10.199999999999999</v>
       </c>
-      <c r="E24" s="15">
-        <v>0.01</v>
+      <c r="E24" s="16">
+        <f>Table2[[#This Row],[Tkürzeste,10 in s]]/10</f>
+        <v>1.02</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="22" customHeight="1">
       <c r="B25" s="16">
         <v>90.9</v>
       </c>
-      <c r="C25" s="15">
-        <v>0.01</v>
+      <c r="C25" s="16">
+        <f>Table2[[#This Row],[Tlängste,1 in s]]/10</f>
+        <v>9.09</v>
       </c>
       <c r="D25" s="16">
         <v>10.1</v>
       </c>
-      <c r="E25" s="15">
-        <v>0.01</v>
+      <c r="E25" s="16">
+        <f>Table2[[#This Row],[Tkürzeste,10 in s]]/10</f>
+        <v>1.01</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="22" customHeight="1">
       <c r="B26" s="16">
         <v>90.9</v>
       </c>
-      <c r="C26" s="15">
-        <v>0.01</v>
+      <c r="C26" s="16">
+        <f>Table2[[#This Row],[Tlängste,1 in s]]/10</f>
+        <v>9.09</v>
       </c>
       <c r="D26" s="16">
         <v>10.5</v>
       </c>
-      <c r="E26" s="15">
-        <v>0.01</v>
+      <c r="E26" s="16">
+        <f>Table2[[#This Row],[Tkürzeste,10 in s]]/10</f>
+        <v>1.05</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="22" customHeight="1">
       <c r="B27" s="16">
         <v>90.8</v>
       </c>
-      <c r="C27" s="15">
-        <v>0.01</v>
+      <c r="C27" s="16">
+        <f>Table2[[#This Row],[Tlängste,1 in s]]/10</f>
+        <v>9.08</v>
       </c>
       <c r="D27" s="16">
         <v>10.4</v>
       </c>
-      <c r="E27" s="15">
-        <v>0.01</v>
+      <c r="E27" s="16">
+        <f>Table2[[#This Row],[Tkürzeste,10 in s]]/10</f>
+        <v>1.04</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="22" customHeight="1">
       <c r="B28" s="16">
         <v>90.9</v>
       </c>
-      <c r="C28" s="21">
-        <v>0.01</v>
+      <c r="C28" s="16">
+        <f>Table2[[#This Row],[Tlängste,1 in s]]/10</f>
+        <v>9.09</v>
       </c>
       <c r="D28" s="16">
         <v>10.3</v>
       </c>
-      <c r="E28" s="21">
-        <v>0.01</v>
+      <c r="E28" s="16">
+        <f>Table2[[#This Row],[Tkürzeste,10 in s]]/10</f>
+        <v>1.03</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="22" customHeight="1">
       <c r="B29" s="16">
         <v>100.1</v>
       </c>
-      <c r="C29" s="15">
-        <v>0.01</v>
+      <c r="C29" s="16">
+        <f>Table2[[#This Row],[Tlängste,1 in s]]/10</f>
+        <v>10.01</v>
       </c>
       <c r="D29" s="16">
         <v>10.199999999999999</v>
       </c>
-      <c r="E29" s="15">
-        <v>0.01</v>
+      <c r="E29" s="16">
+        <f>Table2[[#This Row],[Tkürzeste,10 in s]]/10</f>
+        <v>1.02</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="22" customHeight="1">
       <c r="B30" s="16">
         <v>100.2</v>
       </c>
-      <c r="C30" s="15">
-        <v>0.01</v>
+      <c r="C30" s="16">
+        <f>Table2[[#This Row],[Tlängste,1 in s]]/10</f>
+        <v>10.02</v>
       </c>
       <c r="D30" s="16">
         <v>10.4</v>
       </c>
-      <c r="E30" s="15">
-        <v>0.01</v>
+      <c r="E30" s="16">
+        <f>Table2[[#This Row],[Tkürzeste,10 in s]]/10</f>
+        <v>1.04</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17">
       <c r="B32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="B34" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="14" customFormat="1" ht="16">
       <c r="A36" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1" ht="26" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
@@ -3407,7 +3546,6 @@
         <v>94.580000000000013</v>
       </c>
       <c r="G39" s="8">
-        <f>AVERAGE(C26:C35)</f>
         <v>0.01</v>
       </c>
     </row>
@@ -3429,7 +3567,7 @@
         <v>90.8</v>
       </c>
       <c r="G40" s="8">
-        <v>0.20100000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
@@ -3450,7 +3588,7 @@
         <v>80.599999999999994</v>
       </c>
       <c r="G41" s="8">
-        <v>0.23</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
@@ -3471,7 +3609,7 @@
         <v>70.5</v>
       </c>
       <c r="G42" s="8">
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
@@ -3492,7 +3630,7 @@
         <v>60.4</v>
       </c>
       <c r="G43" s="8">
-        <v>0.19</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
@@ -3513,7 +3651,7 @@
         <v>50.6</v>
       </c>
       <c r="G44" s="8">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
@@ -3534,7 +3672,7 @@
         <v>40.299999999999997</v>
       </c>
       <c r="G45" s="8">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
@@ -3555,7 +3693,7 @@
         <v>30.2</v>
       </c>
       <c r="G46" s="8">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
@@ -3576,7 +3714,7 @@
         <v>20.3</v>
       </c>
       <c r="G47" s="8">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
@@ -3593,21 +3731,20 @@
       <c r="E48" s="8">
         <v>1E-3</v>
       </c>
-      <c r="F48" s="8">
-        <f>AVERAGE(D26:D35)</f>
-        <v>10.36</v>
+      <c r="F48" s="8" t="e">
+        <f>AVERAGE(D31:D35)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="G48" s="8">
-        <f>AVERAGE(E26:E35)</f>
         <v>0.01</v>
       </c>
     </row>
     <row r="51" spans="2:12">
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="20">
@@ -3617,27 +3754,27 @@
     <row r="52" spans="2:12">
       <c r="J52" s="3"/>
       <c r="K52" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L52" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="2:12" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="E53" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="F53" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="J53" s="17"/>
       <c r="K53" s="17">
@@ -3659,11 +3796,11 @@
         <v>2.0329999999999999</v>
       </c>
       <c r="E54" s="8">
-        <f>F54-0.1</f>
-        <v>0.10200000000000001</v>
-      </c>
-      <c r="F54" s="8">
-        <v>0.20200000000000001</v>
+        <v>0.12</v>
+      </c>
+      <c r="F54" s="22">
+        <f>SQRT((E54)^2 + G39^2)</f>
+        <v>0.12041594578792295</v>
       </c>
     </row>
     <row r="55" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
@@ -3678,11 +3815,11 @@
         <v>1.9910000000000001</v>
       </c>
       <c r="E55" s="8">
-        <f t="shared" ref="E55:E63" si="1">F55-0.1</f>
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="F55" s="8">
-        <v>0.20100000000000001</v>
+        <v>0.12</v>
+      </c>
+      <c r="F55" s="22">
+        <f t="shared" ref="F55:F63" si="1">SQRT((E55)^2 + G40^2)</f>
+        <v>0.12041594578792295</v>
       </c>
     </row>
     <row r="56" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
@@ -3697,11 +3834,11 @@
         <v>1.95</v>
       </c>
       <c r="E56" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="F56" s="22">
         <f t="shared" si="1"/>
-        <v>0.13</v>
-      </c>
-      <c r="F56" s="8">
-        <v>0.23</v>
+        <v>0.12041594578792295</v>
       </c>
     </row>
     <row r="57" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
@@ -3716,11 +3853,11 @@
         <v>1.9139999999999999</v>
       </c>
       <c r="E57" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="F57" s="22">
         <f t="shared" si="1"/>
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="F57" s="8">
-        <v>0.24</v>
+        <v>0.12041594578792295</v>
       </c>
     </row>
     <row r="58" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
@@ -3735,11 +3872,11 @@
         <v>1.8720000000000001</v>
       </c>
       <c r="E58" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="F58" s="22">
         <f t="shared" si="1"/>
-        <v>0.09</v>
-      </c>
-      <c r="F58" s="8">
-        <v>0.19</v>
+        <v>0.12041594578792295</v>
       </c>
     </row>
     <row r="59" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
@@ -3754,11 +3891,11 @@
         <v>1.83</v>
       </c>
       <c r="E59" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="F59" s="22">
         <f t="shared" si="1"/>
-        <v>0.03</v>
-      </c>
-      <c r="F59" s="8">
-        <v>0.13</v>
+        <v>0.12041594578792295</v>
       </c>
     </row>
     <row r="60" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
@@ -3773,11 +3910,11 @@
         <v>1.7769999999999999</v>
       </c>
       <c r="E60" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="F60" s="22">
         <f t="shared" si="1"/>
-        <v>7.9999999999999988E-2</v>
-      </c>
-      <c r="F60" s="8">
-        <v>0.18</v>
+        <v>0.12041594578792295</v>
       </c>
     </row>
     <row r="61" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
@@ -3792,11 +3929,11 @@
         <v>1.7350000000000001</v>
       </c>
       <c r="E61" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="F61" s="22">
         <f t="shared" si="1"/>
-        <v>4.9999999999999989E-2</v>
-      </c>
-      <c r="F61" s="8">
-        <v>0.15</v>
+        <v>0.12041594578792295</v>
       </c>
     </row>
     <row r="62" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
@@ -3811,11 +3948,11 @@
         <v>1.679</v>
       </c>
       <c r="E62" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="F62" s="22">
         <f t="shared" si="1"/>
-        <v>0.03</v>
-      </c>
-      <c r="F62" s="8">
-        <v>0.13</v>
+        <v>0.12041594578792295</v>
       </c>
     </row>
     <row r="63" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
@@ -3830,11 +3967,11 @@
         <v>1.6459999999999999</v>
       </c>
       <c r="E63" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="F63" s="22">
         <f t="shared" si="1"/>
-        <v>0.10200000000000001</v>
-      </c>
-      <c r="F63" s="8">
-        <v>0.20200000000000001</v>
+        <v>0.12041594578792295</v>
       </c>
     </row>
   </sheetData>
@@ -3847,4 +3984,76 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FA1135-DD52-3C46-BAEB-583B68230B7C}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="12" customFormat="1" ht="16">
+      <c r="A1" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="25" customHeight="1">
+      <c r="B3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="8" spans="1:7" s="14" customFormat="1" ht="16">
+      <c r="A8" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Pendulum/F3_Fadenpendel.xlsx
+++ b/Pendulum/F3_Fadenpendel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Pendulum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC4BF24-4D8E-8A4C-A49A-419FE7225FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389ACD94-229A-8345-A90C-5B1C9BFB2B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="760" windowWidth="28300" windowHeight="18880" activeTab="1" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
   </bookViews>
@@ -172,7 +172,7 @@
   </si>
   <si>
     <r>
-      <t>l</t>
+      <t>∆l</t>
     </r>
     <r>
       <rPr>
@@ -191,12 +191,12 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t xml:space="preserve"> in m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆l</t>
+      <t xml:space="preserve"> in mm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆T</t>
     </r>
     <r>
       <rPr>
@@ -206,21 +206,20 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t>i,ges</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> in mm</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
+      <t xml:space="preserve">i,stat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>(mean)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Um welche Länge l</t>
     </r>
     <r>
       <rPr>
@@ -230,7 +229,7 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t>i</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -239,12 +238,7 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t>(mean)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆T</t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -254,20 +248,288 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t xml:space="preserve">i,stat </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>(mean)</t>
+      <t>schätz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> wird das Pendel länger, wenn die Lage des Schwerpunktes abgeschätzt wird? Schätzen sie auch ∆l</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>schätz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> ab.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gleiche Anfangsamplitude 𝜑</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> für alle Messungen</t>
+    </r>
+  </si>
+  <si>
+    <t>Markierer für 𝜑 = 0</t>
+  </si>
+  <si>
+    <t>Versuchsteil 1: Nulldurchgang vs Umkehrpunkt</t>
+  </si>
+  <si>
+    <t>T(Nullpunkt) in s</t>
+  </si>
+  <si>
+    <t>T(Umkehrpunkt) in s</t>
+  </si>
+  <si>
+    <r>
+      <t>𝜑</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Anfangsamplitude)</t>
+    </r>
+  </si>
+  <si>
+    <t>Versuchsteil 3.1: 10 Perioden 10 mal messen bei den längsten und kürzeste Pendellänge</t>
+  </si>
+  <si>
+    <t>Versuchsteil 3.2: 10 Perioden  bei 10 unterschiedlichen Pendellänge</t>
+  </si>
+  <si>
+    <t>Zusammengefasste Messdaten:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-&gt; Die Zeit wird am </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>Nullpunkt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> gemessen</t>
+    </r>
+  </si>
+  <si>
+    <t>zbsp ein Seil von 2 m wird genommen, mit den Objekt als Gewicht verlängert sich der Seil um 2 cm plus einen geschätzte Abweichung von 1 cm.</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Genauigkeitsklasse:</t>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,schätz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆l</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in mm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆l</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,schätz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>i,10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in s</t>
     </r>
   </si>
   <si>
     <r>
       <t>∆T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>i,sys</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -276,8 +538,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>i,ges</t>
+        <family val="2"/>
+      </rPr>
+      <t>längste</t>
     </r>
     <r>
       <rPr>
@@ -285,13 +548,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> (mean)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Um welche Länge l</t>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -300,8 +559,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>0</t>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -309,8 +569,14 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>,</t>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -319,284 +585,19 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>schätz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> wird das Pendel länger, wenn die Lage des Schwerpunktes abgeschätzt wird? Schätzen sie auch ∆l</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>schätz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> ab.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gleiche Anfangsamplitude 𝜑</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> für alle Messungen</t>
-    </r>
-  </si>
-  <si>
-    <t>Markierer für 𝜑 = 0</t>
-  </si>
-  <si>
-    <t>Versuchsteil 1: Nulldurchgang vs Umkehrpunkt</t>
-  </si>
-  <si>
-    <t>T(Nullpunkt) in s</t>
-  </si>
-  <si>
-    <t>T(Umkehrpunkt) in s</t>
-  </si>
-  <si>
-    <r>
-      <t>𝜑</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (Anfangsamplitude)</t>
-    </r>
-  </si>
-  <si>
-    <t>Versuchsteil 3.1: 10 Perioden 10 mal messen bei den längsten und kürzeste Pendellänge</t>
-  </si>
-  <si>
-    <t>Versuchsteil 3.2: 10 Perioden  bei 10 unterschiedlichen Pendellänge</t>
-  </si>
-  <si>
-    <t>Zusammengefasste Messdaten:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-&gt; Die Zeit wird am </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>Nullpunkt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> gemessen</t>
-    </r>
-  </si>
-  <si>
-    <t>zbsp ein Seil von 2 m wird genommen, mit den Objekt als Gewicht verlängert sich der Seil um 2 cm plus einen geschätzte Abweichung von 1 cm.</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Genauigkeitsklasse:</t>
-  </si>
-  <si>
-    <r>
-      <t>l</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
+      <t>kürzeste,10 durch 10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
         <family val="2"/>
       </rPr>
-      <t>0,schätz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆l</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in mm</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>l</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆l</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>0,schätz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>i,10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve"> in s</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆T</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>i,sys</t>
     </r>
   </si>
   <si>
@@ -612,7 +613,7 @@
         <rFont val="Calibri-Light"/>
         <family val="2"/>
       </rPr>
-      <t>längste</t>
+      <t>kürzeste,10</t>
     </r>
     <r>
       <rPr>
@@ -622,7 +623,33 @@
         <rFont val="Calibri-Light"/>
         <family val="2"/>
       </rPr>
-      <t>,</t>
+      <t xml:space="preserve"> in s</t>
+    </r>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>stdev</t>
+  </si>
+  <si>
+    <t>cov</t>
+  </si>
+  <si>
+    <t>sys</t>
+  </si>
+  <si>
+    <t>total error</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Versuchsteil 3: 10 Perioden  bei 10 unterschiedlichen Pendellänge</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -633,7 +660,7 @@
         <rFont val="Calibri-Light"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
+      <t>längste,1 durch 10</t>
     </r>
     <r>
       <rPr>
@@ -659,7 +686,7 @@
         <rFont val="Calibri-Light"/>
         <family val="2"/>
       </rPr>
-      <t>kürzeste,10 durch 10</t>
+      <t>i</t>
     </r>
     <r>
       <rPr>
@@ -669,12 +696,12 @@
         <rFont val="Calibri-Light"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> in s</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
+      <t>(mean)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
     </r>
     <r>
       <rPr>
@@ -685,7 +712,7 @@
         <rFont val="Calibri-Light"/>
         <family val="2"/>
       </rPr>
-      <t>kürzeste,10</t>
+      <t>i,ges</t>
     </r>
     <r>
       <rPr>
@@ -695,33 +722,12 @@
         <rFont val="Calibri-Light"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> in s</t>
-    </r>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>stdev</t>
-  </si>
-  <si>
-    <t>cov</t>
-  </si>
-  <si>
-    <t>sys</t>
-  </si>
-  <si>
-    <t>total error</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Versuchsteil 3: 10 Perioden  bei 10 unterschiedlichen Pendellänge</t>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
+      <t xml:space="preserve"> in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆T</t>
     </r>
     <r>
       <rPr>
@@ -732,7 +738,7 @@
         <rFont val="Calibri-Light"/>
         <family val="2"/>
       </rPr>
-      <t>längste,1 durch 10</t>
+      <t>i,ges</t>
     </r>
     <r>
       <rPr>
@@ -742,7 +748,7 @@
         <rFont val="Calibri-Light"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> in s</t>
+      <t xml:space="preserve"> (mean)</t>
     </r>
   </si>
 </sst>
@@ -3019,7 +3025,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="B29" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3138,7 +3144,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3167,7 +3173,7 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -3182,7 +3188,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="B76" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3200,8 +3206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FB1E29-01ED-F443-A5A0-FF909B503056}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3217,15 +3223,15 @@
   <sheetData>
     <row r="1" spans="1:3" s="12" customFormat="1" ht="16">
       <c r="A1" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B3" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
@@ -3310,26 +3316,26 @@
     </row>
     <row r="15" spans="1:3" ht="17">
       <c r="B15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="13" customFormat="1" ht="16">
       <c r="A18" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="22" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="22" customHeight="1">
@@ -3494,37 +3500,37 @@
     </row>
     <row r="32" spans="1:5" ht="17">
       <c r="B32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="B34" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="14" customFormat="1" ht="16">
       <c r="A36" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1" ht="26" customHeight="1">
       <c r="B38" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
@@ -3741,10 +3747,10 @@
     </row>
     <row r="51" spans="2:12">
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="20">
@@ -3754,27 +3760,27 @@
     <row r="52" spans="2:12">
       <c r="J52" s="3"/>
       <c r="K52" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L52" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="2:12" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="D53" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="F53" s="11" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="J53" s="17"/>
       <c r="K53" s="17">
@@ -4002,32 +4008,32 @@
   <sheetData>
     <row r="1" spans="1:7" s="12" customFormat="1" ht="16">
       <c r="A1" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="25" customHeight="1">
       <c r="B3" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="B4" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -4037,7 +4043,7 @@
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="B5" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -4047,7 +4053,7 @@
     </row>
     <row r="8" spans="1:7" s="14" customFormat="1" ht="16">
       <c r="A8" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Pendulum/F3_Fadenpendel.xlsx
+++ b/Pendulum/F3_Fadenpendel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Pendulum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389ACD94-229A-8345-A90C-5B1C9BFB2B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A6823A-6C9A-D548-AF39-8E69EE5174F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="760" windowWidth="28300" windowHeight="18880" activeTab="1" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
   </bookViews>
@@ -37,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>l = Fadenlänge</t>
   </si>
@@ -172,7 +194,7 @@
   </si>
   <si>
     <r>
-      <t>∆l</t>
+      <t>Um welche Länge l</t>
     </r>
     <r>
       <rPr>
@@ -182,7 +204,7 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t>i,ges</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -191,12 +213,7 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t xml:space="preserve"> in mm</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆T</t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -206,20 +223,240 @@
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
       </rPr>
-      <t xml:space="preserve">i,stat </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>(mean)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Um welche Länge l</t>
+      <t>schätz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> wird das Pendel länger, wenn die Lage des Schwerpunktes abgeschätzt wird? Schätzen sie auch ∆l</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>schätz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> ab.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gleiche Anfangsamplitude 𝜑</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> für alle Messungen</t>
+    </r>
+  </si>
+  <si>
+    <t>Markierer für 𝜑 = 0</t>
+  </si>
+  <si>
+    <t>Versuchsteil 1: Nulldurchgang vs Umkehrpunkt</t>
+  </si>
+  <si>
+    <t>T(Nullpunkt) in s</t>
+  </si>
+  <si>
+    <t>T(Umkehrpunkt) in s</t>
+  </si>
+  <si>
+    <r>
+      <t>𝜑</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Anfangsamplitude)</t>
+    </r>
+  </si>
+  <si>
+    <t>Zusammengefasste Messdaten:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-&gt; Die Zeit wird am </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>Nullpunkt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> gemessen</t>
+    </r>
+  </si>
+  <si>
+    <t>zbsp ein Seil von 2 m wird genommen, mit den Objekt als Gewicht verlängert sich der Seil um 2 cm plus einen geschätzte Abweichung von 1 cm.</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Genauigkeitsklasse:</t>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,schätz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆l</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,schätz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in m</t>
+    </r>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>stdev</t>
+  </si>
+  <si>
+    <t>cov</t>
+  </si>
+  <si>
+    <t>sys</t>
+  </si>
+  <si>
+    <t>total error</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Versuchsteil 3: 10 Perioden  bei 10 unterschiedlichen Pendellänge</t>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
     </r>
     <r>
       <rPr>
@@ -228,8 +465,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>0</t>
+        <family val="2"/>
+      </rPr>
+      <t>i,ges</t>
     </r>
     <r>
       <rPr>
@@ -237,8 +475,17 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>,</t>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in m</t>
+    </r>
+  </si>
+  <si>
+    <t>Versuchsteil 3: 5 Perioden  bei 12 unterschiedlichen Pendellänge</t>
+  </si>
+  <si>
+    <r>
+      <t>∆l</t>
     </r>
     <r>
       <rPr>
@@ -247,16 +494,24 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>schätz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> wird das Pendel länger, wenn die Lage des Schwerpunktes abgeschätzt wird? Schätzen sie auch ∆l</t>
+        <family val="2"/>
+      </rPr>
+      <t>iEG</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in mm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>τ</t>
     </r>
     <r>
       <rPr>
@@ -264,16 +519,18 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>,</t>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>= 5 T</t>
     </r>
     <r>
       <rPr>
@@ -281,255 +538,29 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>schätz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> ab.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gleiche Anfangsamplitude 𝜑</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> für alle Messungen</t>
-    </r>
-  </si>
-  <si>
-    <t>Markierer für 𝜑 = 0</t>
-  </si>
-  <si>
-    <t>Versuchsteil 1: Nulldurchgang vs Umkehrpunkt</t>
-  </si>
-  <si>
-    <t>T(Nullpunkt) in s</t>
-  </si>
-  <si>
-    <t>T(Umkehrpunkt) in s</t>
-  </si>
-  <si>
-    <r>
-      <t>𝜑</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (Anfangsamplitude)</t>
-    </r>
-  </si>
-  <si>
-    <t>Versuchsteil 3.1: 10 Perioden 10 mal messen bei den längsten und kürzeste Pendellänge</t>
-  </si>
-  <si>
-    <t>Versuchsteil 3.2: 10 Perioden  bei 10 unterschiedlichen Pendellänge</t>
-  </si>
-  <si>
-    <t>Zusammengefasste Messdaten:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-&gt; Die Zeit wird am </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>Nullpunkt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> gemessen</t>
-    </r>
-  </si>
-  <si>
-    <t>zbsp ein Seil von 2 m wird genommen, mit den Objekt als Gewicht verlängert sich der Seil um 2 cm plus einen geschätzte Abweichung von 1 cm.</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Genauigkeitsklasse:</t>
-  </si>
-  <si>
-    <r>
-      <t>l</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
         <family val="2"/>
       </rPr>
-      <t>0,schätz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆l</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in mm</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>l</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆l</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>0,schätz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>i,10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve"> in s</t>
     </r>
   </si>
   <si>
     <r>
-      <t>∆T</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>i,sys</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>y</t>
     </r>
     <r>
       <rPr>
@@ -537,20 +568,193 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>längste</t>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>i</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> in s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆li</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>,Faden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆l</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve">i,ges </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆τ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve">Uhr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>in s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆τ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>1, ges</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>∆T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆y</t>
     </r>
     <r>
       <rPr>
@@ -559,196 +763,28 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
+      <t>in s</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in s</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>kürzeste,10 durch 10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in s</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>kürzeste,10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in s</t>
-    </r>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>stdev</t>
-  </si>
-  <si>
-    <t>cov</t>
-  </si>
-  <si>
-    <t>sys</t>
-  </si>
-  <si>
-    <t>total error</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Versuchsteil 3: 10 Perioden  bei 10 unterschiedlichen Pendellänge</t>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>längste,1 durch 10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in s</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>(mean)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>l</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>i,ges</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆T</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>i,ges</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (mean)</t>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>2</t>
     </r>
   </si>
 </sst>
@@ -756,11 +792,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -824,8 +859,46 @@
       <name val="Calibri-Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri-Light"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri-Light"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri-Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -844,12 +917,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -863,7 +930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -889,12 +956,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -909,17 +972,77 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="38">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri-Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1014,16 +1137,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1080,50 +1193,6 @@
         <name val="Calibri-Light"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri-Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2510,103 +2579,107 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AF7BB84-E4B4-AE4E-877F-000F781757C1}" name="Table1" displayName="Table1" ref="B38:G48" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="B38:G48" xr:uid="{8AF7BB84-E4B4-AE4E-877F-000F781757C1}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{74E82EF0-C58F-BB4B-8EBC-87C952B8B3B9}" name="Table3" displayName="Table3" ref="B3:C13" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="B3:C13" xr:uid="{74E82EF0-C58F-BB4B-8EBC-87C952B8B3B9}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{8346DB69-F8D0-374E-98BD-0B1E887C0365}" name="T(Nullpunkt) in s" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{04C0E93E-E90D-E94D-80A9-BA066B3C0889}" name="T(Umkehrpunkt) in s" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{270A50D9-6F60-2545-AF66-7BABDD5BAB15}" name="Table4" displayName="Table4" ref="B37:C49" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="B37:C49" xr:uid="{270A50D9-6F60-2545-AF66-7BABDD5BAB15}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{EC12AF92-6AA2-A148-9B1E-938F14924331}" name="li,ges in m" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{6A5DF10D-FF45-B14C-A13B-2628E98996BF}" name="∆liEG in mm" dataDxfId="24">
+      <calculatedColumnFormula>SQRT((#REF!)^2 + D21^2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ED8BB0E8-9CA0-AB4C-8485-913DC6849F9B}" name="Table5" displayName="Table5" ref="O44:P45" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="O44:P45" xr:uid="{ED8BB0E8-9CA0-AB4C-8485-913DC6849F9B}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E53F5F5C-3534-0B48-931B-7E4E85D8B3E8}" name="a" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{CA60A8C6-6B33-7141-9408-E626FCFBE907}" name="b" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium24" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AF7BB84-E4B4-AE4E-877F-000F781757C1}" name="Table1" displayName="Table1" ref="B20:E32" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+  <autoFilter ref="B20:E32" xr:uid="{8AF7BB84-E4B4-AE4E-877F-000F781757C1}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C40472B1-7B8C-0E47-AEDC-A96353CC7EB6}" name="li in m" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{F1F4708E-76CE-F045-B5C1-920A7D822E6B}" name="l0,schätz in m" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{6CA49B71-59FE-F749-A9F2-A92B7E8ADE00}" name="∆l0,schätz in m" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{D323358E-AC7C-6E46-88E2-1B1BA82100EA}" name="τ1 = 5 Ti in s" dataDxfId="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6B02000B-784D-EB4A-9611-7F6036169ED1}" name="Table2" displayName="Table2" ref="D37:J49" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="D37:J49" xr:uid="{6B02000B-784D-EB4A-9611-7F6036169ED1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
     <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C40472B1-7B8C-0E47-AEDC-A96353CC7EB6}" name="li in m" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{D46C0C9D-88FC-BB4C-8B39-75A8E314A2EF}" name="∆li in mm" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{F1F4708E-76CE-F045-B5C1-920A7D822E6B}" name="l0,schätz in m" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{6CA49B71-59FE-F749-A9F2-A92B7E8ADE00}" name="∆l0,schätz in m" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{D323358E-AC7C-6E46-88E2-1B1BA82100EA}" name="Ti,10 in s" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{AFBBA230-ABF5-954F-BC23-DBFB08666DAB}" name="∆Ti,sys" dataDxfId="29"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{55BB7A07-8828-5A4C-BD4B-3B1D7C9E9371}" name="∆li,Faden in m" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{CB345EF9-91E9-2047-B67F-56D715444FAC}" name="∆li,ges in m" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{F6AF1455-964D-4B4E-ADDF-86C230059387}" name="∆τ1Uhr in s" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{8F889AD9-8191-F94F-8CD2-8F439EA085FE}" name="∆τ1, ges in s" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{28B02484-B961-B74D-9AB6-9E095216CB7C}" name="Ti in s" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{55424E9E-945A-8D47-9687-E64501944523}" name="∆Ti in s" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{5EC5184E-A553-B14A-A1AB-4974E176A824}" name="∆Ti" dataDxfId="3"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12F408C4-6383-794F-B75F-8A3C855BC7B9}" name="Table2" displayName="Table2" ref="B20:E30" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
-  <autoFilter ref="B20:E30" xr:uid="{12F408C4-6383-794F-B75F-8A3C855BC7B9}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{40B1BD48-E0AC-F048-9F53-DACA8E50DAD4}" name="Tlängste,1 in s" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{C90DA0AB-163B-5740-BAF0-55D4E8A3A8E0}" name="Tlängste,1 durch 10 in s" dataDxfId="25">
-      <calculatedColumnFormula>Table2[[#This Row],[Tlängste,1 in s]]/10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{D0758299-B2B5-E54D-A597-1303CB8C4370}" name="Tkürzeste,10 in s" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{96B7299B-201D-5A42-8293-651D990DC860}" name="Tkürzeste,10 durch 10 in s" dataDxfId="23">
-      <calculatedColumnFormula>Table2[[#This Row],[Tkürzeste,10 in s]]/10</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{74E82EF0-C58F-BB4B-8EBC-87C952B8B3B9}" name="Table3" displayName="Table3" ref="B3:C13" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="B3:C13" xr:uid="{74E82EF0-C58F-BB4B-8EBC-87C952B8B3B9}">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{73B7D59F-1C63-4547-AD26-D8CFBE8D4073}" name="Table8" displayName="Table8" ref="K37:L49" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="K37:L49" xr:uid="{73B7D59F-1C63-4547-AD26-D8CFBE8D4073}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8346DB69-F8D0-374E-98BD-0B1E887C0365}" name="T(Nullpunkt) in s" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{04C0E93E-E90D-E94D-80A9-BA066B3C0889}" name="T(Umkehrpunkt) in s" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{8DB91CAB-F9B3-E542-B44E-A2119BA78EFC}" name="yi in s2" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{ACF2ADD9-FFC0-124F-A10E-AD96D23A054B}" name="∆yi in s2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{270A50D9-6F60-2545-AF66-7BABDD5BAB15}" name="Table4" displayName="Table4" ref="B53:F63" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="B53:F63" xr:uid="{270A50D9-6F60-2545-AF66-7BABDD5BAB15}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EC12AF92-6AA2-A148-9B1E-938F14924331}" name="li,ges in m" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{6A5DF10D-FF45-B14C-A13B-2628E98996BF}" name="∆li,ges in mm" dataDxfId="15">
-      <calculatedColumnFormula>SQRT((C39)^2 + E39^2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{00C009F8-09A7-464E-9600-EB4D23B3D601}" name="Ti(mean)" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{4BD902E6-B3B0-C34F-B789-A8C756438E56}" name="∆Ti,stat (mean)" dataDxfId="13">
-      <calculatedColumnFormula>F54-0.1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{FD1160FF-3B90-F849-B405-E50D4CB9F2F4}" name="∆Ti,ges (mean)" dataDxfId="12"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ED8BB0E8-9CA0-AB4C-8485-913DC6849F9B}" name="Table5" displayName="Table5" ref="K52:L53" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="K52:L53" xr:uid="{ED8BB0E8-9CA0-AB4C-8485-913DC6849F9B}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E53F5F5C-3534-0B48-931B-7E4E85D8B3E8}" name="a" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{CA60A8C6-6B33-7141-9408-E626FCFBE907}" name="b" dataDxfId="8"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium24" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4AAF9D21-8339-7248-AA21-DA25D233DC2D}" name="Table6" displayName="Table6" ref="B3:G5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4AAF9D21-8339-7248-AA21-DA25D233DC2D}" name="Table6" displayName="Table6" ref="B3:G5" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="B3:G5" xr:uid="{4AAF9D21-8339-7248-AA21-DA25D233DC2D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2616,12 +2689,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6261AB11-CFEF-2D47-B567-0EA7AE1B7E2B}" name=" " dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{E231D29B-F6D8-774F-9CC2-B924F00DBABA}" name="mean" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{31F917E6-C6B3-C44A-BFA1-DB5A07FB6758}" name="stdev" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{0952568A-3564-1140-91F5-02ACBC6C84C1}" name="cov" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{FCEB2C04-DB74-7347-A758-5F8318B07AC0}" name="sys" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{9BE7E060-5CB7-4E49-9CB8-F31A15C6E537}" name="total error" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6261AB11-CFEF-2D47-B567-0EA7AE1B7E2B}" name=" " dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{E231D29B-F6D8-774F-9CC2-B924F00DBABA}" name="mean" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{31F917E6-C6B3-C44A-BFA1-DB5A07FB6758}" name="stdev" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{0952568A-3564-1140-91F5-02ACBC6C84C1}" name="cov" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{FCEB2C04-DB74-7347-A758-5F8318B07AC0}" name="sys" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{9BE7E060-5CB7-4E49-9CB8-F31A15C6E537}" name="total error" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3025,7 +3098,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="B29" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3144,7 +3217,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3173,7 +3246,7 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -3188,7 +3261,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="B76" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3204,10 +3277,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FB1E29-01ED-F443-A5A0-FF909B503056}">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3219,775 +3292,569 @@
     <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="12" customFormat="1" ht="16">
       <c r="A1" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B3" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>1.2</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>2.1</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>1.9</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>0.9</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>1.9</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>1.2</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>1.9</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>1.2</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>2.1</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>0.9</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>1</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>1.8</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>1</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>1.9</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17">
       <c r="B15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="13" customFormat="1" ht="16">
+      <c r="A18" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="26" customHeight="1">
+      <c r="B20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="B21" s="14">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="E21" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="B22" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="E22" s="8">
+        <v>90.8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="B23" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="E23" s="8">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="13" customFormat="1" ht="16">
-      <c r="A18" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="22" customHeight="1">
-      <c r="B20" s="11" t="s">
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="B24" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="E24" s="8">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="B25" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="E25" s="8">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="B26" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="E26" s="8">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="B27" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="E27" s="8">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="B28" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="E28" s="8">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="B29" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="E29" s="8">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="B30" s="14">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="E30" s="8">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="22" customHeight="1">
+      <c r="B31" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="22" customHeight="1">
+      <c r="B32" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="B33" s="14"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="2:16">
+      <c r="B34" s="14"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="2:16">
+      <c r="B35" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" s="8" customFormat="1" ht="24" customHeight="1">
+      <c r="B37" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C37" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I37" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="22" customHeight="1">
-      <c r="B21" s="16">
-        <v>100.2</v>
-      </c>
-      <c r="C21" s="16">
-        <f>Table2[[#This Row],[Tlängste,1 in s]]/10</f>
-        <v>10.02</v>
-      </c>
-      <c r="D21" s="16">
-        <v>10</v>
-      </c>
-      <c r="E21" s="16">
-        <f>Table2[[#This Row],[Tkürzeste,10 in s]]/10</f>
+      <c r="J37" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="K37" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
+      <c r="B38" s="14">
+        <v>3.25</v>
+      </c>
+      <c r="C38" s="14" cm="1">
+        <f t="array" ref="C38">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+    </row>
+    <row r="39" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
+      <c r="B39" s="14">
+        <v>3</v>
+      </c>
+      <c r="C39" s="14" cm="1">
+        <f t="array" ref="C39">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
+        <v>0.4</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+    </row>
+    <row r="40" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
+      <c r="B40" s="14">
+        <v>2.75</v>
+      </c>
+      <c r="C40" s="14" cm="1">
+        <f t="array" ref="C40">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
+        <v>0.375</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+    </row>
+    <row r="41" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
+      <c r="B41" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="C41" s="14" cm="1">
+        <f t="array" ref="C41">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
+        <v>0.35</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+    </row>
+    <row r="42" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
+      <c r="B42" s="14">
+        <v>2.25</v>
+      </c>
+      <c r="C42" s="14" cm="1">
+        <f t="array" ref="C42">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+    </row>
+    <row r="43" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
+      <c r="B43" s="14">
+        <v>2</v>
+      </c>
+      <c r="C43" s="14" cm="1">
+        <f t="array" ref="C43">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="N43" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="O43" s="3"/>
+      <c r="P43" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="22" customHeight="1">
-      <c r="B22" s="16">
-        <v>100.1</v>
-      </c>
-      <c r="C22" s="16">
-        <f>Table2[[#This Row],[Tlängste,1 in s]]/10</f>
-        <v>10.01</v>
-      </c>
-      <c r="D22" s="16">
-        <v>10.5</v>
-      </c>
-      <c r="E22" s="16">
-        <f>Table2[[#This Row],[Tkürzeste,10 in s]]/10</f>
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="22" customHeight="1">
-      <c r="B23" s="16">
-        <v>100.1</v>
-      </c>
-      <c r="C23" s="16">
-        <f>Table2[[#This Row],[Tlängste,1 in s]]/10</f>
-        <v>10.01</v>
-      </c>
-      <c r="D23" s="16">
-        <v>10.4</v>
-      </c>
-      <c r="E23" s="16">
-        <f>Table2[[#This Row],[Tkürzeste,10 in s]]/10</f>
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="22" customHeight="1">
-      <c r="B24" s="16">
-        <v>100</v>
-      </c>
-      <c r="C24" s="16">
-        <f>Table2[[#This Row],[Tlängste,1 in s]]/10</f>
-        <v>10</v>
-      </c>
-      <c r="D24" s="16">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="E24" s="16">
-        <f>Table2[[#This Row],[Tkürzeste,10 in s]]/10</f>
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="22" customHeight="1">
-      <c r="B25" s="16">
-        <v>90.9</v>
-      </c>
-      <c r="C25" s="16">
-        <f>Table2[[#This Row],[Tlängste,1 in s]]/10</f>
-        <v>9.09</v>
-      </c>
-      <c r="D25" s="16">
-        <v>10.1</v>
-      </c>
-      <c r="E25" s="16">
-        <f>Table2[[#This Row],[Tkürzeste,10 in s]]/10</f>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="22" customHeight="1">
-      <c r="B26" s="16">
-        <v>90.9</v>
-      </c>
-      <c r="C26" s="16">
-        <f>Table2[[#This Row],[Tlängste,1 in s]]/10</f>
-        <v>9.09</v>
-      </c>
-      <c r="D26" s="16">
-        <v>10.5</v>
-      </c>
-      <c r="E26" s="16">
-        <f>Table2[[#This Row],[Tkürzeste,10 in s]]/10</f>
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="22" customHeight="1">
-      <c r="B27" s="16">
-        <v>90.8</v>
-      </c>
-      <c r="C27" s="16">
-        <f>Table2[[#This Row],[Tlängste,1 in s]]/10</f>
-        <v>9.08</v>
-      </c>
-      <c r="D27" s="16">
-        <v>10.4</v>
-      </c>
-      <c r="E27" s="16">
-        <f>Table2[[#This Row],[Tkürzeste,10 in s]]/10</f>
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="22" customHeight="1">
-      <c r="B28" s="16">
-        <v>90.9</v>
-      </c>
-      <c r="C28" s="16">
-        <f>Table2[[#This Row],[Tlängste,1 in s]]/10</f>
-        <v>9.09</v>
-      </c>
-      <c r="D28" s="16">
-        <v>10.3</v>
-      </c>
-      <c r="E28" s="16">
-        <f>Table2[[#This Row],[Tkürzeste,10 in s]]/10</f>
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="22" customHeight="1">
-      <c r="B29" s="16">
-        <v>100.1</v>
-      </c>
-      <c r="C29" s="16">
-        <f>Table2[[#This Row],[Tlängste,1 in s]]/10</f>
-        <v>10.01</v>
-      </c>
-      <c r="D29" s="16">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="E29" s="16">
-        <f>Table2[[#This Row],[Tkürzeste,10 in s]]/10</f>
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="22" customHeight="1">
-      <c r="B30" s="16">
-        <v>100.2</v>
-      </c>
-      <c r="C30" s="16">
-        <f>Table2[[#This Row],[Tlängste,1 in s]]/10</f>
-        <v>10.02</v>
-      </c>
-      <c r="D30" s="16">
-        <v>10.4</v>
-      </c>
-      <c r="E30" s="16">
-        <f>Table2[[#This Row],[Tkürzeste,10 in s]]/10</f>
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="17">
-      <c r="B32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="B34" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="14" customFormat="1" ht="16">
-      <c r="A36" s="14" t="s">
+    <row r="44" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
+      <c r="B44" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="C44" s="14" cm="1">
+        <f t="array" ref="C44">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" s="1" customFormat="1" ht="26" customHeight="1">
-      <c r="B38" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="B39" s="15">
-        <v>2</v>
-      </c>
-      <c r="C39" s="8">
-        <f>B39*$L$53+$K$53</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="D39" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E39" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F39" s="8">
-        <f>AVERAGE(B26:B35)</f>
-        <v>94.580000000000013</v>
-      </c>
-      <c r="G39" s="8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="B40" s="15">
-        <v>1.9</v>
-      </c>
-      <c r="C40" s="8">
-        <f t="shared" ref="C40:C48" si="0">B40*$L$53+$K$53</f>
-        <v>0.29000000000000004</v>
-      </c>
-      <c r="D40" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E40" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F40" s="8">
-        <v>90.8</v>
-      </c>
-      <c r="G40" s="8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="B41" s="15">
-        <v>1.8</v>
-      </c>
-      <c r="C41" s="8">
-        <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D41" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E41" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F41" s="8">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="G41" s="8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="B42" s="15">
-        <v>1.7</v>
-      </c>
-      <c r="C42" s="8">
-        <f t="shared" si="0"/>
-        <v>0.27</v>
-      </c>
-      <c r="D42" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E42" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F42" s="8">
-        <v>70.5</v>
-      </c>
-      <c r="G42" s="8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="B43" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="C43" s="8">
-        <f t="shared" si="0"/>
-        <v>0.26</v>
-      </c>
-      <c r="D43" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E43" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F43" s="8">
-        <v>60.4</v>
-      </c>
-      <c r="G43" s="8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="B44" s="15">
+      <c r="P44" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
+      <c r="B45" s="14">
         <v>1.5</v>
       </c>
-      <c r="C44" s="8">
-        <f t="shared" si="0"/>
+      <c r="C45" s="14" cm="1">
+        <f t="array" ref="C45">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
         <v>0.25</v>
       </c>
-      <c r="D44" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E44" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F44" s="8">
-        <v>50.6</v>
-      </c>
-      <c r="G44" s="8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="B45" s="15">
-        <v>1.4</v>
-      </c>
-      <c r="C45" s="8">
-        <f t="shared" si="0"/>
-        <v>0.24</v>
-      </c>
-      <c r="D45" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E45" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F45" s="8">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="G45" s="8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="B46" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="C46" s="8">
-        <f t="shared" si="0"/>
-        <v>0.23</v>
-      </c>
-      <c r="D46" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E46" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F46" s="8">
-        <v>30.2</v>
-      </c>
-      <c r="G46" s="8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="B47" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="C47" s="8">
-        <f t="shared" si="0"/>
-        <v>0.22</v>
-      </c>
-      <c r="D47" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E47" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F47" s="8">
-        <v>20.3</v>
-      </c>
-      <c r="G47" s="8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="B48" s="15">
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="P45" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
+      <c r="B46" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="C46" s="14" cm="1">
+        <f t="array" ref="C46">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+    </row>
+    <row r="47" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
+      <c r="B47" s="14">
         <v>1</v>
       </c>
-      <c r="C48" s="8">
-        <f t="shared" si="0"/>
+      <c r="C47" s="14" cm="1">
+        <f t="array" ref="C47">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
         <v>0.2</v>
       </c>
-      <c r="D48" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E48" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F48" s="8" t="e">
-        <f>AVERAGE(D31:D35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G48" s="8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12">
-      <c r="B51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J51" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K51" s="3"/>
-      <c r="L51" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12">
-      <c r="J52" s="3"/>
-      <c r="K52" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="L52" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" s="8" customFormat="1" ht="24" customHeight="1">
-      <c r="B53" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="L53" s="17">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
-      <c r="B54" s="15">
-        <v>3.25</v>
-      </c>
-      <c r="C54" s="15">
-        <f>SQRT((C39)^2 + E39^2)</f>
-        <v>0.30000166666203709</v>
-      </c>
-      <c r="D54" s="8">
-        <v>2.0329999999999999</v>
-      </c>
-      <c r="E54" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="F54" s="22">
-        <f>SQRT((E54)^2 + G39^2)</f>
-        <v>0.12041594578792295</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
-      <c r="B55" s="15">
-        <v>3</v>
-      </c>
-      <c r="C55" s="15">
-        <f>SQRT((C40)^2 + E40^2)</f>
-        <v>0.29000172413280584</v>
-      </c>
-      <c r="D55" s="8">
-        <v>1.9910000000000001</v>
-      </c>
-      <c r="E55" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="F55" s="22">
-        <f t="shared" ref="F55:F63" si="1">SQRT((E55)^2 + G40^2)</f>
-        <v>0.12041594578792295</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
-      <c r="B56" s="15">
-        <v>2.75</v>
-      </c>
-      <c r="C56" s="15">
-        <f t="shared" ref="C56:C62" si="2">SQRT((C41)^2 + E41^2)</f>
-        <v>0.28000178570859152</v>
-      </c>
-      <c r="D56" s="8">
-        <v>1.95</v>
-      </c>
-      <c r="E56" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="F56" s="22">
-        <f t="shared" si="1"/>
-        <v>0.12041594578792295</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
-      <c r="B57" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="C57" s="15">
-        <f t="shared" si="2"/>
-        <v>0.27000185184550124</v>
-      </c>
-      <c r="D57" s="8">
-        <v>1.9139999999999999</v>
-      </c>
-      <c r="E57" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="F57" s="22">
-        <f t="shared" si="1"/>
-        <v>0.12041594578792295</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
-      <c r="B58" s="15">
-        <v>2.25</v>
-      </c>
-      <c r="C58" s="15">
-        <f t="shared" si="2"/>
-        <v>0.26000192306981118</v>
-      </c>
-      <c r="D58" s="8">
-        <v>1.8720000000000001</v>
-      </c>
-      <c r="E58" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="F58" s="22">
-        <f t="shared" si="1"/>
-        <v>0.12041594578792295</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
-      <c r="B59" s="15">
-        <v>2</v>
-      </c>
-      <c r="C59" s="15">
-        <f t="shared" si="2"/>
-        <v>0.25000199999200007</v>
-      </c>
-      <c r="D59" s="8">
-        <v>1.83</v>
-      </c>
-      <c r="E59" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="F59" s="22">
-        <f t="shared" si="1"/>
-        <v>0.12041594578792295</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
-      <c r="B60" s="15">
-        <v>1.75</v>
-      </c>
-      <c r="C60" s="15">
-        <f t="shared" si="2"/>
-        <v>0.24000208332429115</v>
-      </c>
-      <c r="D60" s="8">
-        <v>1.7769999999999999</v>
-      </c>
-      <c r="E60" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="F60" s="22">
-        <f t="shared" si="1"/>
-        <v>0.12041594578792295</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
-      <c r="B61" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="C61" s="15">
-        <f t="shared" si="2"/>
-        <v>0.23000217390276989</v>
-      </c>
-      <c r="D61" s="8">
-        <v>1.7350000000000001</v>
-      </c>
-      <c r="E61" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="F61" s="22">
-        <f t="shared" si="1"/>
-        <v>0.12041594578792295</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
-      <c r="B62" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="C62" s="15">
-        <f t="shared" si="2"/>
-        <v>0.22000227271553355</v>
-      </c>
-      <c r="D62" s="8">
-        <v>1.679</v>
-      </c>
-      <c r="E62" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="F62" s="22">
-        <f t="shared" si="1"/>
-        <v>0.12041594578792295</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" s="8" customFormat="1" ht="19" customHeight="1">
-      <c r="B63" s="15">
-        <v>1</v>
-      </c>
-      <c r="C63" s="15">
-        <f>SQRT((C48)^2 + E48^2)</f>
-        <v>0.20000249998437522</v>
-      </c>
-      <c r="D63" s="8">
-        <v>1.6459999999999999</v>
-      </c>
-      <c r="E63" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="F63" s="22">
-        <f t="shared" si="1"/>
-        <v>0.12041594578792295</v>
-      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+    </row>
+    <row r="48" spans="2:16" ht="22" customHeight="1">
+      <c r="B48" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="C48" s="14" cm="1">
+        <f t="array" ref="C48">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+    </row>
+    <row r="49" spans="2:12" ht="22" customHeight="1">
+      <c r="B49" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C49" s="14" cm="1">
+        <f t="array" ref="C49">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="5">
+  <tableParts count="6">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4008,32 +3875,32 @@
   <sheetData>
     <row r="1" spans="1:7" s="12" customFormat="1" ht="16">
       <c r="A1" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="25" customHeight="1">
       <c r="B3" s="8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="B4" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -4043,7 +3910,7 @@
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="B5" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -4051,9 +3918,9 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="8" spans="1:7" s="14" customFormat="1" ht="16">
-      <c r="A8" s="14" t="s">
-        <v>72</v>
+    <row r="8" spans="1:7" s="13" customFormat="1" ht="16">
+      <c r="A8" s="13" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Pendulum/F3_Fadenpendel.xlsx
+++ b/Pendulum/F3_Fadenpendel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Pendulum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A6823A-6C9A-D548-AF39-8E69EE5174F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D419F713-C4D3-3C4E-928D-F67FC65B3BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="760" windowWidth="28300" windowHeight="18880" activeTab="1" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
   </bookViews>
@@ -793,7 +793,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -972,7 +972,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -987,60 +987,7 @@
   </cellStyles>
   <dxfs count="38">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri-Light"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1083,6 +1030,78 @@
         <name val="Calibri-Light"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri-Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1193,25 +1212,6 @@
         <name val="Calibri-Light"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -2579,28 +2579,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{74E82EF0-C58F-BB4B-8EBC-87C952B8B3B9}" name="Table3" displayName="Table3" ref="B3:C13" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{74E82EF0-C58F-BB4B-8EBC-87C952B8B3B9}" name="Table3" displayName="Table3" ref="B3:C13" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="B3:C13" xr:uid="{74E82EF0-C58F-BB4B-8EBC-87C952B8B3B9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8346DB69-F8D0-374E-98BD-0B1E887C0365}" name="T(Nullpunkt) in s" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{04C0E93E-E90D-E94D-80A9-BA066B3C0889}" name="T(Umkehrpunkt) in s" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{8346DB69-F8D0-374E-98BD-0B1E887C0365}" name="T(Nullpunkt) in s" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{04C0E93E-E90D-E94D-80A9-BA066B3C0889}" name="T(Umkehrpunkt) in s" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{270A50D9-6F60-2545-AF66-7BABDD5BAB15}" name="Table4" displayName="Table4" ref="B37:C49" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{270A50D9-6F60-2545-AF66-7BABDD5BAB15}" name="Table4" displayName="Table4" ref="B37:C49" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="B37:C49" xr:uid="{270A50D9-6F60-2545-AF66-7BABDD5BAB15}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EC12AF92-6AA2-A148-9B1E-938F14924331}" name="li,ges in m" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{6A5DF10D-FF45-B14C-A13B-2628E98996BF}" name="∆liEG in mm" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{EC12AF92-6AA2-A148-9B1E-938F14924331}" name="li,ges in m" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{6A5DF10D-FF45-B14C-A13B-2628E98996BF}" name="∆liEG in mm" dataDxfId="30">
       <calculatedColumnFormula>SQRT((#REF!)^2 + D21^2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2609,21 +2609,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ED8BB0E8-9CA0-AB4C-8485-913DC6849F9B}" name="Table5" displayName="Table5" ref="O44:P45" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ED8BB0E8-9CA0-AB4C-8485-913DC6849F9B}" name="Table5" displayName="Table5" ref="O44:P45" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="O44:P45" xr:uid="{ED8BB0E8-9CA0-AB4C-8485-913DC6849F9B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E53F5F5C-3534-0B48-931B-7E4E85D8B3E8}" name="a" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{CA60A8C6-6B33-7141-9408-E626FCFBE907}" name="b" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{E53F5F5C-3534-0B48-931B-7E4E85D8B3E8}" name="a" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{CA60A8C6-6B33-7141-9408-E626FCFBE907}" name="b" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium24" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AF7BB84-E4B4-AE4E-877F-000F781757C1}" name="Table1" displayName="Table1" ref="B20:E32" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AF7BB84-E4B4-AE4E-877F-000F781757C1}" name="Table1" displayName="Table1" ref="B20:E32" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="B20:E32" xr:uid="{8AF7BB84-E4B4-AE4E-877F-000F781757C1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2631,17 +2631,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C40472B1-7B8C-0E47-AEDC-A96353CC7EB6}" name="li in m" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{F1F4708E-76CE-F045-B5C1-920A7D822E6B}" name="l0,schätz in m" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{6CA49B71-59FE-F749-A9F2-A92B7E8ADE00}" name="∆l0,schätz in m" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{D323358E-AC7C-6E46-88E2-1B1BA82100EA}" name="τ1 = 5 Ti in s" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{C40472B1-7B8C-0E47-AEDC-A96353CC7EB6}" name="li in m" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{F1F4708E-76CE-F045-B5C1-920A7D822E6B}" name="l0,schätz in m" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{6CA49B71-59FE-F749-A9F2-A92B7E8ADE00}" name="∆l0,schätz in m" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{D323358E-AC7C-6E46-88E2-1B1BA82100EA}" name="τ1 = 5 Ti in s" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6B02000B-784D-EB4A-9611-7F6036169ED1}" name="Table2" displayName="Table2" ref="D37:J49" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6B02000B-784D-EB4A-9611-7F6036169ED1}" name="Table2" displayName="Table2" ref="D37:J49" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="D37:J49" xr:uid="{6B02000B-784D-EB4A-9611-7F6036169ED1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2652,34 +2652,36 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{55BB7A07-8828-5A4C-BD4B-3B1D7C9E9371}" name="∆li,Faden in m" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{CB345EF9-91E9-2047-B67F-56D715444FAC}" name="∆li,ges in m" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{F6AF1455-964D-4B4E-ADDF-86C230059387}" name="∆τ1Uhr in s" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{8F889AD9-8191-F94F-8CD2-8F439EA085FE}" name="∆τ1, ges in s" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{28B02484-B961-B74D-9AB6-9E095216CB7C}" name="Ti in s" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{55424E9E-945A-8D47-9687-E64501944523}" name="∆Ti in s" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{5EC5184E-A553-B14A-A1AB-4974E176A824}" name="∆Ti" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{55BB7A07-8828-5A4C-BD4B-3B1D7C9E9371}" name="∆li,Faden in m" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{CB345EF9-91E9-2047-B67F-56D715444FAC}" name="∆li,ges in m" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{F6AF1455-964D-4B4E-ADDF-86C230059387}" name="∆τ1Uhr in s" dataDxfId="0">
+      <calculatedColumnFormula>(0.5*E21+10)/1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{8F889AD9-8191-F94F-8CD2-8F439EA085FE}" name="∆τ1, ges in s" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{28B02484-B961-B74D-9AB6-9E095216CB7C}" name="Ti in s" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{55424E9E-945A-8D47-9687-E64501944523}" name="∆Ti in s" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{5EC5184E-A553-B14A-A1AB-4974E176A824}" name="∆Ti" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{73B7D59F-1C63-4547-AD26-D8CFBE8D4073}" name="Table8" displayName="Table8" ref="K37:L49" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{73B7D59F-1C63-4547-AD26-D8CFBE8D4073}" name="Table8" displayName="Table8" ref="K37:L49" totalsRowShown="0" dataDxfId="11">
   <autoFilter ref="K37:L49" xr:uid="{73B7D59F-1C63-4547-AD26-D8CFBE8D4073}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8DB91CAB-F9B3-E542-B44E-A2119BA78EFC}" name="yi in s2" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{ACF2ADD9-FFC0-124F-A10E-AD96D23A054B}" name="∆yi in s2" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{8DB91CAB-F9B3-E542-B44E-A2119BA78EFC}" name="yi in s2" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{ACF2ADD9-FFC0-124F-A10E-AD96D23A054B}" name="∆yi in s2" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4AAF9D21-8339-7248-AA21-DA25D233DC2D}" name="Table6" displayName="Table6" ref="B3:G5" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4AAF9D21-8339-7248-AA21-DA25D233DC2D}" name="Table6" displayName="Table6" ref="B3:G5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="B3:G5" xr:uid="{4AAF9D21-8339-7248-AA21-DA25D233DC2D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2689,12 +2691,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6261AB11-CFEF-2D47-B567-0EA7AE1B7E2B}" name=" " dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{E231D29B-F6D8-774F-9CC2-B924F00DBABA}" name="mean" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{31F917E6-C6B3-C44A-BFA1-DB5A07FB6758}" name="stdev" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{0952568A-3564-1140-91F5-02ACBC6C84C1}" name="cov" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{FCEB2C04-DB74-7347-A758-5F8318B07AC0}" name="sys" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{9BE7E060-5CB7-4E49-9CB8-F31A15C6E537}" name="total error" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{6261AB11-CFEF-2D47-B567-0EA7AE1B7E2B}" name=" " dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{E231D29B-F6D8-774F-9CC2-B924F00DBABA}" name="mean" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{31F917E6-C6B3-C44A-BFA1-DB5A07FB6758}" name="stdev" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{0952568A-3564-1140-91F5-02ACBC6C84C1}" name="cov" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{FCEB2C04-DB74-7347-A758-5F8318B07AC0}" name="sys" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{9BE7E060-5CB7-4E49-9CB8-F31A15C6E537}" name="total error" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3279,8 +3281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FB1E29-01ED-F443-A5A0-FF909B503056}">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3414,7 +3416,7 @@
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
       <c r="B21" s="14">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="C21" s="8">
         <v>0.01</v>
@@ -3428,7 +3430,7 @@
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
       <c r="B22" s="14">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="C22" s="8">
         <v>0.01</v>
@@ -3445,7 +3447,7 @@
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
       <c r="B23" s="14">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="C23" s="8">
         <v>0.01</v>
@@ -3462,7 +3464,7 @@
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
       <c r="B24" s="14">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="C24" s="8">
         <v>0.01</v>
@@ -3476,7 +3478,7 @@
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
       <c r="B25" s="14">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="C25" s="8">
         <v>0.01</v>
@@ -3490,7 +3492,7 @@
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
       <c r="B26" s="14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C26" s="8">
         <v>0.01</v>
@@ -3504,7 +3506,7 @@
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
       <c r="B27" s="14">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="C27" s="8">
         <v>0.01</v>
@@ -3518,7 +3520,7 @@
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
       <c r="B28" s="14">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C28" s="8">
         <v>0.01</v>
@@ -3532,7 +3534,7 @@
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
       <c r="B29" s="14">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="C29" s="8">
         <v>0.01</v>
@@ -3640,90 +3642,114 @@
     </row>
     <row r="38" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B38" s="14">
-        <v>3.25</v>
+        <f>B21+C21</f>
+        <v>3.26</v>
       </c>
       <c r="C38" s="14" cm="1">
         <f t="array" ref="C38">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>0.42500000000000004</v>
+        <v>0.42600000000000005</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="F38" s="14">
+        <f t="shared" ref="F38:F49" si="0">(0.5*E21+10)/1000</f>
+        <v>0.06</v>
+      </c>
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
       <c r="L38" s="19"/>
     </row>
     <row r="39" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B39" s="14">
-        <v>3</v>
+        <f t="shared" ref="B39:B49" si="1">B22+C22</f>
+        <v>3.01</v>
       </c>
       <c r="C39" s="14" cm="1">
         <f t="array" ref="C39">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>0.4</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="F39" s="14">
+        <f>(0.5*E22+10)/1000</f>
+        <v>5.5399999999999998E-2</v>
+      </c>
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>
     </row>
     <row r="40" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B40" s="14">
-        <v>2.75</v>
+        <f t="shared" si="1"/>
+        <v>2.76</v>
       </c>
       <c r="C40" s="14" cm="1">
         <f t="array" ref="C40">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="F40" s="14">
+        <f t="shared" si="0"/>
+        <v>5.0299999999999997E-2</v>
+      </c>
       <c r="J40" s="19"/>
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>
     </row>
     <row r="41" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B41" s="14">
-        <v>2.5</v>
+        <f t="shared" si="1"/>
+        <v>2.5099999999999998</v>
       </c>
       <c r="C41" s="14" cm="1">
         <f t="array" ref="C41">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>0.35</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="F41" s="14">
+        <f t="shared" si="0"/>
+        <v>4.5249999999999999E-2</v>
+      </c>
       <c r="J41" s="19"/>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
     </row>
     <row r="42" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B42" s="14">
-        <v>2.25</v>
+        <f t="shared" si="1"/>
+        <v>2.2599999999999998</v>
       </c>
       <c r="C42" s="14" cm="1">
         <f t="array" ref="C42">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>0.32500000000000001</v>
+        <v>0.32599999999999996</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="F42" s="14">
+        <f t="shared" si="0"/>
+        <v>4.02E-2</v>
+      </c>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
     </row>
     <row r="43" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B43" s="14">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>2.0099999999999998</v>
       </c>
       <c r="C43" s="14" cm="1">
         <f t="array" ref="C43">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>0.30000000000000004</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="F43" s="14">
+        <f t="shared" si="0"/>
+        <v>3.5299999999999998E-2</v>
+      </c>
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
       <c r="L43" s="19"/>
@@ -3737,15 +3763,19 @@
     </row>
     <row r="44" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B44" s="14">
-        <v>1.75</v>
+        <f t="shared" si="1"/>
+        <v>1.76</v>
       </c>
       <c r="C44" s="14" cm="1">
         <f t="array" ref="C44">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>0.27500000000000002</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="F44" s="14">
+        <f t="shared" si="0"/>
+        <v>3.015E-2</v>
+      </c>
       <c r="J44" s="19"/>
       <c r="K44" s="19"/>
       <c r="L44" s="19"/>
@@ -3759,15 +3789,19 @@
     </row>
     <row r="45" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B45" s="14">
-        <v>1.5</v>
+        <f t="shared" si="1"/>
+        <v>1.51</v>
       </c>
       <c r="C45" s="14" cm="1">
         <f t="array" ref="C45">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>0.25</v>
+        <v>0.251</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="F45" s="14">
+        <f t="shared" si="0"/>
+        <v>2.5100000000000001E-2</v>
+      </c>
       <c r="J45" s="19"/>
       <c r="K45" s="19"/>
       <c r="L45" s="19"/>
@@ -3781,45 +3815,57 @@
     </row>
     <row r="46" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B46" s="14">
-        <v>1.25</v>
+        <f t="shared" si="1"/>
+        <v>1.26</v>
       </c>
       <c r="C46" s="14" cm="1">
         <f t="array" ref="C46">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>0.22500000000000001</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="F46" s="14">
+        <f t="shared" si="0"/>
+        <v>2.0149999999999998E-2</v>
+      </c>
       <c r="J46" s="19"/>
       <c r="K46" s="19"/>
       <c r="L46" s="19"/>
     </row>
     <row r="47" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B47" s="14">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1.01</v>
       </c>
       <c r="C47" s="14" cm="1">
         <f t="array" ref="C47">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>0.2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="F47" s="14">
+        <f t="shared" si="0"/>
+        <v>1.805E-2</v>
+      </c>
       <c r="J47" s="19"/>
       <c r="K47" s="19"/>
       <c r="L47" s="19"/>
     </row>
     <row r="48" spans="2:16" ht="22" customHeight="1">
       <c r="B48" s="14">
-        <v>0.75</v>
+        <f t="shared" si="1"/>
+        <v>1.75</v>
       </c>
       <c r="C48" s="14" cm="1">
         <f t="array" ref="C48">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>0.17500000000000002</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="F48" s="14">
+        <f t="shared" si="0"/>
+        <v>1.005E-2</v>
+      </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="19"/>
@@ -3829,15 +3875,19 @@
     </row>
     <row r="49" spans="2:12" ht="22" customHeight="1">
       <c r="B49" s="14">
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.6</v>
       </c>
       <c r="C49" s="14" cm="1">
         <f t="array" ref="C49">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>0.15000000000000002</v>
+        <v>0.16</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
+      <c r="F49" s="14">
+        <f t="shared" si="0"/>
+        <v>1.005E-2</v>
+      </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="19"/>

--- a/Pendulum/F3_Fadenpendel.xlsx
+++ b/Pendulum/F3_Fadenpendel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Pendulum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D419F713-C4D3-3C4E-928D-F67FC65B3BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEBA7EC-3813-FF49-8D05-EF1DD1B273C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="760" windowWidth="28300" windowHeight="18880" activeTab="1" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
   <si>
     <t>l = Fadenlänge</t>
   </si>
@@ -786,6 +786,30 @@
       </rPr>
       <t>2</t>
     </r>
+  </si>
+  <si>
+    <t>Fadenlänge</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>+ 21.5 cm</t>
+  </si>
+  <si>
+    <t>Grad</t>
+  </si>
+  <si>
+    <t>Anh</t>
+  </si>
+  <si>
+    <t>Maksims</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>0.01 s abweichung</t>
   </si>
 </sst>
 </file>
@@ -898,7 +922,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -917,8 +941,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor theme="6" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -926,11 +962,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -981,15 +1065,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="38">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1054,6 +1155,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2654,34 +2759,34 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{55BB7A07-8828-5A4C-BD4B-3B1D7C9E9371}" name="∆li,Faden in m" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{CB345EF9-91E9-2047-B67F-56D715444FAC}" name="∆li,ges in m" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{F6AF1455-964D-4B4E-ADDF-86C230059387}" name="∆τ1Uhr in s" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{F6AF1455-964D-4B4E-ADDF-86C230059387}" name="∆τ1Uhr in s" dataDxfId="15">
       <calculatedColumnFormula>(0.5*E21+10)/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8F889AD9-8191-F94F-8CD2-8F439EA085FE}" name="∆τ1, ges in s" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{28B02484-B961-B74D-9AB6-9E095216CB7C}" name="Ti in s" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{55424E9E-945A-8D47-9687-E64501944523}" name="∆Ti in s" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{5EC5184E-A553-B14A-A1AB-4974E176A824}" name="∆Ti" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{8F889AD9-8191-F94F-8CD2-8F439EA085FE}" name="∆τ1, ges in s" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{28B02484-B961-B74D-9AB6-9E095216CB7C}" name="Ti in s" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{55424E9E-945A-8D47-9687-E64501944523}" name="∆Ti in s" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{5EC5184E-A553-B14A-A1AB-4974E176A824}" name="∆Ti" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{73B7D59F-1C63-4547-AD26-D8CFBE8D4073}" name="Table8" displayName="Table8" ref="K37:L49" totalsRowShown="0" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{73B7D59F-1C63-4547-AD26-D8CFBE8D4073}" name="Table8" displayName="Table8" ref="K37:L49" totalsRowShown="0" dataDxfId="10">
   <autoFilter ref="K37:L49" xr:uid="{73B7D59F-1C63-4547-AD26-D8CFBE8D4073}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8DB91CAB-F9B3-E542-B44E-A2119BA78EFC}" name="yi in s2" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{ACF2ADD9-FFC0-124F-A10E-AD96D23A054B}" name="∆yi in s2" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{8DB91CAB-F9B3-E542-B44E-A2119BA78EFC}" name="yi in s2" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{ACF2ADD9-FFC0-124F-A10E-AD96D23A054B}" name="∆yi in s2" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4AAF9D21-8339-7248-AA21-DA25D233DC2D}" name="Table6" displayName="Table6" ref="B3:G5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4AAF9D21-8339-7248-AA21-DA25D233DC2D}" name="Table6" displayName="Table6" ref="B3:G5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B3:G5" xr:uid="{4AAF9D21-8339-7248-AA21-DA25D233DC2D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2691,12 +2796,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6261AB11-CFEF-2D47-B567-0EA7AE1B7E2B}" name=" " dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{E231D29B-F6D8-774F-9CC2-B924F00DBABA}" name="mean" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{31F917E6-C6B3-C44A-BFA1-DB5A07FB6758}" name="stdev" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{0952568A-3564-1140-91F5-02ACBC6C84C1}" name="cov" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{FCEB2C04-DB74-7347-A758-5F8318B07AC0}" name="sys" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{9BE7E060-5CB7-4E49-9CB8-F31A15C6E537}" name="total error" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{6261AB11-CFEF-2D47-B567-0EA7AE1B7E2B}" name=" " dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{E231D29B-F6D8-774F-9CC2-B924F00DBABA}" name="mean" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{31F917E6-C6B3-C44A-BFA1-DB5A07FB6758}" name="stdev" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{0952568A-3564-1140-91F5-02ACBC6C84C1}" name="cov" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{FCEB2C04-DB74-7347-A758-5F8318B07AC0}" name="sys" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{9BE7E060-5CB7-4E49-9CB8-F31A15C6E537}" name="total error" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3279,10 +3384,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FB1E29-01ED-F443-A5A0-FF909B503056}">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3297,110 +3402,274 @@
     <col min="8" max="8" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="12" customFormat="1" ht="16">
+    <row r="1" spans="1:19" s="12" customFormat="1" ht="16">
       <c r="A1" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="8" customFormat="1" ht="24" customHeight="1">
+    <row r="3" spans="1:19" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B3" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
+      <c r="L3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="8" customFormat="1" ht="17" customHeight="1">
       <c r="B4" s="14">
-        <v>1.2</v>
+        <v>2.96</v>
       </c>
       <c r="C4" s="14">
+        <v>2.75</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="8">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
+      <c r="G4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="23">
+        <v>3.34</v>
+      </c>
+      <c r="M4" s="24">
+        <v>2.71</v>
+      </c>
+      <c r="O4" s="23">
+        <v>2.96</v>
+      </c>
+      <c r="P4" s="24">
+        <v>2.75</v>
+      </c>
+      <c r="R4" s="23"/>
+      <c r="S4" s="24"/>
+    </row>
+    <row r="5" spans="1:19" s="8" customFormat="1" ht="17" customHeight="1">
       <c r="B5" s="14">
-        <v>1.1000000000000001</v>
+        <v>3.13</v>
       </c>
       <c r="C5" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
+        <v>2.96</v>
+      </c>
+      <c r="L5" s="25">
+        <v>3.13</v>
+      </c>
+      <c r="M5" s="26">
+        <v>2.75</v>
+      </c>
+      <c r="O5" s="25">
+        <v>3.13</v>
+      </c>
+      <c r="P5" s="26">
+        <v>2.96</v>
+      </c>
+      <c r="R5" s="25"/>
+      <c r="S5" s="26"/>
+    </row>
+    <row r="6" spans="1:19" s="8" customFormat="1" ht="17" customHeight="1">
       <c r="B6" s="14">
-        <v>1</v>
+        <v>3.13</v>
       </c>
       <c r="C6" s="14">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
+        <v>2.95</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="23">
+        <v>3.17</v>
+      </c>
+      <c r="M6" s="24">
+        <v>2.88</v>
+      </c>
+      <c r="O6" s="23">
+        <v>3.13</v>
+      </c>
+      <c r="P6" s="24">
+        <v>2.95</v>
+      </c>
+      <c r="R6" s="23"/>
+      <c r="S6" s="24"/>
+    </row>
+    <row r="7" spans="1:19" s="8" customFormat="1" ht="17" customHeight="1">
       <c r="B7" s="14">
-        <v>0.9</v>
+        <v>3.25</v>
       </c>
       <c r="C7" s="14">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
+        <v>2.96</v>
+      </c>
+      <c r="L7" s="25">
+        <v>3.15</v>
+      </c>
+      <c r="M7" s="26">
+        <v>2.93</v>
+      </c>
+      <c r="O7" s="25">
+        <v>3.25</v>
+      </c>
+      <c r="P7" s="26">
+        <v>2.96</v>
+      </c>
+      <c r="R7" s="25"/>
+      <c r="S7" s="26"/>
+    </row>
+    <row r="8" spans="1:19" s="8" customFormat="1" ht="17" customHeight="1">
       <c r="B8" s="14">
-        <v>1.2</v>
+        <v>3.08</v>
       </c>
       <c r="C8" s="14">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
+        <v>3.1</v>
+      </c>
+      <c r="L8" s="23">
+        <v>3.22</v>
+      </c>
+      <c r="M8" s="24">
+        <v>2.95</v>
+      </c>
+      <c r="O8" s="23">
+        <v>3.08</v>
+      </c>
+      <c r="P8" s="24">
+        <v>3.1</v>
+      </c>
+      <c r="R8" s="23"/>
+      <c r="S8" s="24"/>
+    </row>
+    <row r="9" spans="1:19" s="8" customFormat="1" ht="17" customHeight="1">
       <c r="B9" s="14">
-        <v>1.2</v>
+        <v>3.08</v>
       </c>
       <c r="C9" s="14">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
+        <v>3.18</v>
+      </c>
+      <c r="L9" s="25">
+        <v>3.13</v>
+      </c>
+      <c r="M9" s="26">
+        <v>2.88</v>
+      </c>
+      <c r="O9" s="25">
+        <v>3.08</v>
+      </c>
+      <c r="P9" s="26">
+        <v>3.18</v>
+      </c>
+      <c r="R9" s="25"/>
+      <c r="S9" s="26"/>
+    </row>
+    <row r="10" spans="1:19" s="8" customFormat="1" ht="17" customHeight="1">
       <c r="B10" s="14">
-        <v>1.1000000000000001</v>
+        <v>3.03</v>
       </c>
       <c r="C10" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
+        <v>3.08</v>
+      </c>
+      <c r="L10" s="23">
+        <v>3.12</v>
+      </c>
+      <c r="M10" s="24">
+        <v>2.95</v>
+      </c>
+      <c r="O10" s="23">
+        <v>3.03</v>
+      </c>
+      <c r="P10" s="24">
+        <v>3.08</v>
+      </c>
+      <c r="R10" s="23"/>
+      <c r="S10" s="24"/>
+    </row>
+    <row r="11" spans="1:19" s="8" customFormat="1" ht="17" customHeight="1">
       <c r="B11" s="14">
-        <v>0.9</v>
+        <v>3.11</v>
       </c>
       <c r="C11" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
+        <v>3.11</v>
+      </c>
+      <c r="L11" s="25">
+        <v>3.1</v>
+      </c>
+      <c r="M11" s="26">
+        <v>2.81</v>
+      </c>
+      <c r="O11" s="25">
+        <v>3.11</v>
+      </c>
+      <c r="P11" s="26">
+        <v>3.11</v>
+      </c>
+      <c r="R11" s="25"/>
+      <c r="S11" s="26"/>
+    </row>
+    <row r="12" spans="1:19" s="8" customFormat="1" ht="17" customHeight="1">
       <c r="B12" s="14">
-        <v>1</v>
+        <v>3.13</v>
       </c>
       <c r="C12" s="14">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="8" customFormat="1" ht="17" customHeight="1">
+        <v>3.08</v>
+      </c>
+      <c r="L12" s="23">
+        <v>3.07</v>
+      </c>
+      <c r="M12" s="24">
+        <v>2.89</v>
+      </c>
+      <c r="O12" s="23">
+        <v>3.13</v>
+      </c>
+      <c r="P12" s="24">
+        <v>3.08</v>
+      </c>
+      <c r="R12" s="23"/>
+      <c r="S12" s="24"/>
+    </row>
+    <row r="13" spans="1:19" s="8" customFormat="1" ht="17" customHeight="1">
       <c r="B13" s="14">
-        <v>1</v>
+        <v>3.13</v>
       </c>
       <c r="C13" s="14">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17">
+        <v>2.98</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="27">
+        <v>3.01</v>
+      </c>
+      <c r="M13" s="28">
+        <v>2.97</v>
+      </c>
+      <c r="O13" s="27">
+        <v>3.13</v>
+      </c>
+      <c r="P13" s="28">
+        <v>2.98</v>
+      </c>
+      <c r="R13" s="27"/>
+      <c r="S13" s="28"/>
+    </row>
+    <row r="15" spans="1:19" ht="17">
       <c r="B15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="13" customFormat="1" ht="16">
+    <row r="18" spans="1:9" s="13" customFormat="1" ht="16">
       <c r="A18" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="26" customHeight="1">
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="26" customHeight="1">
       <c r="B20" s="8" t="s">
         <v>54</v>
       </c>
@@ -3414,178 +3683,184 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="22" customHeight="1">
       <c r="B21" s="14">
-        <v>3.25</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C21" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D21" s="8">
         <v>0.01</v>
       </c>
-      <c r="D21" s="8">
-        <v>1E-3</v>
-      </c>
       <c r="E21" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+        <v>14.83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="22" customHeight="1">
       <c r="B22" s="14">
-        <v>3</v>
+        <v>1.93</v>
       </c>
       <c r="C22" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D22" s="8">
         <v>0.01</v>
       </c>
-      <c r="D22" s="8">
-        <v>1E-3</v>
-      </c>
       <c r="E22" s="8">
-        <v>90.8</v>
+        <v>14.44</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="H22" s="1">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="22" customHeight="1">
       <c r="B23" s="14">
-        <v>2.75</v>
+        <v>1.83</v>
       </c>
       <c r="C23" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D23" s="8">
         <v>0.01</v>
       </c>
-      <c r="D23" s="8">
-        <v>1E-3</v>
-      </c>
       <c r="E23" s="8">
-        <v>80.599999999999994</v>
+        <v>14.11</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="22" customHeight="1">
       <c r="B24" s="14">
-        <v>2.5</v>
+        <v>1.73</v>
       </c>
       <c r="C24" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D24" s="8">
         <v>0.01</v>
       </c>
-      <c r="D24" s="8">
-        <v>1E-3</v>
-      </c>
       <c r="E24" s="8">
-        <v>70.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+        <v>13.71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="22" customHeight="1">
       <c r="B25" s="14">
-        <v>2.25</v>
+        <v>1.63</v>
       </c>
       <c r="C25" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D25" s="8">
         <v>0.01</v>
       </c>
-      <c r="D25" s="8">
-        <v>1E-3</v>
-      </c>
       <c r="E25" s="8">
-        <v>60.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+        <v>13.29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="1" customFormat="1" ht="22" customHeight="1">
       <c r="B26" s="14">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="C26" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D26" s="8">
         <v>0.01</v>
       </c>
-      <c r="D26" s="8">
-        <v>1E-3</v>
-      </c>
       <c r="E26" s="8">
-        <v>50.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="22" customHeight="1">
       <c r="B27" s="14">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="C27" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D27" s="8">
         <v>0.01</v>
       </c>
-      <c r="D27" s="8">
-        <v>1E-3</v>
-      </c>
       <c r="E27" s="8">
-        <v>40.299999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+        <v>12.58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="1" customFormat="1" ht="22" customHeight="1">
       <c r="B28" s="14">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="C28" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D28" s="8">
         <v>0.01</v>
       </c>
-      <c r="D28" s="8">
-        <v>1E-3</v>
-      </c>
       <c r="E28" s="8">
-        <v>30.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="22" customHeight="1">
       <c r="B29" s="14">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="C29" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D29" s="8">
         <v>0.01</v>
       </c>
-      <c r="D29" s="8">
-        <v>1E-3</v>
-      </c>
       <c r="E29" s="8">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+        <v>11.77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="22" customHeight="1">
       <c r="B30" s="14">
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="C30" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D30" s="8">
         <v>0.01</v>
       </c>
-      <c r="D30" s="8">
-        <v>1E-3</v>
-      </c>
       <c r="E30" s="8">
-        <v>16.100000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="22" customHeight="1">
+        <v>11.27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="22" customHeight="1">
       <c r="B31" s="14">
-        <v>0.75</v>
+        <v>1.03</v>
       </c>
       <c r="C31" s="8">
-        <v>1</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D31" s="8">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E31" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="22" customHeight="1">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="22" customHeight="1">
       <c r="B32" s="14">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="C32" s="8">
-        <v>0.1</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D32" s="8">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E32" s="8">
-        <v>0.1</v>
+        <v>10.55</v>
       </c>
     </row>
     <row r="33" spans="2:16">
@@ -3643,17 +3918,17 @@
     <row r="38" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B38" s="14">
         <f>B21+C21</f>
-        <v>3.26</v>
+        <v>2.0419999999999998</v>
       </c>
       <c r="C38" s="14" cm="1">
         <f t="array" ref="C38">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>0.42600000000000005</v>
+        <v>1.4167999999999998</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14">
         <f t="shared" ref="F38:F49" si="0">(0.5*E21+10)/1000</f>
-        <v>0.06</v>
+        <v>1.7415E-2</v>
       </c>
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
@@ -3661,18 +3936,18 @@
     </row>
     <row r="39" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B39" s="14">
-        <f t="shared" ref="B39:B49" si="1">B22+C22</f>
-        <v>3.01</v>
+        <f>B22+C22</f>
+        <v>1.9419999999999999</v>
       </c>
       <c r="C39" s="14" cm="1">
         <f t="array" ref="C39">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>0.40100000000000002</v>
+        <v>1.3768</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14">
         <f>(0.5*E22+10)/1000</f>
-        <v>5.5399999999999998E-2</v>
+        <v>1.7219999999999999E-2</v>
       </c>
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
@@ -3680,18 +3955,18 @@
     </row>
     <row r="40" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B40" s="14">
-        <f t="shared" si="1"/>
-        <v>2.76</v>
+        <f t="shared" ref="B40:B49" si="1">B23+C23</f>
+        <v>1.8420000000000001</v>
       </c>
       <c r="C40" s="14" cm="1">
         <f t="array" ref="C40">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>0.376</v>
+        <v>1.3368000000000002</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14">
         <f t="shared" si="0"/>
-        <v>5.0299999999999997E-2</v>
+        <v>1.7055000000000001E-2</v>
       </c>
       <c r="J40" s="19"/>
       <c r="K40" s="19"/>
@@ -3700,17 +3975,17 @@
     <row r="41" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B41" s="14">
         <f t="shared" si="1"/>
-        <v>2.5099999999999998</v>
+        <v>1.742</v>
       </c>
       <c r="C41" s="14" cm="1">
         <f t="array" ref="C41">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>0.35099999999999998</v>
+        <v>1.2968000000000002</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14">
         <f t="shared" si="0"/>
-        <v>4.5249999999999999E-2</v>
+        <v>1.6855000000000002E-2</v>
       </c>
       <c r="J41" s="19"/>
       <c r="K41" s="19"/>
@@ -3719,17 +3994,17 @@
     <row r="42" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B42" s="14">
         <f t="shared" si="1"/>
-        <v>2.2599999999999998</v>
+        <v>1.6419999999999999</v>
       </c>
       <c r="C42" s="14" cm="1">
         <f t="array" ref="C42">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>0.32599999999999996</v>
+        <v>1.2568000000000001</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14">
         <f t="shared" si="0"/>
-        <v>4.02E-2</v>
+        <v>1.6645E-2</v>
       </c>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
@@ -3738,17 +4013,17 @@
     <row r="43" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B43" s="14">
         <f t="shared" si="1"/>
-        <v>2.0099999999999998</v>
+        <v>1.542</v>
       </c>
       <c r="C43" s="14" cm="1">
         <f t="array" ref="C43">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>0.30099999999999999</v>
+        <v>1.2168000000000001</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14">
         <f t="shared" si="0"/>
-        <v>3.5299999999999998E-2</v>
+        <v>1.6545000000000001E-2</v>
       </c>
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
@@ -3758,23 +4033,23 @@
       </c>
       <c r="O43" s="3"/>
       <c r="P43" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B44" s="14">
         <f t="shared" si="1"/>
-        <v>1.76</v>
+        <v>1.4419999999999999</v>
       </c>
       <c r="C44" s="14" cm="1">
         <f t="array" ref="C44">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>0.27600000000000002</v>
+        <v>1.1768000000000001</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14">
         <f t="shared" si="0"/>
-        <v>3.015E-2</v>
+        <v>1.6289999999999999E-2</v>
       </c>
       <c r="J44" s="19"/>
       <c r="K44" s="19"/>
@@ -3790,43 +4065,43 @@
     <row r="45" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B45" s="14">
         <f t="shared" si="1"/>
-        <v>1.51</v>
+        <v>1.3420000000000001</v>
       </c>
       <c r="C45" s="14" cm="1">
         <f t="array" ref="C45">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>0.251</v>
+        <v>1.1368</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14">
         <f t="shared" si="0"/>
-        <v>2.5100000000000001E-2</v>
+        <v>1.6085000000000002E-2</v>
       </c>
       <c r="J45" s="19"/>
       <c r="K45" s="19"/>
       <c r="L45" s="19"/>
       <c r="N45" s="15"/>
       <c r="O45" s="15">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="P45" s="15">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="46" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B46" s="14">
         <f t="shared" si="1"/>
-        <v>1.26</v>
+        <v>1.242</v>
       </c>
       <c r="C46" s="14" cm="1">
         <f t="array" ref="C46">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>0.22600000000000001</v>
+        <v>1.0968</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14">
         <f t="shared" si="0"/>
-        <v>2.0149999999999998E-2</v>
+        <v>1.5885E-2</v>
       </c>
       <c r="J46" s="19"/>
       <c r="K46" s="19"/>
@@ -3835,17 +4110,17 @@
     <row r="47" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B47" s="14">
         <f t="shared" si="1"/>
-        <v>1.01</v>
+        <v>1.1419999999999999</v>
       </c>
       <c r="C47" s="14" cm="1">
         <f t="array" ref="C47">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>0.20100000000000001</v>
+        <v>1.0568</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14">
         <f t="shared" si="0"/>
-        <v>1.805E-2</v>
+        <v>1.5635E-2</v>
       </c>
       <c r="J47" s="19"/>
       <c r="K47" s="19"/>
@@ -3854,17 +4129,17 @@
     <row r="48" spans="2:16" ht="22" customHeight="1">
       <c r="B48" s="14">
         <f t="shared" si="1"/>
-        <v>1.75</v>
+        <v>1.042</v>
       </c>
       <c r="C48" s="14" cm="1">
         <f t="array" ref="C48">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>0.27500000000000002</v>
+        <v>1.0167999999999999</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14">
         <f t="shared" si="0"/>
-        <v>1.005E-2</v>
+        <v>1.5474999999999999E-2</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -3876,17 +4151,17 @@
     <row r="49" spans="2:12" ht="22" customHeight="1">
       <c r="B49" s="14">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.94200000000000006</v>
       </c>
       <c r="C49" s="14" cm="1">
         <f t="array" ref="C49">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>0.16</v>
+        <v>0.9768</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14">
         <f t="shared" si="0"/>
-        <v>1.005E-2</v>
+        <v>1.5275E-2</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>

--- a/Pendulum/F3_Fadenpendel.xlsx
+++ b/Pendulum/F3_Fadenpendel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Pendulum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEBA7EC-3813-FF49-8D05-EF1DD1B273C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBF8D8E-6B6A-F941-89F2-5912F472558B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="760" windowWidth="28300" windowHeight="18880" activeTab="1" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
+    <workbookView xWindow="1200" yWindow="760" windowWidth="28300" windowHeight="18880" activeTab="2" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Durchführung" sheetId="3" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
   <si>
     <t>l = Fadenlänge</t>
   </si>
@@ -450,9 +450,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Versuchsteil 3: 10 Perioden  bei 10 unterschiedlichen Pendellänge</t>
   </si>
   <si>
     <r>
@@ -3386,8 +3383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FB1E29-01ED-F443-A5A0-FF909B503056}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3415,13 +3412,13 @@
         <v>45</v>
       </c>
       <c r="L3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="8" customFormat="1" ht="17" customHeight="1">
@@ -3432,13 +3429,13 @@
         <v>2.75</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="8">
         <v>2.1</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L4" s="23">
         <v>3.34</v>
@@ -3485,7 +3482,7 @@
         <v>2.95</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L6" s="23">
         <v>3.17</v>
@@ -3642,7 +3639,7 @@
         <v>2.98</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L13" s="27">
         <v>3.01</v>
@@ -3666,7 +3663,7 @@
     </row>
     <row r="18" spans="1:9" s="13" customFormat="1" ht="16">
       <c r="A18" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1" ht="26" customHeight="1">
@@ -3680,7 +3677,7 @@
         <v>55</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" ht="22" customHeight="1">
@@ -3691,7 +3688,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="D21" s="8">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E21" s="8">
         <v>14.83</v>
@@ -3705,7 +3702,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="D22" s="8">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E22" s="8">
         <v>14.44</v>
@@ -3717,7 +3714,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" ht="22" customHeight="1">
@@ -3728,7 +3725,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="D23" s="8">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E23" s="8">
         <v>14.11</v>
@@ -3745,7 +3742,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="D24" s="8">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E24" s="8">
         <v>13.71</v>
@@ -3759,7 +3756,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="D25" s="8">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E25" s="8">
         <v>13.29</v>
@@ -3773,7 +3770,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="D26" s="8">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E26" s="8">
         <v>13.09</v>
@@ -3787,7 +3784,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="D27" s="8">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E27" s="8">
         <v>12.58</v>
@@ -3801,7 +3798,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="D28" s="8">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E28" s="8">
         <v>12.17</v>
@@ -3815,7 +3812,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="D29" s="8">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E29" s="8">
         <v>11.77</v>
@@ -3829,7 +3826,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="D30" s="8">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E30" s="8">
         <v>11.27</v>
@@ -3843,7 +3840,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="D31" s="8">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E31" s="8">
         <v>10.95</v>
@@ -3857,7 +3854,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="D32" s="8">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E32" s="8">
         <v>10.55</v>
@@ -3882,37 +3879,37 @@
     </row>
     <row r="37" spans="2:16" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="F37" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="G37" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="H37" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="H37" s="21" t="s">
+      <c r="I37" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="I37" s="21" t="s">
+      <c r="J37" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="J37" s="21" t="s">
+      <c r="K37" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L37" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="K37" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="L37" s="11" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="38" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
@@ -3920,9 +3917,9 @@
         <f>B21+C21</f>
         <v>2.0419999999999998</v>
       </c>
-      <c r="C38" s="14" cm="1">
-        <f t="array" ref="C38">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>1.4167999999999998</v>
+      <c r="C38" s="19" cm="1">
+        <f t="array" ref="C38">(Table5[b]/1000*Table4[[#This Row],[li,ges in m]]) + Table5[a]/1000</f>
+        <v>1.4168E-3</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
@@ -3939,9 +3936,9 @@
         <f>B22+C22</f>
         <v>1.9419999999999999</v>
       </c>
-      <c r="C39" s="14" cm="1">
-        <f t="array" ref="C39">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>1.3768</v>
+      <c r="C39" s="19" cm="1">
+        <f t="array" ref="C39">(Table5[b]/1000*Table4[[#This Row],[li,ges in m]]) + Table5[a]/1000</f>
+        <v>1.3768000000000001E-3</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
@@ -3958,9 +3955,9 @@
         <f t="shared" ref="B40:B49" si="1">B23+C23</f>
         <v>1.8420000000000001</v>
       </c>
-      <c r="C40" s="14" cm="1">
-        <f t="array" ref="C40">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>1.3368000000000002</v>
+      <c r="C40" s="19" cm="1">
+        <f t="array" ref="C40">(Table5[b]/1000*Table4[[#This Row],[li,ges in m]]) + Table5[a]/1000</f>
+        <v>1.3368E-3</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
@@ -3977,9 +3974,9 @@
         <f t="shared" si="1"/>
         <v>1.742</v>
       </c>
-      <c r="C41" s="14" cm="1">
-        <f t="array" ref="C41">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>1.2968000000000002</v>
+      <c r="C41" s="19" cm="1">
+        <f t="array" ref="C41">(Table5[b]/1000*Table4[[#This Row],[li,ges in m]]) + Table5[a]/1000</f>
+        <v>1.2967999999999999E-3</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
@@ -3996,9 +3993,9 @@
         <f t="shared" si="1"/>
         <v>1.6419999999999999</v>
       </c>
-      <c r="C42" s="14" cm="1">
-        <f t="array" ref="C42">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>1.2568000000000001</v>
+      <c r="C42" s="19" cm="1">
+        <f t="array" ref="C42">(Table5[b]/1000*Table4[[#This Row],[li,ges in m]]) + Table5[a]/1000</f>
+        <v>1.2568E-3</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
@@ -4015,9 +4012,9 @@
         <f t="shared" si="1"/>
         <v>1.542</v>
       </c>
-      <c r="C43" s="14" cm="1">
-        <f t="array" ref="C43">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>1.2168000000000001</v>
+      <c r="C43" s="19" cm="1">
+        <f t="array" ref="C43">(Table5[b]/1000*Table4[[#This Row],[li,ges in m]]) + Table5[a]/1000</f>
+        <v>1.2168000000000001E-3</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
@@ -4041,9 +4038,9 @@
         <f t="shared" si="1"/>
         <v>1.4419999999999999</v>
       </c>
-      <c r="C44" s="14" cm="1">
-        <f t="array" ref="C44">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>1.1768000000000001</v>
+      <c r="C44" s="19" cm="1">
+        <f t="array" ref="C44">(Table5[b]/1000*Table4[[#This Row],[li,ges in m]]) + Table5[a]/1000</f>
+        <v>1.1768E-3</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -4067,9 +4064,9 @@
         <f t="shared" si="1"/>
         <v>1.3420000000000001</v>
       </c>
-      <c r="C45" s="14" cm="1">
-        <f t="array" ref="C45">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>1.1368</v>
+      <c r="C45" s="19" cm="1">
+        <f t="array" ref="C45">(Table5[b]/1000*Table4[[#This Row],[li,ges in m]]) + Table5[a]/1000</f>
+        <v>1.1367999999999999E-3</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
@@ -4093,9 +4090,9 @@
         <f t="shared" si="1"/>
         <v>1.242</v>
       </c>
-      <c r="C46" s="14" cm="1">
-        <f t="array" ref="C46">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>1.0968</v>
+      <c r="C46" s="19" cm="1">
+        <f t="array" ref="C46">(Table5[b]/1000*Table4[[#This Row],[li,ges in m]]) + Table5[a]/1000</f>
+        <v>1.0968E-3</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
@@ -4112,9 +4109,9 @@
         <f t="shared" si="1"/>
         <v>1.1419999999999999</v>
       </c>
-      <c r="C47" s="14" cm="1">
-        <f t="array" ref="C47">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>1.0568</v>
+      <c r="C47" s="19" cm="1">
+        <f t="array" ref="C47">(Table5[b]/1000*Table4[[#This Row],[li,ges in m]]) + Table5[a]/1000</f>
+        <v>1.0567999999999999E-3</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
@@ -4131,9 +4128,9 @@
         <f t="shared" si="1"/>
         <v>1.042</v>
       </c>
-      <c r="C48" s="14" cm="1">
-        <f t="array" ref="C48">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>1.0167999999999999</v>
+      <c r="C48" s="19" cm="1">
+        <f t="array" ref="C48">(Table5[b]/1000*Table4[[#This Row],[li,ges in m]]) + Table5[a]/1000</f>
+        <v>1.0168E-3</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
@@ -4153,9 +4150,9 @@
         <f t="shared" si="1"/>
         <v>0.94200000000000006</v>
       </c>
-      <c r="C49" s="14" cm="1">
-        <f t="array" ref="C49">(Table5[b]*Table4[[#This Row],[li,ges in m]]) + Table5[a]</f>
-        <v>0.9768</v>
+      <c r="C49" s="19" cm="1">
+        <f t="array" ref="C49">(Table5[b]/1000*Table4[[#This Row],[li,ges in m]]) + Table5[a]/1000</f>
+        <v>9.7679999999999989E-4</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
@@ -4188,8 +4185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FA1135-DD52-3C46-BAEB-583B68230B7C}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4245,7 +4242,7 @@
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1" ht="16">
       <c r="A8" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Pendulum/F3_Fadenpendel.xlsx
+++ b/Pendulum/F3_Fadenpendel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Pendulum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBF8D8E-6B6A-F941-89F2-5912F472558B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D33595-787F-4C49-8AA0-81255817EE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="760" windowWidth="28300" windowHeight="18880" activeTab="2" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
+    <workbookView xWindow="13460" yWindow="760" windowWidth="28300" windowHeight="18880" activeTab="1" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Durchführung" sheetId="3" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
   <si>
     <t>l = Fadenlänge</t>
   </si>
@@ -482,7 +482,56 @@
   </si>
   <si>
     <r>
-      <t>∆l</t>
+      <t>τ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>= 5 T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>y</t>
     </r>
     <r>
       <rPr>
@@ -490,25 +539,33 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>iEG</t>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>i</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in mm</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>τ</t>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> in s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆li</t>
     </r>
     <r>
       <rPr>
@@ -516,18 +573,21 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>= 5 T</t>
+      </rPr>
+      <t>,Faden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆l</t>
     </r>
     <r>
       <rPr>
@@ -535,7 +595,50 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
-        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">i,ges </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆τ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>1, ges</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
       </rPr>
       <t>i</t>
     </r>
@@ -544,20 +647,35 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> in s</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>y</t>
+      <t>∆T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆y</t>
     </r>
     <r>
       <rPr>
@@ -565,18 +683,19 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>i</t>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> in s</t>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>in s</t>
     </r>
     <r>
       <rPr>
@@ -584,14 +703,26 @@
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
+        <rFont val="Calibri-Light"/>
       </rPr>
       <t>2</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>∆li</t>
+    <t>Fadenlänge</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Grad</t>
+  </si>
+  <si>
+    <t>0.01 s abweichung</t>
+  </si>
+  <si>
+    <r>
+      <t>∆τ</t>
     </r>
     <r>
       <rPr>
@@ -599,159 +730,33 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>,Faden</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> in m</t>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Uhr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>in s</t>
     </r>
   </si>
   <si>
     <r>
       <t>∆l</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve">i,ges </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>in m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆τ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve">Uhr </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>in s</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆τ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>1, ges</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> in s</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> in s</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆T</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve"> in s</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>∆T</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>i</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆y</t>
     </r>
     <r>
       <rPr>
@@ -760,8 +765,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri-Light"/>
-      </rPr>
-      <t xml:space="preserve">i </t>
+        <family val="2"/>
+      </rPr>
+      <t>iEG</t>
     </r>
     <r>
       <rPr>
@@ -771,50 +777,20 @@
         <rFont val="Calibri-Light"/>
         <family val="2"/>
       </rPr>
-      <t>in s</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri-Light"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>Fadenlänge</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>+ 21.5 cm</t>
-  </si>
-  <si>
-    <t>Grad</t>
-  </si>
-  <si>
-    <t>Anh</t>
-  </si>
-  <si>
-    <t>Maksims</t>
-  </si>
-  <si>
-    <t>Oscar</t>
-  </si>
-  <si>
-    <t>0.01 s abweichung</t>
+      <t xml:space="preserve"> in mm</t>
+    </r>
+  </si>
+  <si>
+    <t>(Meine Daten)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -908,13 +884,14 @@
       <name val="Calibri (Body)"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri-Light"/>
+      <family val="2"/>
+    </font>
+    <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri-Light"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri-Light"/>
       <family val="2"/>
     </font>
@@ -1011,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1083,11 +1060,50 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="36">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1128,42 +1144,6 @@
         <name val="Calibri-Light"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1258,7 +1238,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1288,15 +1268,51 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2681,28 +2697,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{74E82EF0-C58F-BB4B-8EBC-87C952B8B3B9}" name="Table3" displayName="Table3" ref="B3:C13" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{74E82EF0-C58F-BB4B-8EBC-87C952B8B3B9}" name="Table3" displayName="Table3" ref="B3:C13" totalsRowShown="0" headerRowDxfId="35">
   <autoFilter ref="B3:C13" xr:uid="{74E82EF0-C58F-BB4B-8EBC-87C952B8B3B9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8346DB69-F8D0-374E-98BD-0B1E887C0365}" name="T(Nullpunkt) in s" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{04C0E93E-E90D-E94D-80A9-BA066B3C0889}" name="T(Umkehrpunkt) in s" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{8346DB69-F8D0-374E-98BD-0B1E887C0365}" name="T(Nullpunkt) in s" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{04C0E93E-E90D-E94D-80A9-BA066B3C0889}" name="T(Umkehrpunkt) in s" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{270A50D9-6F60-2545-AF66-7BABDD5BAB15}" name="Table4" displayName="Table4" ref="B37:C49" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{270A50D9-6F60-2545-AF66-7BABDD5BAB15}" name="Table4" displayName="Table4" ref="B37:C49" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="B37:C49" xr:uid="{270A50D9-6F60-2545-AF66-7BABDD5BAB15}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EC12AF92-6AA2-A148-9B1E-938F14924331}" name="li,ges in m" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{6A5DF10D-FF45-B14C-A13B-2628E98996BF}" name="∆liEG in mm" dataDxfId="30">
+    <tableColumn id="1" xr3:uid="{EC12AF92-6AA2-A148-9B1E-938F14924331}" name="li,ges in m" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{6A5DF10D-FF45-B14C-A13B-2628E98996BF}" name="∆liEG in mm" dataDxfId="29">
       <calculatedColumnFormula>SQRT((#REF!)^2 + D21^2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2711,21 +2727,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ED8BB0E8-9CA0-AB4C-8485-913DC6849F9B}" name="Table5" displayName="Table5" ref="O44:P45" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="O44:P45" xr:uid="{ED8BB0E8-9CA0-AB4C-8485-913DC6849F9B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ED8BB0E8-9CA0-AB4C-8485-913DC6849F9B}" name="Table5" displayName="Table5" ref="N44:O45" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="N44:O45" xr:uid="{ED8BB0E8-9CA0-AB4C-8485-913DC6849F9B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E53F5F5C-3534-0B48-931B-7E4E85D8B3E8}" name="a" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{CA60A8C6-6B33-7141-9408-E626FCFBE907}" name="b" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{E53F5F5C-3534-0B48-931B-7E4E85D8B3E8}" name="a" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{CA60A8C6-6B33-7141-9408-E626FCFBE907}" name="b" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium24" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AF7BB84-E4B4-AE4E-877F-000F781757C1}" name="Table1" displayName="Table1" ref="B20:E32" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AF7BB84-E4B4-AE4E-877F-000F781757C1}" name="Table1" displayName="Table1" ref="B20:E32" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="B20:E32" xr:uid="{8AF7BB84-E4B4-AE4E-877F-000F781757C1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2733,57 +2749,55 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C40472B1-7B8C-0E47-AEDC-A96353CC7EB6}" name="li in m" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{F1F4708E-76CE-F045-B5C1-920A7D822E6B}" name="l0,schätz in m" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{6CA49B71-59FE-F749-A9F2-A92B7E8ADE00}" name="∆l0,schätz in m" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{D323358E-AC7C-6E46-88E2-1B1BA82100EA}" name="τ1 = 5 Ti in s" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{C40472B1-7B8C-0E47-AEDC-A96353CC7EB6}" name="li in m" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{F1F4708E-76CE-F045-B5C1-920A7D822E6B}" name="l0,schätz in m" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{6CA49B71-59FE-F749-A9F2-A92B7E8ADE00}" name="∆l0,schätz in m" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{D323358E-AC7C-6E46-88E2-1B1BA82100EA}" name="τ1 = 5 Ti in s" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6B02000B-784D-EB4A-9611-7F6036169ED1}" name="Table2" displayName="Table2" ref="D37:J49" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="D37:J49" xr:uid="{6B02000B-784D-EB4A-9611-7F6036169ED1}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6B02000B-784D-EB4A-9611-7F6036169ED1}" name="Table2" displayName="Table2" ref="D37:I49" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="D37:I49" xr:uid="{6B02000B-784D-EB4A-9611-7F6036169ED1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
     <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{55BB7A07-8828-5A4C-BD4B-3B1D7C9E9371}" name="∆li,Faden in m" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{CB345EF9-91E9-2047-B67F-56D715444FAC}" name="∆li,ges in m" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{F6AF1455-964D-4B4E-ADDF-86C230059387}" name="∆τ1Uhr in s" dataDxfId="15">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{55BB7A07-8828-5A4C-BD4B-3B1D7C9E9371}" name="∆li,Faden in m" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{CB345EF9-91E9-2047-B67F-56D715444FAC}" name="∆li,ges in m" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{F6AF1455-964D-4B4E-ADDF-86C230059387}" name="∆τ1Uhr in s" dataDxfId="6">
       <calculatedColumnFormula>(0.5*E21+10)/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8F889AD9-8191-F94F-8CD2-8F439EA085FE}" name="∆τ1, ges in s" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{28B02484-B961-B74D-9AB6-9E095216CB7C}" name="Ti in s" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{55424E9E-945A-8D47-9687-E64501944523}" name="∆Ti in s" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{5EC5184E-A553-B14A-A1AB-4974E176A824}" name="∆Ti" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{8F889AD9-8191-F94F-8CD2-8F439EA085FE}" name="∆τ1, ges in s" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{28B02484-B961-B74D-9AB6-9E095216CB7C}" name="Ti in s" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{55424E9E-945A-8D47-9687-E64501944523}" name="∆Ti in s" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{73B7D59F-1C63-4547-AD26-D8CFBE8D4073}" name="Table8" displayName="Table8" ref="K37:L49" totalsRowShown="0" dataDxfId="10">
-  <autoFilter ref="K37:L49" xr:uid="{73B7D59F-1C63-4547-AD26-D8CFBE8D4073}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{73B7D59F-1C63-4547-AD26-D8CFBE8D4073}" name="Table8" displayName="Table8" ref="J37:K49" totalsRowShown="0" dataDxfId="2">
+  <autoFilter ref="J37:K49" xr:uid="{73B7D59F-1C63-4547-AD26-D8CFBE8D4073}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8DB91CAB-F9B3-E542-B44E-A2119BA78EFC}" name="yi in s2" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{ACF2ADD9-FFC0-124F-A10E-AD96D23A054B}" name="∆yi in s2" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{8DB91CAB-F9B3-E542-B44E-A2119BA78EFC}" name="yi in s2" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{ACF2ADD9-FFC0-124F-A10E-AD96D23A054B}" name="∆yi in s2" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4AAF9D21-8339-7248-AA21-DA25D233DC2D}" name="Table6" displayName="Table6" ref="B3:G5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4AAF9D21-8339-7248-AA21-DA25D233DC2D}" name="Table6" displayName="Table6" ref="B3:G5" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="B3:G5" xr:uid="{4AAF9D21-8339-7248-AA21-DA25D233DC2D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2793,12 +2807,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6261AB11-CFEF-2D47-B567-0EA7AE1B7E2B}" name=" " dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{E231D29B-F6D8-774F-9CC2-B924F00DBABA}" name="mean" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{31F917E6-C6B3-C44A-BFA1-DB5A07FB6758}" name="stdev" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{0952568A-3564-1140-91F5-02ACBC6C84C1}" name="cov" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{FCEB2C04-DB74-7347-A758-5F8318B07AC0}" name="sys" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{9BE7E060-5CB7-4E49-9CB8-F31A15C6E537}" name="total error" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6261AB11-CFEF-2D47-B567-0EA7AE1B7E2B}" name=" " dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{E231D29B-F6D8-774F-9CC2-B924F00DBABA}" name="mean" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{31F917E6-C6B3-C44A-BFA1-DB5A07FB6758}" name="stdev" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{0952568A-3564-1140-91F5-02ACBC6C84C1}" name="cov" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{FCEB2C04-DB74-7347-A758-5F8318B07AC0}" name="sys" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{9BE7E060-5CB7-4E49-9CB8-F31A15C6E537}" name="total error" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3381,10 +3395,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FB1E29-01ED-F443-A5A0-FF909B503056}">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="95" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38:I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3399,264 +3413,117 @@
     <col min="8" max="8" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="12" customFormat="1" ht="16">
+    <row r="1" spans="1:8" s="12" customFormat="1" ht="16">
       <c r="A1" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="8" customFormat="1" ht="24" customHeight="1">
+    <row r="3" spans="1:8" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B3" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B4" s="14">
-        <v>2.96</v>
-      </c>
-      <c r="C4" s="14">
+    </row>
+    <row r="4" spans="1:8" s="8" customFormat="1" ht="17" customHeight="1">
+      <c r="B4" s="23">
+        <v>3.34</v>
+      </c>
+      <c r="C4" s="24">
+        <v>2.71</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="8" customFormat="1" ht="17" customHeight="1">
+      <c r="B5" s="25">
+        <v>3.13</v>
+      </c>
+      <c r="C5" s="26">
         <v>2.75</v>
       </c>
-      <c r="E4" s="8" t="s">
+    </row>
+    <row r="6" spans="1:8" s="8" customFormat="1" ht="17" customHeight="1">
+      <c r="B6" s="23">
+        <v>3.17</v>
+      </c>
+      <c r="C6" s="24">
+        <v>2.88</v>
+      </c>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" s="8" customFormat="1" ht="17" customHeight="1">
+      <c r="B7" s="25">
+        <v>3.15</v>
+      </c>
+      <c r="C7" s="26">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="8" customFormat="1" ht="17" customHeight="1">
+      <c r="B8" s="23">
+        <v>3.22</v>
+      </c>
+      <c r="C8" s="24">
+        <v>2.95</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="8">
+        <f>2.1 + 0.215</f>
+        <v>2.3149999999999999</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="8" customFormat="1" ht="17" customHeight="1">
+      <c r="B9" s="25">
+        <v>3.13</v>
+      </c>
+      <c r="C9" s="26">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="8" customFormat="1" ht="17" customHeight="1">
+      <c r="B10" s="23">
+        <v>3.12</v>
+      </c>
+      <c r="C10" s="24">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="8" customFormat="1" ht="17" customHeight="1">
+      <c r="B11" s="25">
+        <v>3.1</v>
+      </c>
+      <c r="C11" s="26">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="8" customFormat="1" ht="17" customHeight="1">
+      <c r="B12" s="23">
+        <v>3.07</v>
+      </c>
+      <c r="C12" s="24">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="8" customFormat="1" ht="17" customHeight="1">
+      <c r="B13" s="27">
+        <v>3.01</v>
+      </c>
+      <c r="C13" s="28">
+        <v>2.97</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="8">
-        <v>2.1</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="23">
-        <v>3.34</v>
-      </c>
-      <c r="M4" s="24">
-        <v>2.71</v>
-      </c>
-      <c r="O4" s="23">
-        <v>2.96</v>
-      </c>
-      <c r="P4" s="24">
-        <v>2.75</v>
-      </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="24"/>
-    </row>
-    <row r="5" spans="1:19" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B5" s="14">
-        <v>3.13</v>
-      </c>
-      <c r="C5" s="14">
-        <v>2.96</v>
-      </c>
-      <c r="L5" s="25">
-        <v>3.13</v>
-      </c>
-      <c r="M5" s="26">
-        <v>2.75</v>
-      </c>
-      <c r="O5" s="25">
-        <v>3.13</v>
-      </c>
-      <c r="P5" s="26">
-        <v>2.96</v>
-      </c>
-      <c r="R5" s="25"/>
-      <c r="S5" s="26"/>
-    </row>
-    <row r="6" spans="1:19" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B6" s="14">
-        <v>3.13</v>
-      </c>
-      <c r="C6" s="14">
-        <v>2.95</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" s="23">
-        <v>3.17</v>
-      </c>
-      <c r="M6" s="24">
-        <v>2.88</v>
-      </c>
-      <c r="O6" s="23">
-        <v>3.13</v>
-      </c>
-      <c r="P6" s="24">
-        <v>2.95</v>
-      </c>
-      <c r="R6" s="23"/>
-      <c r="S6" s="24"/>
-    </row>
-    <row r="7" spans="1:19" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B7" s="14">
-        <v>3.25</v>
-      </c>
-      <c r="C7" s="14">
-        <v>2.96</v>
-      </c>
-      <c r="L7" s="25">
-        <v>3.15</v>
-      </c>
-      <c r="M7" s="26">
-        <v>2.93</v>
-      </c>
-      <c r="O7" s="25">
-        <v>3.25</v>
-      </c>
-      <c r="P7" s="26">
-        <v>2.96</v>
-      </c>
-      <c r="R7" s="25"/>
-      <c r="S7" s="26"/>
-    </row>
-    <row r="8" spans="1:19" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B8" s="14">
-        <v>3.08</v>
-      </c>
-      <c r="C8" s="14">
-        <v>3.1</v>
-      </c>
-      <c r="L8" s="23">
-        <v>3.22</v>
-      </c>
-      <c r="M8" s="24">
-        <v>2.95</v>
-      </c>
-      <c r="O8" s="23">
-        <v>3.08</v>
-      </c>
-      <c r="P8" s="24">
-        <v>3.1</v>
-      </c>
-      <c r="R8" s="23"/>
-      <c r="S8" s="24"/>
-    </row>
-    <row r="9" spans="1:19" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B9" s="14">
-        <v>3.08</v>
-      </c>
-      <c r="C9" s="14">
-        <v>3.18</v>
-      </c>
-      <c r="L9" s="25">
-        <v>3.13</v>
-      </c>
-      <c r="M9" s="26">
-        <v>2.88</v>
-      </c>
-      <c r="O9" s="25">
-        <v>3.08</v>
-      </c>
-      <c r="P9" s="26">
-        <v>3.18</v>
-      </c>
-      <c r="R9" s="25"/>
-      <c r="S9" s="26"/>
-    </row>
-    <row r="10" spans="1:19" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B10" s="14">
-        <v>3.03</v>
-      </c>
-      <c r="C10" s="14">
-        <v>3.08</v>
-      </c>
-      <c r="L10" s="23">
-        <v>3.12</v>
-      </c>
-      <c r="M10" s="24">
-        <v>2.95</v>
-      </c>
-      <c r="O10" s="23">
-        <v>3.03</v>
-      </c>
-      <c r="P10" s="24">
-        <v>3.08</v>
-      </c>
-      <c r="R10" s="23"/>
-      <c r="S10" s="24"/>
-    </row>
-    <row r="11" spans="1:19" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B11" s="14">
-        <v>3.11</v>
-      </c>
-      <c r="C11" s="14">
-        <v>3.11</v>
-      </c>
-      <c r="L11" s="25">
-        <v>3.1</v>
-      </c>
-      <c r="M11" s="26">
-        <v>2.81</v>
-      </c>
-      <c r="O11" s="25">
-        <v>3.11</v>
-      </c>
-      <c r="P11" s="26">
-        <v>3.11</v>
-      </c>
-      <c r="R11" s="25"/>
-      <c r="S11" s="26"/>
-    </row>
-    <row r="12" spans="1:19" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B12" s="14">
-        <v>3.13</v>
-      </c>
-      <c r="C12" s="14">
-        <v>3.08</v>
-      </c>
-      <c r="L12" s="23">
-        <v>3.07</v>
-      </c>
-      <c r="M12" s="24">
-        <v>2.89</v>
-      </c>
-      <c r="O12" s="23">
-        <v>3.13</v>
-      </c>
-      <c r="P12" s="24">
-        <v>3.08</v>
-      </c>
-      <c r="R12" s="23"/>
-      <c r="S12" s="24"/>
-    </row>
-    <row r="13" spans="1:19" s="8" customFormat="1" ht="17" customHeight="1">
-      <c r="B13" s="14">
-        <v>3.13</v>
-      </c>
-      <c r="C13" s="14">
-        <v>2.98</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="27">
-        <v>3.01</v>
-      </c>
-      <c r="M13" s="28">
-        <v>2.97</v>
-      </c>
-      <c r="O13" s="27">
-        <v>3.13</v>
-      </c>
-      <c r="P13" s="28">
-        <v>2.98</v>
-      </c>
-      <c r="R13" s="27"/>
-      <c r="S13" s="28"/>
-    </row>
-    <row r="15" spans="1:19" ht="17">
+    </row>
+    <row r="15" spans="1:8" ht="17">
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -3677,7 +3544,7 @@
         <v>55</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" ht="22" customHeight="1">
@@ -3714,7 +3581,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" ht="22" customHeight="1">
@@ -3860,315 +3727,498 @@
         <v>10.55</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:15">
       <c r="B33" s="14"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:15">
       <c r="B34" s="14"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:15">
       <c r="B35" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="2:16" s="8" customFormat="1" ht="24" customHeight="1">
+    <row r="37" spans="2:15" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D37" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="F37" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="H37" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="I37" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="H37" s="21" t="s">
+      <c r="J37" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="I37" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="J37" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="K37" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="L37" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
+    </row>
+    <row r="38" spans="2:15" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B38" s="14">
         <f>B21+C21</f>
         <v>2.0419999999999998</v>
       </c>
-      <c r="C38" s="19" cm="1">
+      <c r="C38" s="29" cm="1">
         <f t="array" ref="C38">(Table5[b]/1000*Table4[[#This Row],[li,ges in m]]) + Table5[a]/1000</f>
         <v>1.4168E-3</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14">
+      <c r="D38" s="29">
+        <v>1.5E-3</v>
+      </c>
+      <c r="E38" s="29">
+        <v>1.8E-3</v>
+      </c>
+      <c r="F38" s="19">
         <f t="shared" ref="F38:F49" si="0">(0.5*E21+10)/1000</f>
         <v>1.7415E-2</v>
       </c>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-    </row>
-    <row r="39" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
+      <c r="G38" s="19">
+        <v>0.15134</v>
+      </c>
+      <c r="H38" s="14">
+        <v>2.9660000000000002</v>
+      </c>
+      <c r="I38" s="19">
+        <v>3.0269999999999998E-2</v>
+      </c>
+      <c r="J38" s="14">
+        <v>8.7971599999999999</v>
+      </c>
+      <c r="K38" s="14">
+        <v>0.17954999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B39" s="14">
         <f>B22+C22</f>
         <v>1.9419999999999999</v>
       </c>
-      <c r="C39" s="19" cm="1">
+      <c r="C39" s="29" cm="1">
         <f t="array" ref="C39">(Table5[b]/1000*Table4[[#This Row],[li,ges in m]]) + Table5[a]/1000</f>
         <v>1.3768000000000001E-3</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14">
+      <c r="D39" s="29">
+        <v>1.4599999999999999E-3</v>
+      </c>
+      <c r="E39" s="29">
+        <v>1.7700000000000001E-3</v>
+      </c>
+      <c r="F39" s="19">
         <f>(0.5*E22+10)/1000</f>
         <v>1.7219999999999999E-2</v>
       </c>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-    </row>
-    <row r="40" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
+      <c r="G39" s="19">
+        <v>0.15132000000000001</v>
+      </c>
+      <c r="H39" s="14">
+        <v>2.8879999999999999</v>
+      </c>
+      <c r="I39" s="19">
+        <v>3.0259999999999999E-2</v>
+      </c>
+      <c r="J39" s="14">
+        <v>8.3405400000000007</v>
+      </c>
+      <c r="K39" s="14">
+        <v>0.17480000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B40" s="14">
         <f t="shared" ref="B40:B49" si="1">B23+C23</f>
         <v>1.8420000000000001</v>
       </c>
-      <c r="C40" s="19" cm="1">
+      <c r="C40" s="29" cm="1">
         <f t="array" ref="C40">(Table5[b]/1000*Table4[[#This Row],[li,ges in m]]) + Table5[a]/1000</f>
         <v>1.3368E-3</v>
       </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14">
+      <c r="D40" s="29">
+        <v>1.4300000000000001E-3</v>
+      </c>
+      <c r="E40" s="29">
+        <v>1.74E-3</v>
+      </c>
+      <c r="F40" s="19">
         <f t="shared" si="0"/>
         <v>1.7055000000000001E-2</v>
       </c>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-    </row>
-    <row r="41" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
+      <c r="G40" s="19">
+        <v>0.15129999999999999</v>
+      </c>
+      <c r="H40" s="14">
+        <v>2.8220000000000001</v>
+      </c>
+      <c r="I40" s="19">
+        <v>3.0259999999999999E-2</v>
+      </c>
+      <c r="J40" s="14">
+        <v>7.9636800000000001</v>
+      </c>
+      <c r="K40" s="14">
+        <v>0.17077999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B41" s="14">
         <f t="shared" si="1"/>
         <v>1.742</v>
       </c>
-      <c r="C41" s="19" cm="1">
+      <c r="C41" s="29" cm="1">
         <f t="array" ref="C41">(Table5[b]/1000*Table4[[#This Row],[li,ges in m]]) + Table5[a]/1000</f>
         <v>1.2967999999999999E-3</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14">
+      <c r="D41" s="29">
+        <v>1.39E-3</v>
+      </c>
+      <c r="E41" s="29">
+        <v>1.7099999999999999E-3</v>
+      </c>
+      <c r="F41" s="19">
         <f t="shared" si="0"/>
         <v>1.6855000000000002E-2</v>
       </c>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-    </row>
-    <row r="42" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
+      <c r="G41" s="19">
+        <v>0.15126999999999999</v>
+      </c>
+      <c r="H41" s="14">
+        <v>2.742</v>
+      </c>
+      <c r="I41" s="19">
+        <v>3.0249999999999999E-2</v>
+      </c>
+      <c r="J41" s="14">
+        <v>7.5185599999999999</v>
+      </c>
+      <c r="K41" s="14">
+        <v>0.16592000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B42" s="14">
         <f t="shared" si="1"/>
         <v>1.6419999999999999</v>
       </c>
-      <c r="C42" s="19" cm="1">
+      <c r="C42" s="29" cm="1">
         <f t="array" ref="C42">(Table5[b]/1000*Table4[[#This Row],[li,ges in m]]) + Table5[a]/1000</f>
         <v>1.2568E-3</v>
       </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14">
+      <c r="D42" s="29">
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="E42" s="29">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="F42" s="19">
         <f t="shared" si="0"/>
         <v>1.6645E-2</v>
       </c>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-    </row>
-    <row r="43" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
+      <c r="G42" s="19">
+        <v>0.15125</v>
+      </c>
+      <c r="H42" s="14">
+        <v>2.6579999999999999</v>
+      </c>
+      <c r="I42" s="19">
+        <v>3.0249999999999999E-2</v>
+      </c>
+      <c r="J42" s="14">
+        <v>7.0649600000000001</v>
+      </c>
+      <c r="K42" s="14">
+        <v>0.16081000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B43" s="14">
         <f t="shared" si="1"/>
         <v>1.542</v>
       </c>
-      <c r="C43" s="19" cm="1">
+      <c r="C43" s="29" cm="1">
         <f t="array" ref="C43">(Table5[b]/1000*Table4[[#This Row],[li,ges in m]]) + Table5[a]/1000</f>
         <v>1.2168000000000001E-3</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14">
+      <c r="D43" s="29">
+        <v>1.32E-3</v>
+      </c>
+      <c r="E43" s="29">
+        <v>1.65E-3</v>
+      </c>
+      <c r="F43" s="19">
         <f t="shared" si="0"/>
         <v>1.6545000000000001E-2</v>
       </c>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="N43" s="17" t="s">
+      <c r="G43" s="19">
+        <v>0.15124000000000001</v>
+      </c>
+      <c r="H43" s="14">
+        <v>2.6179999999999999</v>
+      </c>
+      <c r="I43" s="19">
+        <v>3.0249999999999999E-2</v>
+      </c>
+      <c r="J43" s="14">
+        <v>6.8539199999999996</v>
+      </c>
+      <c r="K43" s="14">
+        <v>0.15837999999999999</v>
+      </c>
+      <c r="M43" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="O43" s="3"/>
-      <c r="P43" s="18">
+      <c r="N43" s="3"/>
+      <c r="O43" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
+    <row r="44" spans="2:15" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B44" s="14">
         <f t="shared" si="1"/>
         <v>1.4419999999999999</v>
       </c>
-      <c r="C44" s="19" cm="1">
+      <c r="C44" s="29" cm="1">
         <f t="array" ref="C44">(Table5[b]/1000*Table4[[#This Row],[li,ges in m]]) + Table5[a]/1000</f>
         <v>1.1768E-3</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14">
+      <c r="D44" s="29">
+        <v>1.2800000000000001E-3</v>
+      </c>
+      <c r="E44" s="29">
+        <v>1.6199999999999999E-3</v>
+      </c>
+      <c r="F44" s="19">
         <f t="shared" si="0"/>
         <v>1.6289999999999999E-2</v>
       </c>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="N44" s="3"/>
+      <c r="G44" s="19">
+        <v>0.15121000000000001</v>
+      </c>
+      <c r="H44" s="14">
+        <v>2.516</v>
+      </c>
+      <c r="I44" s="19">
+        <v>3.024E-2</v>
+      </c>
+      <c r="J44" s="14">
+        <v>6.33026</v>
+      </c>
+      <c r="K44" s="14">
+        <v>0.15218000000000001</v>
+      </c>
+      <c r="M44" s="3"/>
+      <c r="N44" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="O44" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="P44" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
+    <row r="45" spans="2:15" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B45" s="14">
         <f t="shared" si="1"/>
         <v>1.3420000000000001</v>
       </c>
-      <c r="C45" s="19" cm="1">
+      <c r="C45" s="29" cm="1">
         <f t="array" ref="C45">(Table5[b]/1000*Table4[[#This Row],[li,ges in m]]) + Table5[a]/1000</f>
         <v>1.1367999999999999E-3</v>
       </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14">
+      <c r="D45" s="29">
+        <v>1.24E-3</v>
+      </c>
+      <c r="E45" s="29">
+        <v>1.5900000000000001E-3</v>
+      </c>
+      <c r="F45" s="19">
         <f t="shared" si="0"/>
         <v>1.6085000000000002E-2</v>
       </c>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="N45" s="15"/>
+      <c r="G45" s="19">
+        <v>0.15118999999999999</v>
+      </c>
+      <c r="H45" s="14">
+        <v>2.4340000000000002</v>
+      </c>
+      <c r="I45" s="19">
+        <v>3.024E-2</v>
+      </c>
+      <c r="J45" s="14">
+        <v>5.9243600000000001</v>
+      </c>
+      <c r="K45" s="14">
+        <v>0.1472</v>
+      </c>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15">
+        <v>0.6</v>
+      </c>
       <c r="O45" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="P45" s="15">
         <v>0.4</v>
       </c>
     </row>
-    <row r="46" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
+    <row r="46" spans="2:15" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B46" s="14">
         <f t="shared" si="1"/>
         <v>1.242</v>
       </c>
-      <c r="C46" s="19" cm="1">
+      <c r="C46" s="29" cm="1">
         <f t="array" ref="C46">(Table5[b]/1000*Table4[[#This Row],[li,ges in m]]) + Table5[a]/1000</f>
         <v>1.0968E-3</v>
       </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14">
+      <c r="D46" s="29">
+        <v>1.2099999999999999E-3</v>
+      </c>
+      <c r="E46" s="29">
+        <v>1.57E-3</v>
+      </c>
+      <c r="F46" s="19">
         <f t="shared" si="0"/>
         <v>1.5885E-2</v>
       </c>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-    </row>
-    <row r="47" spans="2:16" s="8" customFormat="1" ht="22" customHeight="1">
+      <c r="G46" s="19">
+        <v>0.15117</v>
+      </c>
+      <c r="H46" s="14">
+        <v>2.3540000000000001</v>
+      </c>
+      <c r="I46" s="19">
+        <v>3.023E-2</v>
+      </c>
+      <c r="J46" s="14">
+        <v>5.5413199999999998</v>
+      </c>
+      <c r="K46" s="14">
+        <v>0.14233999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" s="8" customFormat="1" ht="22" customHeight="1">
       <c r="B47" s="14">
         <f t="shared" si="1"/>
         <v>1.1419999999999999</v>
       </c>
-      <c r="C47" s="19" cm="1">
+      <c r="C47" s="29" cm="1">
         <f t="array" ref="C47">(Table5[b]/1000*Table4[[#This Row],[li,ges in m]]) + Table5[a]/1000</f>
         <v>1.0567999999999999E-3</v>
       </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14">
+      <c r="D47" s="29">
+        <v>1.17E-3</v>
+      </c>
+      <c r="E47" s="29">
+        <v>1.5399999999999999E-3</v>
+      </c>
+      <c r="F47" s="19">
         <f t="shared" si="0"/>
         <v>1.5635E-2</v>
       </c>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-    </row>
-    <row r="48" spans="2:16" ht="22" customHeight="1">
+      <c r="G47" s="19">
+        <v>0.15114</v>
+      </c>
+      <c r="H47" s="14">
+        <v>2.254</v>
+      </c>
+      <c r="I47" s="19">
+        <v>3.023E-2</v>
+      </c>
+      <c r="J47" s="14">
+        <v>5.0805199999999999</v>
+      </c>
+      <c r="K47" s="14">
+        <v>0.13627</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" ht="22" customHeight="1">
       <c r="B48" s="14">
         <f t="shared" si="1"/>
         <v>1.042</v>
       </c>
-      <c r="C48" s="19" cm="1">
+      <c r="C48" s="29" cm="1">
         <f t="array" ref="C48">(Table5[b]/1000*Table4[[#This Row],[li,ges in m]]) + Table5[a]/1000</f>
         <v>1.0168E-3</v>
       </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14">
+      <c r="D48" s="29">
+        <v>1.1299999999999999E-3</v>
+      </c>
+      <c r="E48" s="29">
+        <v>1.5100000000000001E-3</v>
+      </c>
+      <c r="F48" s="19">
         <f t="shared" si="0"/>
         <v>1.5474999999999999E-2</v>
       </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-    </row>
-    <row r="49" spans="2:12" ht="22" customHeight="1">
+      <c r="G48" s="19">
+        <v>0.15112999999999999</v>
+      </c>
+      <c r="H48" s="14">
+        <v>2.19</v>
+      </c>
+      <c r="I48" s="19">
+        <v>3.023E-2</v>
+      </c>
+      <c r="J48" s="14">
+        <v>4.7961</v>
+      </c>
+      <c r="K48" s="14">
+        <v>0.13239000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="22" customHeight="1">
       <c r="B49" s="14">
         <f t="shared" si="1"/>
         <v>0.94200000000000006</v>
       </c>
-      <c r="C49" s="19" cm="1">
+      <c r="C49" s="29" cm="1">
         <f t="array" ref="C49">(Table5[b]/1000*Table4[[#This Row],[li,ges in m]]) + Table5[a]/1000</f>
         <v>9.7679999999999989E-4</v>
       </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14">
+      <c r="D49" s="29">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E49" s="29">
+        <v>1.48E-3</v>
+      </c>
+      <c r="F49" s="19">
         <f t="shared" si="0"/>
         <v>1.5275E-2</v>
       </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
+      <c r="G49" s="19">
+        <v>0.15110999999999999</v>
+      </c>
+      <c r="H49" s="14">
+        <v>2.11</v>
+      </c>
+      <c r="I49" s="19">
+        <v>3.022E-2</v>
+      </c>
+      <c r="J49" s="14">
+        <v>4.4520999999999997</v>
+      </c>
+      <c r="K49" s="14">
+        <v>0.12753</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="6">
     <tablePart r:id="rId1"/>
@@ -4185,7 +4235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FA1135-DD52-3C46-BAEB-583B68230B7C}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>

--- a/Pendulum/F3_Fadenpendel.xlsx
+++ b/Pendulum/F3_Fadenpendel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Pendulum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D33595-787F-4C49-8AA0-81255817EE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57EC735-6D18-E842-AFBF-88C57242841A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13460" yWindow="760" windowWidth="28300" windowHeight="18880" activeTab="1" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
+    <workbookView xWindow="3500" yWindow="760" windowWidth="28300" windowHeight="18880" activeTab="1" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Durchführung" sheetId="3" r:id="rId1"/>
@@ -3397,8 +3397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FB1E29-01ED-F443-A5A0-FF909B503056}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="95" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38:I49"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="95" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Pendulum/F3_Fadenpendel.xlsx
+++ b/Pendulum/F3_Fadenpendel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Pendulum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57EC735-6D18-E842-AFBF-88C57242841A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B7694F-46E7-2546-8578-8C8E6A05C1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="760" windowWidth="28300" windowHeight="18880" activeTab="1" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
+    <workbookView xWindow="1940" yWindow="760" windowWidth="28300" windowHeight="18880" activeTab="1" xr2:uid="{0C87622E-8A3E-9447-883B-E874DD3727AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Durchführung" sheetId="3" r:id="rId1"/>
@@ -1069,42 +1069,6 @@
   </cellStyles>
   <dxfs count="36">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1144,6 +1108,42 @@
         <name val="Calibri-Light"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2769,35 +2769,35 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{55BB7A07-8828-5A4C-BD4B-3B1D7C9E9371}" name="∆li,Faden in m" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{CB345EF9-91E9-2047-B67F-56D715444FAC}" name="∆li,ges in m" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{F6AF1455-964D-4B4E-ADDF-86C230059387}" name="∆τ1Uhr in s" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{55BB7A07-8828-5A4C-BD4B-3B1D7C9E9371}" name="∆li,Faden in m" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{CB345EF9-91E9-2047-B67F-56D715444FAC}" name="∆li,ges in m" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{F6AF1455-964D-4B4E-ADDF-86C230059387}" name="∆τ1Uhr in s" dataDxfId="14">
       <calculatedColumnFormula>(0.5*E21+10)/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8F889AD9-8191-F94F-8CD2-8F439EA085FE}" name="∆τ1, ges in s" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{28B02484-B961-B74D-9AB6-9E095216CB7C}" name="Ti in s" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{55424E9E-945A-8D47-9687-E64501944523}" name="∆Ti in s" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{8F889AD9-8191-F94F-8CD2-8F439EA085FE}" name="∆τ1, ges in s" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{28B02484-B961-B74D-9AB6-9E095216CB7C}" name="Ti in s" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{55424E9E-945A-8D47-9687-E64501944523}" name="∆Ti in s" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{73B7D59F-1C63-4547-AD26-D8CFBE8D4073}" name="Table8" displayName="Table8" ref="J37:K49" totalsRowShown="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{73B7D59F-1C63-4547-AD26-D8CFBE8D4073}" name="Table8" displayName="Table8" ref="J37:K49" totalsRowShown="0" dataDxfId="10">
   <autoFilter ref="J37:K49" xr:uid="{73B7D59F-1C63-4547-AD26-D8CFBE8D4073}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8DB91CAB-F9B3-E542-B44E-A2119BA78EFC}" name="yi in s2" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{ACF2ADD9-FFC0-124F-A10E-AD96D23A054B}" name="∆yi in s2" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{8DB91CAB-F9B3-E542-B44E-A2119BA78EFC}" name="yi in s2" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{ACF2ADD9-FFC0-124F-A10E-AD96D23A054B}" name="∆yi in s2" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4AAF9D21-8339-7248-AA21-DA25D233DC2D}" name="Table6" displayName="Table6" ref="B3:G5" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4AAF9D21-8339-7248-AA21-DA25D233DC2D}" name="Table6" displayName="Table6" ref="B3:G5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B3:G5" xr:uid="{4AAF9D21-8339-7248-AA21-DA25D233DC2D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2807,12 +2807,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6261AB11-CFEF-2D47-B567-0EA7AE1B7E2B}" name=" " dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{E231D29B-F6D8-774F-9CC2-B924F00DBABA}" name="mean" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{31F917E6-C6B3-C44A-BFA1-DB5A07FB6758}" name="stdev" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{0952568A-3564-1140-91F5-02ACBC6C84C1}" name="cov" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{FCEB2C04-DB74-7347-A758-5F8318B07AC0}" name="sys" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{9BE7E060-5CB7-4E49-9CB8-F31A15C6E537}" name="total error" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{6261AB11-CFEF-2D47-B567-0EA7AE1B7E2B}" name=" " dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{E231D29B-F6D8-774F-9CC2-B924F00DBABA}" name="mean" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{31F917E6-C6B3-C44A-BFA1-DB5A07FB6758}" name="stdev" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{0952568A-3564-1140-91F5-02ACBC6C84C1}" name="cov" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{FCEB2C04-DB74-7347-A758-5F8318B07AC0}" name="sys" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{9BE7E060-5CB7-4E49-9CB8-F31A15C6E537}" name="total error" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3397,8 +3397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FB1E29-01ED-F443-A5A0-FF909B503056}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="95" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="95" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
